--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5809FFCB-B05B-448C-94B2-60D02B06CB1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
@@ -17,8 +18,9 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1533,7 +1535,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -1801,7 +1803,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1815,7 +1817,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1925,9 +1926,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1988,7 +1988,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D2DA-40E7-AF9C-D6B77FEF1AE2}"/>
             </c:ext>
@@ -2137,14 +2137,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2180,7 +2180,361 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[2]中科创达(300496)_利润表 (1)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>利润率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[2]中科创达(300496)_利润表 (1)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[2]中科创达(300496)_利润表 (1)'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53E7-43D6-9378-1BE460360DA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="547169912"/>
+        <c:axId val="547168632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="547169912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547168632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547168632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547169912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2287,7 +2641,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2355,7 +2709,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-87A4-4000-8E98-60544EE1C559}"/>
             </c:ext>
@@ -2485,14 +2839,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2527,8 +2881,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2654,7 +3008,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2722,7 +3076,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CB20-4061-B741-69197F46C34B}"/>
             </c:ext>
@@ -2865,14 +3219,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2907,8 +3261,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3031,7 +3385,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3093,7 +3447,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0D1-4B15-AB9E-478195AFE5D5}"/>
             </c:ext>
@@ -3242,14 +3596,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3284,8 +3638,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3398,7 +3752,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3466,7 +3820,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-717D-43FC-9ACE-4270697C038C}"/>
             </c:ext>
@@ -3615,14 +3969,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3857,6 +4211,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
@@ -4864,6 +5258,474 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5384,7 +6246,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5922,7 +6784,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6480,7 +7342,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6495,6 +7357,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2490787</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1504949</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6523,7 +7423,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6561,7 +7461,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6599,7 +7499,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8624A653-617C-4264-B426-4C6736718991}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8624A653-617C-4264-B426-4C6736718991}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6637,7 +7537,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6816,8 +7716,75 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="中科创达(300496)_利润表 (1)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>利润率</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>2013</v>
+          </cell>
+          <cell r="B2">
+            <v>0.28999999999999998</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2014</v>
+          </cell>
+          <cell r="B3">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2015</v>
+          </cell>
+          <cell r="B4">
+            <v>0.19</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2016</v>
+          </cell>
+          <cell r="B5">
+            <v>0.14000000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>2017</v>
+          </cell>
+          <cell r="B6">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>2018</v>
+          </cell>
+          <cell r="B7">
+            <v>0.12</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6892,6 +7859,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6927,6 +7911,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7102,7 +8103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9027,7 +10028,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S32" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"每股收益率&gt;7%,低价优质股,市场价格低于净资产价格,基于研发投入"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9037,7 +10038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
@@ -9443,9 +10444,9 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q5" r:id="rId1"/>
-    <hyperlink ref="R5" r:id="rId2"/>
-    <hyperlink ref="S5" r:id="rId3"/>
+    <hyperlink ref="Q5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="R5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="S5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -9453,7 +10454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9548,11 +10549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="M2" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9759,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="58" t="s">
         <v>254</v>
       </c>
@@ -9858,7 +10859,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -9867,7 +10868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10004,10 +11005,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -10123,7 +11124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5809FFCB-B05B-448C-94B2-60D02B06CB1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
@@ -19,8 +18,9 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="331">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -346,10 +346,6 @@
   </si>
   <si>
     <t>汽车零部件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联发股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -413,10 +409,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                          </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -526,22 +518,6 @@
   </si>
   <si>
     <t>资产负债表影响收益的异常因素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈利误导手段
-1 虚增商誉无形资产
-2 租赁物增值
-3 按市场价值计算股票股息导致虚增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备金
-折旧和摊销</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1531,16 +1507,95 @@
     <t>意义：三个同学股市</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>宁波精达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备金
+折旧和摊销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利误导手段
+1 虚增商誉无形资产
+2 租赁物增值
+3 按市场价值计算股票股息导致虚增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1市场竞争
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2毛利率下降
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3市场开拓
+4高素质技术工人流动
+5合同履约
+6应收账款
+7汇率风险
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8存货风险</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">41（6家行业平均）
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产负债比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入来源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,6 +1660,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1639,7 +1702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1782,6 +1845,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1817,6 +1883,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1928,6 +1995,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2137,6 +2205,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2144,7 +2213,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2194,6 +2262,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2289,6 +2358,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2491,6 +2561,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2498,7 +2569,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2548,6 +2618,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2643,6 +2714,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2839,6 +2911,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2846,7 +2919,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2896,6 +2968,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3010,6 +3083,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3219,6 +3293,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3226,7 +3301,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3276,6 +3350,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3387,6 +3462,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3596,6 +3672,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3603,7 +3680,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3653,6 +3729,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3754,6 +3831,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3969,6 +4047,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3976,7 +4055,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7324,6 +7402,87 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1052099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562599" y="390524"/>
+          <a:ext cx="2247901" cy="1004475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2657476</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1326768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13277850" y="514349"/>
+          <a:ext cx="2657476" cy="1326769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -7403,7 +7562,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7783,6 +7942,73 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="宁波精达(603088)_利润表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>净利润</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>2013</v>
+          </cell>
+          <cell r="B34">
+            <v>3495</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>2014</v>
+          </cell>
+          <cell r="B35">
+            <v>3743</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>2015</v>
+          </cell>
+          <cell r="B36">
+            <v>2088</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>2016</v>
+          </cell>
+          <cell r="B37">
+            <v>1898</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>2017</v>
+          </cell>
+          <cell r="B38">
+            <v>3101</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>2018</v>
+          </cell>
+          <cell r="B39">
+            <v>3150</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -7859,23 +8085,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7911,23 +8120,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8103,7 +8295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8184,7 +8376,7 @@
         <v>37</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -8245,7 +8437,7 @@
         <v>7</v>
       </c>
       <c r="S2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -8304,7 +8496,7 @@
         <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -8363,7 +8555,7 @@
         <v>47</v>
       </c>
       <c r="S4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
@@ -8423,7 +8615,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8484,7 +8676,7 @@
         <v>3</v>
       </c>
       <c r="S6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
@@ -8545,7 +8737,7 @@
         <v>12</v>
       </c>
       <c r="S7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
@@ -8604,7 +8796,7 @@
         <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
@@ -8664,7 +8856,7 @@
         <v>5</v>
       </c>
       <c r="S9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
@@ -8723,7 +8915,7 @@
         <v>44</v>
       </c>
       <c r="S10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
@@ -8784,7 +8976,7 @@
         <v>9</v>
       </c>
       <c r="S11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8843,7 +9035,7 @@
         <v>42</v>
       </c>
       <c r="S12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -8903,7 +9095,7 @@
         <v>11</v>
       </c>
       <c r="S13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -8964,7 +9156,7 @@
         <v>19</v>
       </c>
       <c r="S14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
@@ -9023,7 +9215,7 @@
         <v>17</v>
       </c>
       <c r="S15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
@@ -9082,7 +9274,7 @@
         <v>38</v>
       </c>
       <c r="S16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
@@ -9141,7 +9333,7 @@
         <v>40</v>
       </c>
       <c r="S17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
@@ -9200,7 +9392,7 @@
         <v>51</v>
       </c>
       <c r="S18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
@@ -9260,7 +9452,7 @@
         <v>53</v>
       </c>
       <c r="S19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
@@ -9319,7 +9511,7 @@
         <v>55</v>
       </c>
       <c r="S20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
@@ -9378,7 +9570,7 @@
         <v>57</v>
       </c>
       <c r="S21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
@@ -9437,7 +9629,7 @@
         <v>59</v>
       </c>
       <c r="S22" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
@@ -9496,7 +9688,7 @@
         <v>61</v>
       </c>
       <c r="S23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
@@ -9555,7 +9747,7 @@
         <v>68</v>
       </c>
       <c r="S24" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
@@ -9614,7 +9806,7 @@
         <v>75</v>
       </c>
       <c r="S25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
@@ -9669,7 +9861,7 @@
         <v>63</v>
       </c>
       <c r="S26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
@@ -9728,7 +9920,7 @@
         <v>65</v>
       </c>
       <c r="S27" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
@@ -9787,7 +9979,7 @@
         <v>67</v>
       </c>
       <c r="S28" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
@@ -9846,7 +10038,7 @@
         <v>70</v>
       </c>
       <c r="S29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
@@ -9905,7 +10097,7 @@
         <v>72</v>
       </c>
       <c r="S30" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
@@ -9964,7 +10156,7 @@
         <v>70</v>
       </c>
       <c r="S31" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
@@ -10019,7 +10211,7 @@
         <v>78</v>
       </c>
       <c r="S32" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -10028,7 +10220,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S32" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S32">
       <formula1>"每股收益率&gt;7%,低价优质股,市场价格低于净资产价格,基于研发投入"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10038,11 +10230,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:O12"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10063,99 +10255,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63" t="s">
+      <c r="B1" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="U1" s="63"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="U1" s="64"/>
     </row>
     <row r="2" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="H2" s="42" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="L2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="N2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P2" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="S2" s="42" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="T2" s="42" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -10163,24 +10355,24 @@
     </row>
     <row r="3" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="62"/>
-      <c r="I3" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
+        <v>206</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="I3" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -10188,7 +10380,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" s="33">
         <v>9.31</v>
@@ -10203,7 +10395,7 @@
     </row>
     <row r="5" spans="1:23" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B5" s="32">
         <f>(12.3-0.76)/2.43</f>
@@ -10230,21 +10422,21 @@
         <v>1.2235244872331519</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q5" s="45" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="R5" s="45" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S5" s="45" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B6" s="33">
         <f>(64.19-8.12-1.98)/10.75</f>
@@ -10265,7 +10457,7 @@
     </row>
     <row r="7" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B7" s="32">
         <f>(39.49-7.59)/11.61</f>
@@ -10294,7 +10486,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B8" s="33">
         <f>(30.56-2.27)/22.78</f>
@@ -10307,7 +10499,7 @@
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B9" s="32">
         <f>(51122-7348)/11200</f>
@@ -10335,7 +10527,7 @@
     </row>
     <row r="10" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B10" s="33">
         <f>(140755-37289-28391)/40362</f>
@@ -10362,12 +10554,12 @@
         <v>1.6239335428828019</v>
       </c>
       <c r="P10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B11" s="32">
         <f>(33.63-4.18)/9.08</f>
@@ -10397,7 +10589,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B12" s="33">
         <f>(113.17-4.6)/11.687</f>
@@ -10427,7 +10619,7 @@
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -10444,9 +10636,9 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="R5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="S5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="Q5" r:id="rId1"/>
+    <hyperlink ref="R5" r:id="rId2"/>
+    <hyperlink ref="S5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -10454,105 +10646,148 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="31.625" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="32.75" customWidth="1"/>
-    <col min="11" max="11" width="30.375" customWidth="1"/>
+    <col min="11" max="11" width="39.25" customWidth="1"/>
+    <col min="12" max="12" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B1" s="63" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B1" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63" t="s">
+      <c r="C2" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-    </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>97</v>
-      </c>
       <c r="I2" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="63"/>
+      <c r="L2" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.15">
-      <c r="J38" t="s">
-        <v>90</v>
+    </row>
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="57" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4">
+        <v>237</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>132</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2912</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.36759999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J39" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -10583,154 +10818,154 @@
   <sheetData>
     <row r="1" spans="1:25" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="N1" s="63"/>
+      <c r="O1" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62" t="s">
+      <c r="P1" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="49" t="s">
+      <c r="Q1" s="63"/>
+      <c r="R1" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="S1" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="S1" s="49" t="s">
-        <v>252</v>
-      </c>
       <c r="T1" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="W1" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="U1" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="V1" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="W1" s="51" t="s">
-        <v>272</v>
-      </c>
       <c r="X1" s="51" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Y1" s="54" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="59" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B3" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="G3" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="H3" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="F3" s="47" t="s">
+      <c r="J3" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="47" t="s">
+      <c r="K3" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="N3" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="O3" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="K3" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="L3" s="52" t="s">
+      <c r="P3" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="R3" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="S3" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="T3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="U3" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="V3" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="M3" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="P3" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="R3" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="S3" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="T3" s="47" t="s">
+      <c r="W3" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="U3" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="V3" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="W3" s="47" t="s">
-        <v>273</v>
-      </c>
       <c r="X3" s="47" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Y3" s="47" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="58" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E4">
         <v>3.14</v>
@@ -10742,7 +10977,7 @@
         <v>127</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K4" s="5">
         <f>5484/93277</f>
@@ -10762,13 +10997,13 @@
     </row>
     <row r="5" spans="1:25" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="58" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="7">
@@ -10784,7 +11019,7 @@
         <v>2234</v>
       </c>
       <c r="J5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K5" s="50">
         <f>4645/116233</f>
@@ -10805,18 +11040,18 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="58" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E6">
         <v>4.32</v>
@@ -10828,7 +11063,7 @@
         <v>208</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K6" s="50">
         <f>2618/30796</f>
@@ -10844,10 +11079,10 @@
       </c>
       <c r="O6" s="47"/>
       <c r="Q6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="R6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -10859,7 +11094,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -10868,7 +11103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10892,70 +11127,70 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63" t="s">
-        <v>296</v>
-      </c>
-      <c r="G1" s="63"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64" t="s">
         <v>299</v>
       </c>
-      <c r="I1" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63" t="s">
-        <v>304</v>
-      </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B3" s="5">
         <f>1.33/13.41</f>
@@ -11005,7 +11240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -11029,87 +11264,87 @@
   <sheetData>
     <row r="1" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>314</v>
-      </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63" t="s">
-        <v>321</v>
-      </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B2" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>287</v>
-      </c>
       <c r="F2" s="47" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H2" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="J2" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="K2" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="J2" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>324</v>
-      </c>
       <c r="L2" s="47" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="G3" s="47" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H3" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="I3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J3" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="J3" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>325</v>
-      </c>
       <c r="L3" s="47" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -11124,7 +11359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11139,94 +11374,94 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D16">
         <v>1.75</v>
@@ -11234,7 +11469,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -11242,7 +11477,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -11250,116 +11485,116 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D32" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E33">
         <v>1.75</v>
       </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C36" s="43" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -11370,10 +11605,10 @@
     <row r="37" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C37" s="43"/>
       <c r="D37" s="43" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
@@ -11382,7 +11617,7 @@
     <row r="38" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C38" s="43"/>
       <c r="D38" s="43" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E38" s="44">
         <v>14245</v>
@@ -11394,7 +11629,7 @@
     <row r="39" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C39" s="43"/>
       <c r="D39" s="43" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E39" s="43">
         <v>37663000</v>
@@ -11406,7 +11641,7 @@
     <row r="40" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C40" s="43"/>
       <c r="D40" s="43" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E40" s="43">
         <v>22554000</v>
@@ -11418,10 +11653,10 @@
     <row r="41" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C41" s="43"/>
       <c r="D41" s="43" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
@@ -11430,7 +11665,7 @@
     <row r="42" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C42" s="43"/>
       <c r="D42" s="43" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E42" s="43">
         <v>15109000</v>
@@ -11442,7 +11677,7 @@
     <row r="43" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C43" s="43"/>
       <c r="D43" s="43" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E43" s="43">
         <v>1819000</v>
@@ -11454,7 +11689,7 @@
     <row r="44" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C44" s="43"/>
       <c r="D44" s="43" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E44" s="43">
         <v>13290000</v>
@@ -11466,7 +11701,7 @@
     <row r="45" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C45" s="43"/>
       <c r="D45" s="43" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E45" s="43">
         <v>1.55</v>
@@ -11478,7 +11713,7 @@
     <row r="46" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C46" s="43"/>
       <c r="D46" s="43" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E46" s="43">
         <v>1.53</v>
@@ -11490,7 +11725,7 @@
     <row r="47" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C47" s="43"/>
       <c r="D47" s="43" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E47" s="43">
         <v>438000000</v>
@@ -11502,10 +11737,10 @@
     <row r="48" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C48" s="43"/>
       <c r="D48" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" s="43" t="s">
         <v>165</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>170</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="43"/>
@@ -11514,10 +11749,10 @@
     <row r="49" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C49" s="43"/>
       <c r="D49" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="43" t="s">
         <v>166</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>171</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="43"/>
@@ -11526,7 +11761,7 @@
     <row r="50" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C50" s="43"/>
       <c r="D50" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E50" s="43">
         <v>221000000</v>
@@ -11538,10 +11773,10 @@
     <row r="51" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C51" s="43"/>
       <c r="D51" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
@@ -11549,32 +11784,32 @@
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D56" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D57" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E57">
         <v>10000</v>
@@ -11582,7 +11817,7 @@
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D58" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E58">
         <v>2000000</v>
@@ -11590,7 +11825,7 @@
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D59" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E59">
         <v>3000000</v>
@@ -11598,7 +11833,7 @@
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E60">
         <v>5000000</v>
@@ -11606,12 +11841,12 @@
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D61" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D62" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E62">
         <v>1.75</v>
@@ -11619,7 +11854,7 @@
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D63" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -11627,7 +11862,7 @@
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D64" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -11635,7 +11870,7 @@
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D65" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -11643,52 +11878,52 @@
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D66" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D67" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E67" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D68" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E68" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D69" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D70" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D71" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E71" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D72" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E72" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="333">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1586,14 +1585,23 @@
     <t>收入来源</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>永安药业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永安药业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1702,7 +1710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1850,6 +1858,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1883,7 +1892,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1995,7 +2003,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2262,7 +2269,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2358,7 +2364,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2618,7 +2623,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2714,7 +2718,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2968,7 +2971,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3083,7 +3085,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3350,7 +3351,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3462,7 +3462,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3729,7 +3728,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3831,7 +3829,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7942,73 +7939,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="宁波精达(603088)_利润表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>净利润</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>2013</v>
-          </cell>
-          <cell r="B34">
-            <v>3495</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>2014</v>
-          </cell>
-          <cell r="B35">
-            <v>3743</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>2015</v>
-          </cell>
-          <cell r="B36">
-            <v>2088</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>2016</v>
-          </cell>
-          <cell r="B37">
-            <v>1898</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>2017</v>
-          </cell>
-          <cell r="B38">
-            <v>3101</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>2018</v>
-          </cell>
-          <cell r="B39">
-            <v>3150</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -10233,8 +10163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10409,7 +10339,7 @@
         <v>1.17E-2</v>
       </c>
       <c r="I5" s="18"/>
-      <c r="M5" s="17">
+      <c r="M5" s="32">
         <f>208/17</f>
         <v>12.235294117647058</v>
       </c>
@@ -10450,7 +10380,7 @@
         <v>6.3E-3</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="M6">
+      <c r="M6" s="33">
         <f>736/17</f>
         <v>43.294117647058826</v>
       </c>
@@ -10471,7 +10401,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="I7" s="18"/>
-      <c r="M7" s="17">
+      <c r="M7" s="32">
         <f>557/15</f>
         <v>37.133333333333333</v>
       </c>
@@ -10496,6 +10426,7 @@
         <f>(41.16-16.75)/22.78</f>
         <v>1.071553994732221</v>
       </c>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
@@ -10512,7 +10443,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="M9" s="17">
+      <c r="M9" s="32">
         <f>304/18</f>
         <v>16.888888888888889</v>
       </c>
@@ -10542,7 +10473,7 @@
       <c r="I10" s="5">
         <v>0.41399999999999998</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="33">
         <v>37.799999999999997</v>
       </c>
       <c r="N10" s="7">
@@ -10574,7 +10505,7 @@
       <c r="I11" s="18">
         <v>0.66410000000000002</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="32">
         <f>407/12</f>
         <v>33.916666666666664</v>
       </c>
@@ -10604,7 +10535,7 @@
       <c r="I12" s="5">
         <v>0.49509999999999998</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="33">
         <f>936/32</f>
         <v>29.25</v>
       </c>
@@ -10617,7 +10548,97 @@
         <v>0.81263604078359486</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="32">
+        <f>(15.54-0.89)/2.95</f>
+        <v>4.9661016949152534</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="H13" s="18">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="M13" s="32">
+        <f>1389/17</f>
+        <v>81.705882352941174</v>
+      </c>
+      <c r="N13" s="20">
+        <f>7.37/2.66</f>
+        <v>2.7706766917293231</v>
+      </c>
+      <c r="O13" s="20">
+        <f>(7.37-0.85)/2.66</f>
+        <v>2.4511278195488724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D14">
+        <v>2017</v>
+      </c>
+      <c r="E14" s="7">
+        <f>0.71*(12568.76/13315.07)</f>
+        <v>0.67020448259002763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D15">
+        <v>2016</v>
+      </c>
+      <c r="E15" s="7">
+        <f>0.33*(4069.73/6229.7)</f>
+        <v>0.21558195418720003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <v>2015</v>
+      </c>
+      <c r="E16" s="65">
+        <f>0.09*(29.05/1761.26)*(-1)</f>
+        <v>-1.4844486333647502E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D17">
+        <v>2014</v>
+      </c>
+      <c r="E17" s="7">
+        <f>0.17*(1789.31/3172.23)</f>
+        <v>9.5889232495752208E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D18">
+        <v>2013</v>
+      </c>
+      <c r="E18" s="7">
+        <f>0.12*(1166.36/2300.66)</f>
+        <v>6.0836107899472316E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D19">
+        <v>2012</v>
+      </c>
+      <c r="E19" s="7">
+        <f>0.4*(6835.64/7535.6)</f>
+        <v>0.36284516163278308</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E20" s="7">
+        <f>SUM(E14:E19)/6</f>
+        <v>0.23397874836197841</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>92</v>
       </c>
@@ -10649,8 +10670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10763,6 +10784,11 @@
       </c>
       <c r="J4" s="5">
         <v>0.36759999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="10:10" x14ac:dyDescent="0.15">

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
     <sheet name="资产负债表-低价股F" sheetId="14" r:id="rId2"/>
     <sheet name="损益表分析-收益股G" sheetId="15" r:id="rId3"/>
     <sheet name="成长股十五原则" sheetId="17" r:id="rId4"/>
-    <sheet name="成长股财务指标" sheetId="19" r:id="rId5"/>
-    <sheet name="成长股买卖原则" sheetId="18" r:id="rId6"/>
-    <sheet name="债券选择原则-H" sheetId="16" r:id="rId7"/>
+    <sheet name="投资者不要原则" sheetId="20" r:id="rId5"/>
+    <sheet name="成长股财务指标" sheetId="19" r:id="rId6"/>
+    <sheet name="成长股买卖原则" sheetId="18" r:id="rId7"/>
+    <sheet name="债券选择原则-H" sheetId="16" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="337">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1593,15 +1594,32 @@
     <t>永安药业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>不要过度分散化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要过度重视过往收益和价格变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要担心战争时刻买入股票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真正重要的是从过往发现探索未来的线索
+，并且将现在和过往因素综合来寻找未来的蛛丝马迹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1710,7 +1728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1853,12 +1871,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1878,7 +1899,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2001,7 +2022,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2063,7 +2084,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D2DA-40E7-AF9C-D6B77FEF1AE2}"/>
             </c:ext>
@@ -2094,11 +2115,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="159267880"/>
-        <c:axId val="159284264"/>
+        <c:axId val="247109064"/>
+        <c:axId val="247299248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159267880"/>
+        <c:axId val="247109064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2141,7 +2162,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159284264"/>
+        <c:crossAx val="247299248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2149,7 +2170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159284264"/>
+        <c:axId val="247299248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,7 +2207,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159267880"/>
+        <c:crossAx val="247109064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2213,7 +2234,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -2255,7 +2276,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2362,7 +2383,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2436,7 +2457,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-53E7-43D6-9378-1BE460360DA0}"/>
             </c:ext>
@@ -2452,11 +2473,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="547169912"/>
-        <c:axId val="547168632"/>
+        <c:axId val="247267232"/>
+        <c:axId val="247267616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="547169912"/>
+        <c:axId val="247267232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2517,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547168632"/>
+        <c:crossAx val="247267616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2504,7 +2525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="547168632"/>
+        <c:axId val="247267616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,7 +2573,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547169912"/>
+        <c:crossAx val="247267232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2567,7 +2588,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -2609,7 +2630,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2623,6 +2644,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2716,8 +2738,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2784,7 +2807,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-87A4-4000-8E98-60544EE1C559}"/>
             </c:ext>
@@ -2800,11 +2823,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="158612872"/>
-        <c:axId val="158613256"/>
+        <c:axId val="247812912"/>
+        <c:axId val="247813296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158612872"/>
+        <c:axId val="247812912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,7 +2867,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158613256"/>
+        <c:crossAx val="247813296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2852,7 +2875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158613256"/>
+        <c:axId val="247813296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,7 +2923,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158612872"/>
+        <c:crossAx val="247812912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2915,7 +2938,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -2957,7 +2980,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2971,6 +2994,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3083,8 +3107,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3151,7 +3176,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CB20-4061-B741-69197F46C34B}"/>
             </c:ext>
@@ -3168,11 +3193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243541472"/>
-        <c:axId val="242558368"/>
+        <c:axId val="247423008"/>
+        <c:axId val="247427488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243541472"/>
+        <c:axId val="247423008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3229,7 +3254,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242558368"/>
+        <c:crossAx val="247427488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3237,7 +3262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242558368"/>
+        <c:axId val="247427488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,7 +3305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243541472"/>
+        <c:crossAx val="247423008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3295,7 +3320,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -3337,7 +3362,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3351,6 +3376,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3460,8 +3486,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3522,7 +3549,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0D1-4B15-AB9E-478195AFE5D5}"/>
             </c:ext>
@@ -3553,11 +3580,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="242623552"/>
-        <c:axId val="242709912"/>
+        <c:axId val="245092464"/>
+        <c:axId val="247473688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="242623552"/>
+        <c:axId val="245092464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,7 +3627,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242709912"/>
+        <c:crossAx val="247473688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3608,7 +3635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242709912"/>
+        <c:axId val="247473688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3645,7 +3672,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242623552"/>
+        <c:crossAx val="245092464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3672,7 +3699,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -3714,7 +3741,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3728,6 +3755,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3827,8 +3855,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3895,7 +3924,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-717D-43FC-9ACE-4270697C038C}"/>
             </c:ext>
@@ -3926,11 +3955,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="242745032"/>
-        <c:axId val="242738504"/>
+        <c:axId val="247474472"/>
+        <c:axId val="247474864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="242745032"/>
+        <c:axId val="247474472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3973,7 +4002,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242738504"/>
+        <c:crossAx val="247474864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3981,7 +4010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242738504"/>
+        <c:axId val="247474864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4018,7 +4047,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242745032"/>
+        <c:crossAx val="247474472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4045,7 +4074,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -7498,7 +7527,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7536,7 +7565,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7579,7 +7608,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7617,7 +7646,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7655,7 +7684,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8624A653-617C-4264-B426-4C6736718991}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8624A653-617C-4264-B426-4C6736718991}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7693,7 +7722,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7940,7 +7969,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10185,38 +10214,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64" t="s">
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64" t="s">
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="U1" s="64"/>
+      <c r="U1" s="66"/>
     </row>
     <row r="2" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -10287,22 +10316,22 @@
       <c r="B3" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="I3" s="63" t="s">
+      <c r="D3" s="65"/>
+      <c r="I3" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63" t="s">
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -10600,7 +10629,7 @@
       <c r="D16">
         <v>2015</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="64">
         <f>0.09*(29.05/1761.26)*(-1)</f>
         <v>-1.4844486333647502E-3</v>
       </c>
@@ -10670,8 +10699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10687,22 +10716,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -10732,10 +10761,10 @@
       <c r="I2" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="63"/>
+      <c r="K2" s="65"/>
       <c r="L2" s="42" t="s">
         <v>117</v>
       </c>
@@ -10814,7 +10843,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10852,30 +10881,30 @@
       <c r="C1" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="N1" s="63"/>
+      <c r="N1" s="65"/>
       <c r="O1" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="Q1" s="63"/>
+      <c r="Q1" s="65"/>
       <c r="R1" s="49" t="s">
         <v>245</v>
       </c>
@@ -11130,10 +11159,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="38.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C2" s="47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11155,28 +11222,28 @@
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="64"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64" t="s">
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="M1" s="64"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
@@ -11265,7 +11332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
@@ -11307,16 +11374,16 @@
       <c r="F1" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B2" s="47" t="s">
@@ -11384,7 +11451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="344">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1611,11 +1611,41 @@
 ，并且将现在和过往因素综合来寻找未来的蛛丝马迹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>行业分散/公司分散/主营分散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争失败会降低证券和货币的价值，
+成功的影响具体看公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3w吨新项目制造智能化
+ARP代替ERP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场规模、品牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -1899,7 +1929,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1913,6 +1943,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2022,8 +2053,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2084,7 +2116,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D2DA-40E7-AF9C-D6B77FEF1AE2}"/>
             </c:ext>
@@ -2234,7 +2266,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -2276,7 +2308,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2290,6 +2322,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2383,8 +2416,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2457,7 +2491,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-53E7-43D6-9378-1BE460360DA0}"/>
             </c:ext>
@@ -2588,7 +2622,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -2630,7 +2664,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2644,7 +2678,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2738,9 +2771,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2807,7 +2839,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-87A4-4000-8E98-60544EE1C559}"/>
             </c:ext>
@@ -2938,7 +2970,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -2980,7 +3012,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2994,7 +3026,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3107,9 +3138,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3176,7 +3206,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CB20-4061-B741-69197F46C34B}"/>
             </c:ext>
@@ -3320,7 +3350,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -3362,7 +3392,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3376,7 +3406,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3486,9 +3515,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3549,7 +3577,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0D1-4B15-AB9E-478195AFE5D5}"/>
             </c:ext>
@@ -3699,7 +3727,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -3741,7 +3769,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3755,7 +3783,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3855,9 +3882,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3924,7 +3950,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-717D-43FC-9ACE-4270697C038C}"/>
             </c:ext>
@@ -4074,7 +4100,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -7527,7 +7553,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7565,7 +7591,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7608,7 +7634,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7646,7 +7672,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7684,7 +7710,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8624A653-617C-4264-B426-4C6736718991}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8624A653-617C-4264-B426-4C6736718991}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7722,7 +7748,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7969,7 +7995,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10842,8 +10868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="S3" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11022,6 +11048,9 @@
       <c r="B4" s="47" t="s">
         <v>305</v>
       </c>
+      <c r="C4" t="s">
+        <v>339</v>
+      </c>
       <c r="E4">
         <v>3.14</v>
       </c>
@@ -11033,6 +11062,9 @@
       </c>
       <c r="I4" s="47" t="s">
         <v>307</v>
+      </c>
+      <c r="J4" t="s">
+        <v>340</v>
       </c>
       <c r="K4" s="5">
         <f>5484/93277</f>
@@ -11046,8 +11078,17 @@
         <f>1.33/9.33</f>
         <v>0.14255091103965703</v>
       </c>
+      <c r="O4" s="47" t="s">
+        <v>341</v>
+      </c>
       <c r="Q4">
         <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11161,13 +11202,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
     <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="38.375" customWidth="1"/>
   </cols>
@@ -11184,6 +11225,12 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>338</v>
+      </c>
       <c r="C2" s="47" t="s">
         <v>336</v>
       </c>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="344">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1512,11 +1512,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>准备金
-折旧和摊销</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>盈利误导手段
 1 虚增商誉无形资产
 2 租赁物增值
@@ -1591,10 +1586,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>永安药业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不要过度分散化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1639,6 +1630,15 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华懋科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备金
+折旧和摊销</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1943,7 +1943,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2055,7 +2054,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2322,7 +2320,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2418,7 +2415,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10218,8 +10214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10605,7 +10601,7 @@
     </row>
     <row r="13" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B13" s="32">
         <f>(15.54-0.89)/2.95</f>
@@ -10634,66 +10630,51 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D14">
-        <v>2017</v>
-      </c>
-      <c r="E14" s="7">
-        <f>0.71*(12568.76/13315.07)</f>
-        <v>0.67020448259002763</v>
+      <c r="A14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="7">
+        <f>(22.44-0.39)/3.13</f>
+        <v>7.0447284345047931</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.42470000000000002</v>
+      </c>
+      <c r="M14">
+        <f>711/12</f>
+        <v>59.25</v>
+      </c>
+      <c r="N14" s="7">
+        <f>18.06/2.39</f>
+        <v>7.556485355648535</v>
+      </c>
+      <c r="O14" s="7">
+        <f>(18.06-1.07)/2.39</f>
+        <v>7.1087866108786599</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D15">
-        <v>2016</v>
-      </c>
-      <c r="E15" s="7">
-        <f>0.33*(4069.73/6229.7)</f>
-        <v>0.21558195418720003</v>
-      </c>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="D16">
-        <v>2015</v>
-      </c>
-      <c r="E16" s="64">
-        <f>0.09*(29.05/1761.26)*(-1)</f>
-        <v>-1.4844486333647502E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D17">
-        <v>2014</v>
-      </c>
-      <c r="E17" s="7">
-        <f>0.17*(1789.31/3172.23)</f>
-        <v>9.5889232495752208E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D18">
-        <v>2013</v>
-      </c>
-      <c r="E18" s="7">
-        <f>0.12*(1166.36/2300.66)</f>
-        <v>6.0836107899472316E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D19">
-        <v>2012</v>
-      </c>
-      <c r="E19" s="7">
-        <f>0.4*(6835.64/7535.6)</f>
-        <v>0.36284516163278308</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E20" s="7">
-        <f>SUM(E14:E19)/6</f>
-        <v>0.23397874836197841</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E16" s="64"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E20" s="7"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>92</v>
       </c>
@@ -10725,8 +10706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10770,13 +10751,13 @@
         <v>193</v>
       </c>
       <c r="D2" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="F2" s="42" t="s">
         <v>325</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>326</v>
       </c>
       <c r="G2" s="42" t="s">
         <v>94</v>
@@ -10806,10 +10787,10 @@
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="K3" s="62" t="s">
         <v>329</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10832,10 +10813,10 @@
         <v>2912</v>
       </c>
       <c r="H4" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>327</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>328</v>
       </c>
       <c r="J4" s="5">
         <v>0.36759999999999998</v>
@@ -10843,7 +10824,14 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <f>27805-27085</f>
+        <v>720</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="10:10" x14ac:dyDescent="0.15">
@@ -10868,7 +10856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S3" workbookViewId="0">
+    <sheetView topLeftCell="S3" workbookViewId="0">
       <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
@@ -11049,7 +11037,7 @@
         <v>305</v>
       </c>
       <c r="C4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E4">
         <v>3.14</v>
@@ -11064,7 +11052,7 @@
         <v>307</v>
       </c>
       <c r="J4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K4" s="5">
         <f>5484/93277</f>
@@ -11079,16 +11067,16 @@
         <v>0.14255091103965703</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Y4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11215,24 +11203,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="63" t="s">
-        <v>335</v>
-      </c>
       <c r="C1" s="63" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,13 @@
     <sheet name="成长股财务指标" sheetId="19" r:id="rId6"/>
     <sheet name="成长股买卖原则" sheetId="18" r:id="rId7"/>
     <sheet name="债券选择原则-H" sheetId="16" r:id="rId8"/>
+    <sheet name="保守型投资要素" sheetId="21" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="354">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1641,11 +1642,57 @@
 折旧和摊销</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>保守型投资第三要素企业投资特征</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模经济</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本优势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨学科的技术壁垒
+剔除老牌公司的技术，经济竞争优势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销或销售优势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品质量和可靠性建立起声誉，并且
+1客户认为产品对他们非常重要
+2质量不佳功能不全会带来严重问题
+3竞争对手只能供应一小部分市场需求
+4客户运营成本中，该产品只占一小部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖给很多小客户，
+而不是只卖给大客户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高于平均2%-3%的利润率就是很好的投资对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -1758,7 +1805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1910,6 +1957,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1929,7 +1985,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2052,7 +2108,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2114,7 +2170,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D2DA-40E7-AF9C-D6B77FEF1AE2}"/>
             </c:ext>
@@ -2145,11 +2201,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="247109064"/>
-        <c:axId val="247299248"/>
+        <c:axId val="241587776"/>
+        <c:axId val="241588168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247109064"/>
+        <c:axId val="241587776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2192,7 +2248,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247299248"/>
+        <c:crossAx val="241588168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2200,7 +2256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247299248"/>
+        <c:axId val="241588168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,7 +2293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247109064"/>
+        <c:crossAx val="241587776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2264,7 +2320,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -2306,7 +2362,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2413,7 +2469,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2487,7 +2543,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-53E7-43D6-9378-1BE460360DA0}"/>
             </c:ext>
@@ -2503,11 +2559,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="247267232"/>
-        <c:axId val="247267616"/>
+        <c:axId val="241588952"/>
+        <c:axId val="241589344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247267232"/>
+        <c:axId val="241588952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +2603,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247267616"/>
+        <c:crossAx val="241589344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2555,7 +2611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247267616"/>
+        <c:axId val="241589344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +2659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247267232"/>
+        <c:crossAx val="241588952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2618,7 +2674,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -2660,7 +2716,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2674,6 +2730,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2767,8 +2824,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2835,7 +2893,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-87A4-4000-8E98-60544EE1C559}"/>
             </c:ext>
@@ -2851,11 +2909,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="247812912"/>
-        <c:axId val="247813296"/>
+        <c:axId val="241590128"/>
+        <c:axId val="243098952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247812912"/>
+        <c:axId val="241590128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,7 +2953,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247813296"/>
+        <c:crossAx val="243098952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2903,7 +2961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247813296"/>
+        <c:axId val="243098952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,7 +3009,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247812912"/>
+        <c:crossAx val="241590128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2966,7 +3024,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -3008,7 +3066,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3022,6 +3080,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3134,8 +3193,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3202,7 +3262,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CB20-4061-B741-69197F46C34B}"/>
             </c:ext>
@@ -3219,11 +3279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="247423008"/>
-        <c:axId val="247427488"/>
+        <c:axId val="243099736"/>
+        <c:axId val="243100128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247423008"/>
+        <c:axId val="243099736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,7 +3340,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247427488"/>
+        <c:crossAx val="243100128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3288,7 +3348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247427488"/>
+        <c:axId val="243100128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3331,7 +3391,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247423008"/>
+        <c:crossAx val="243099736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3346,7 +3406,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -3388,7 +3448,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3402,6 +3462,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3511,8 +3572,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3573,7 +3635,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0D1-4B15-AB9E-478195AFE5D5}"/>
             </c:ext>
@@ -3604,11 +3666,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="245092464"/>
-        <c:axId val="247473688"/>
+        <c:axId val="243102480"/>
+        <c:axId val="243684488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245092464"/>
+        <c:axId val="243102480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3651,7 +3713,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247473688"/>
+        <c:crossAx val="243684488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3659,7 +3721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247473688"/>
+        <c:axId val="243684488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3696,7 +3758,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245092464"/>
+        <c:crossAx val="243102480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3723,7 +3785,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -3765,7 +3827,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3779,6 +3841,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3878,8 +3941,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3946,7 +4010,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-717D-43FC-9ACE-4270697C038C}"/>
             </c:ext>
@@ -3977,11 +4041,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="247474472"/>
-        <c:axId val="247474864"/>
+        <c:axId val="243685664"/>
+        <c:axId val="243686056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247474472"/>
+        <c:axId val="243685664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4024,7 +4088,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247474864"/>
+        <c:crossAx val="243686056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4032,7 +4096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247474864"/>
+        <c:axId val="243686056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4069,7 +4133,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247474472"/>
+        <c:crossAx val="243685664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4096,7 +4160,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -7549,7 +7613,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7587,7 +7651,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7630,7 +7694,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7668,7 +7732,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7706,7 +7770,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8624A653-617C-4264-B426-4C6736718991}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8624A653-617C-4264-B426-4C6736718991}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7744,7 +7808,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7991,7 +8055,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10706,8 +10770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12059,4 +12123,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="29.25" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" s="68"/>
+    </row>
+    <row r="3" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="365">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1643,10 +1643,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>保守型投资第三要素企业投资特征</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>规模经济</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1686,6 +1682,67 @@
   </si>
   <si>
     <t>高于平均2%-3%的利润率就是很好的投资对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三要素企业投资特征</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何一支普通股价格相对于整体股市出现大幅波动，
+都是因为金融界人士对这只股票的评价发生了变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四个要素：保守投资价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资风险分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险最低，符合投资三要素但目前
+在金融界的评价并不非常搞。
+第二低，三要素符合程度高，评价以及市盈率与基本面相符
+第三低，三要素非常符合，在金融界人尽皆知，评价高于基本面
+风险最高的公司，金融界对这类公司的评价，远高于当前所能支撑的程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价组成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业评价
+有时候事情很明显，容易理解，有时候对某一行业得评价起起落落，原因是看中某种背景时间的影响力神域其他背景事件
+投资者必须不断探索研究，弄清楚评价比实际有利或不利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资原则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来利润增长可能性越高，
+投资者愿意承受的市盈率也就越高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只股票价格是便宜，
+还是偏高，唯一的检验标准不是
+当前的价格比之前的高还是低，
+而是这家公司的基本面高于还是
+低于当前金融界的评价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对公司的评价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对整体投资吸引力，
+利率是最重要的因素</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1951,13 +2008,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2201,11 +2258,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="241587776"/>
-        <c:axId val="241588168"/>
+        <c:axId val="139031824"/>
+        <c:axId val="139036304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="241587776"/>
+        <c:axId val="139031824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,7 +2305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241588168"/>
+        <c:crossAx val="139036304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2256,7 +2313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241588168"/>
+        <c:axId val="139036304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,7 +2350,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241587776"/>
+        <c:crossAx val="139031824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2559,11 +2616,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="241588952"/>
-        <c:axId val="241589344"/>
+        <c:axId val="139115992"/>
+        <c:axId val="139146216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="241588952"/>
+        <c:axId val="139115992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +2660,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241589344"/>
+        <c:crossAx val="139146216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2611,7 +2668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241589344"/>
+        <c:axId val="139146216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,7 +2716,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241588952"/>
+        <c:crossAx val="139115992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2730,7 +2787,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2826,7 +2882,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2909,11 +2964,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="241590128"/>
-        <c:axId val="243098952"/>
+        <c:axId val="139310328"/>
+        <c:axId val="139254312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="241590128"/>
+        <c:axId val="139310328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,7 +3008,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243098952"/>
+        <c:crossAx val="139254312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2961,7 +3016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243098952"/>
+        <c:axId val="139254312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3009,7 +3064,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241590128"/>
+        <c:crossAx val="139310328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3080,7 +3135,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3195,7 +3249,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3279,11 +3332,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243099736"/>
-        <c:axId val="243100128"/>
+        <c:axId val="138833992"/>
+        <c:axId val="138834376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243099736"/>
+        <c:axId val="138833992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3340,7 +3393,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243100128"/>
+        <c:crossAx val="138834376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3348,7 +3401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243100128"/>
+        <c:axId val="138834376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3391,7 +3444,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243099736"/>
+        <c:crossAx val="138833992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3462,7 +3515,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3574,7 +3626,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3666,11 +3717,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="243102480"/>
-        <c:axId val="243684488"/>
+        <c:axId val="138880352"/>
+        <c:axId val="138880736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243102480"/>
+        <c:axId val="138880352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3713,7 +3764,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243684488"/>
+        <c:crossAx val="138880736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3721,7 +3772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243684488"/>
+        <c:axId val="138880736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3758,7 +3809,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243102480"/>
+        <c:crossAx val="138880352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3841,7 +3892,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3943,7 +3993,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4041,11 +4090,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="243685664"/>
-        <c:axId val="243686056"/>
+        <c:axId val="137421688"/>
+        <c:axId val="137422080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243685664"/>
+        <c:axId val="137421688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4088,7 +4137,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243686056"/>
+        <c:crossAx val="137422080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4096,7 +4145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243686056"/>
+        <c:axId val="137422080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +4182,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243685664"/>
+        <c:crossAx val="137421688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7613,7 +7662,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7651,7 +7700,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7694,7 +7743,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7732,7 +7781,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7770,7 +7819,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8624A653-617C-4264-B426-4C6736718991}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8624A653-617C-4264-B426-4C6736718991}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7808,7 +7857,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10300,38 +10349,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66" t="s">
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66" t="s">
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="U1" s="66"/>
+      <c r="U1" s="67"/>
     </row>
     <row r="2" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -10402,22 +10451,22 @@
       <c r="B3" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="I3" s="65" t="s">
+      <c r="D3" s="66"/>
+      <c r="I3" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65" t="s">
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -10787,22 +10836,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -10832,10 +10881,10 @@
       <c r="I2" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="65"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="42" t="s">
         <v>117</v>
       </c>
@@ -10959,30 +11008,30 @@
       <c r="C1" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="N1" s="65"/>
+      <c r="N1" s="66"/>
       <c r="O1" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="Q1" s="65"/>
+      <c r="Q1" s="66"/>
       <c r="R1" s="49" t="s">
         <v>245</v>
       </c>
@@ -11321,28 +11370,28 @@
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="66"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66" t="s">
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="M1" s="66"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
@@ -11473,16 +11522,16 @@
       <c r="F1" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="67" t="s">
         <v>309</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66" t="s">
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B2" s="47" t="s">
@@ -12127,10 +12176,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12138,50 +12187,97 @@
     <col min="3" max="3" width="33.75" customWidth="1"/>
     <col min="4" max="4" width="29.25" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="28.875" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="68" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68" t="s">
+        <v>358</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="L2" s="68"/>
+    </row>
+    <row r="3" spans="1:12" ht="189" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" s="68" t="s">
+      <c r="B3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="E2" s="68"/>
-    </row>
-    <row r="3" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="D3" s="47" t="s">
+      <c r="E3" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="69" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="69" t="s">
-        <v>353</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
@@ -12189,11 +12285,15 @@
       <c r="E4" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="385">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1698,18 +1698,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>投资风险分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险最低，符合投资三要素但目前
-在金融界的评价并不非常搞。
-第二低，三要素符合程度高，评价以及市盈率与基本面相符
-第三低，三要素非常符合，在金融界人尽皆知，评价高于基本面
-风险最高的公司，金融界对这类公司的评价，远高于当前所能支撑的程度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>评价组成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1743,6 +1731,127 @@
   <si>
     <t>对整体投资吸引力，
 利率是最重要的因素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险最低，符合投资三要素但目前
+在金融界的评价并不非常高。
+第二低，三要素符合程度高，评价以及市盈率与基本面相符
+第三低，三要素非常符合，在金融界人尽皆知，评价高于基本面
+风险最高的公司，金融界对这类公司的评价，远高于当前所能支撑的程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低成本的生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一要素 生产、市场营销研发以及财务方面的优势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济景气时，
+高成本公司利润增长具有相对优势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强有力的营销组织</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济不景气，
+提供安全性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造公司成长
+所需的大部分资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>留意客户
+需求变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>争取
+潜在客户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续衡量
+成本收益比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰出的研究和技术成果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术努力的方向：
+1是提供更好的新产品
+2是更好的方法更低的成本
+提供服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究的效率：
+研究人员的能力和创新
+技术专长的研究人员的通力合作
+新产品市场需求
+营销出去和足够大的利润
+控制上面复杂关系的能力
+是保守投资要素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确知道，每样产品能赚多少钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算和会计作业，创造
+预警，发现威胁利润的
+不利因素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解各成本构成因素占比，
+包括生产制造销售和研究，可以看出哪些地方
+值得花精力降低成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个要素人的因素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司必须不断努力，让
+每个员工，不论是新加入还是高级
+管理人员，都觉得公司是工作的好地方
+这种感觉存在于内心，
+而不仅是宣传
+1尊重善待和关怀每一位员工
+2养老金和利润分享计划
+以人为本的政策和策略的企业能够从中获得益处</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司管理层以身作则，遵循公司成长所要求的纪律
+真正为公司谋取长期利润而努力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司必须认识到它所处的这个世界变化越来越快
+公司的想法和计划必须对目前正在做的事情提出挑战，
+不是偶尔，而是一而再再而三，理所当然处事方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1862,7 +1971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2012,6 +2121,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2022,6 +2137,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2258,11 +2376,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="139031824"/>
-        <c:axId val="139036304"/>
+        <c:axId val="158339784"/>
+        <c:axId val="158986552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139031824"/>
+        <c:axId val="158339784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2305,7 +2423,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139036304"/>
+        <c:crossAx val="158986552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2313,7 +2431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139036304"/>
+        <c:axId val="158986552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2468,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139031824"/>
+        <c:crossAx val="158339784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2616,11 +2734,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="139115992"/>
-        <c:axId val="139146216"/>
+        <c:axId val="230912168"/>
+        <c:axId val="7601192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139115992"/>
+        <c:axId val="230912168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,7 +2778,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139146216"/>
+        <c:crossAx val="7601192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2668,7 +2786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139146216"/>
+        <c:axId val="7601192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,7 +2834,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139115992"/>
+        <c:crossAx val="230912168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2964,11 +3082,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="139310328"/>
-        <c:axId val="139254312"/>
+        <c:axId val="158504352"/>
+        <c:axId val="158469720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139310328"/>
+        <c:axId val="158504352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,7 +3126,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139254312"/>
+        <c:crossAx val="158469720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3016,7 +3134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139254312"/>
+        <c:axId val="158469720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3064,7 +3182,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139310328"/>
+        <c:crossAx val="158504352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3332,11 +3450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138833992"/>
-        <c:axId val="138834376"/>
+        <c:axId val="158689840"/>
+        <c:axId val="158469136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138833992"/>
+        <c:axId val="158689840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3393,7 +3511,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138834376"/>
+        <c:crossAx val="158469136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3401,7 +3519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138834376"/>
+        <c:axId val="158469136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3444,7 +3562,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138833992"/>
+        <c:crossAx val="158689840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3717,11 +3835,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="138880352"/>
-        <c:axId val="138880736"/>
+        <c:axId val="231115656"/>
+        <c:axId val="231116040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138880352"/>
+        <c:axId val="231115656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,7 +3882,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138880736"/>
+        <c:crossAx val="231116040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3772,7 +3890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138880736"/>
+        <c:axId val="231116040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3809,7 +3927,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138880352"/>
+        <c:crossAx val="231115656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4090,11 +4208,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="137421688"/>
-        <c:axId val="137422080"/>
+        <c:axId val="156223312"/>
+        <c:axId val="156223704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137421688"/>
+        <c:axId val="156223312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4137,7 +4255,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137422080"/>
+        <c:crossAx val="156223704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4145,7 +4263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137422080"/>
+        <c:axId val="156223704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,7 +4300,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137421688"/>
+        <c:crossAx val="156223312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10349,38 +10467,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67" t="s">
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67" t="s">
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="U1" s="67"/>
+      <c r="U1" s="69"/>
     </row>
     <row r="2" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -10451,22 +10569,22 @@
       <c r="B3" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="I3" s="66" t="s">
+      <c r="D3" s="68"/>
+      <c r="I3" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66" t="s">
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -10836,22 +10954,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -10881,10 +10999,10 @@
       <c r="I2" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="66"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="42" t="s">
         <v>117</v>
       </c>
@@ -11008,30 +11126,30 @@
       <c r="C1" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66" t="s">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="N1" s="66"/>
+      <c r="N1" s="68"/>
       <c r="O1" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="Q1" s="66"/>
+      <c r="Q1" s="68"/>
       <c r="R1" s="49" t="s">
         <v>245</v>
       </c>
@@ -11370,28 +11488,28 @@
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="67"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67" t="s">
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69" t="s">
         <v>299</v>
       </c>
-      <c r="M1" s="67"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
@@ -11522,16 +11640,16 @@
       <c r="F1" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="69" t="s">
         <v>309</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67" t="s">
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B2" s="47" t="s">
@@ -12176,124 +12294,221 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="4" width="29.25" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="28.875" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="11" width="19.125" customWidth="1"/>
+    <col min="12" max="12" width="27.625" customWidth="1"/>
+    <col min="13" max="13" width="27.875" customWidth="1"/>
+    <col min="14" max="14" width="19.125" customWidth="1"/>
+    <col min="17" max="17" width="33.75" customWidth="1"/>
+    <col min="18" max="18" width="29.25" customWidth="1"/>
+    <col min="19" max="19" width="17.25" customWidth="1"/>
+    <col min="20" max="20" width="21.5" customWidth="1"/>
+    <col min="21" max="21" width="20.375" customWidth="1"/>
+    <col min="22" max="22" width="28.875" customWidth="1"/>
+    <col min="25" max="25" width="15.875" customWidth="1"/>
+    <col min="26" max="26" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="66" t="s">
+        <v>381</v>
+      </c>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66" t="s">
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="68" t="s">
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A2" s="70" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="70" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="65" t="s">
+      <c r="P2" s="70"/>
+      <c r="Q2" s="65" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="R2" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68" t="s">
+      <c r="S2" s="70"/>
+      <c r="T2" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68" t="s">
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68" t="s">
+      <c r="Z2" s="70"/>
+    </row>
+    <row r="3" spans="1:26" ht="189" x14ac:dyDescent="0.15">
+      <c r="A3" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="O3" t="s">
+        <v>345</v>
+      </c>
+      <c r="P3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="R3" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="S3" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="T3" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="U3" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="V3" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="W3" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="X3" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y3" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z3" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="L2" s="68"/>
-    </row>
-    <row r="3" spans="1:12" ht="189" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>357</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>364</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>361</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="69" t="s">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="O4" s="71" t="s">
         <v>352</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="K2:L2"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="394">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1520,10 +1520,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>平均值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1市场竞争
 </t>
@@ -1852,6 +1848,49 @@
     <t>公司必须认识到它所处的这个世界变化越来越快
 公司的想法和计划必须对目前正在做的事情提出挑战，
 不是偶尔，而是一而再再而三，理所当然处事方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永安药业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1安全环保风险
+2经营风险
+3汇率风险
+4管理风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永安药业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行了股票融资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（前五客户）40%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2126,6 +2165,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2133,13 +2175,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2376,11 +2415,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="158339784"/>
-        <c:axId val="158986552"/>
+        <c:axId val="148931344"/>
+        <c:axId val="148950440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158339784"/>
+        <c:axId val="148931344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2462,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158986552"/>
+        <c:crossAx val="148950440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2431,7 +2470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158986552"/>
+        <c:axId val="148950440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,7 +2507,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158339784"/>
+        <c:crossAx val="148931344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2734,11 +2773,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="230912168"/>
-        <c:axId val="7601192"/>
+        <c:axId val="149037480"/>
+        <c:axId val="149054280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="230912168"/>
+        <c:axId val="149037480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2778,7 +2817,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7601192"/>
+        <c:crossAx val="149054280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2786,7 +2825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7601192"/>
+        <c:axId val="149054280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,7 +2873,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230912168"/>
+        <c:crossAx val="149037480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2905,6 +2944,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3000,6 +3040,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3082,11 +3123,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="158504352"/>
-        <c:axId val="158469720"/>
+        <c:axId val="149011456"/>
+        <c:axId val="148405344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158504352"/>
+        <c:axId val="149011456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,7 +3167,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158469720"/>
+        <c:crossAx val="148405344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3134,7 +3175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158469720"/>
+        <c:axId val="148405344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3182,7 +3223,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158504352"/>
+        <c:crossAx val="149011456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3253,6 +3294,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3367,6 +3409,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3450,11 +3493,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158689840"/>
-        <c:axId val="158469136"/>
+        <c:axId val="149712408"/>
+        <c:axId val="148400608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158689840"/>
+        <c:axId val="149712408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3511,7 +3554,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158469136"/>
+        <c:crossAx val="148400608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3519,7 +3562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158469136"/>
+        <c:axId val="148400608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,7 +3605,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158689840"/>
+        <c:crossAx val="149712408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3633,6 +3676,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3744,6 +3788,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3835,11 +3880,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="231115656"/>
-        <c:axId val="231116040"/>
+        <c:axId val="149245208"/>
+        <c:axId val="149436664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231115656"/>
+        <c:axId val="149245208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3882,7 +3927,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231116040"/>
+        <c:crossAx val="149436664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3890,7 +3935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231116040"/>
+        <c:axId val="149436664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3927,7 +3972,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231115656"/>
+        <c:crossAx val="149245208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4010,6 +4055,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4111,6 +4157,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4208,11 +4255,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="156223312"/>
-        <c:axId val="156223704"/>
+        <c:axId val="147262656"/>
+        <c:axId val="147263048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156223312"/>
+        <c:axId val="147262656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,7 +4302,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156223704"/>
+        <c:crossAx val="147263048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4263,7 +4310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156223704"/>
+        <c:axId val="147263048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4300,7 +4347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156223312"/>
+        <c:crossAx val="147262656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7727,8 +7774,8 @@
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2657476</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1326768</xdr:rowOff>
     </xdr:to>
@@ -7747,8 +7794,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13277850" y="514349"/>
-          <a:ext cx="2657476" cy="1326769"/>
+          <a:off x="13716000" y="514349"/>
+          <a:ext cx="5410200" cy="1326769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2305051</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1115938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524501" y="2047876"/>
+          <a:ext cx="2305050" cy="1115937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>55043</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>904875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13716001" y="2047875"/>
+          <a:ext cx="5560492" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7780,7 +7903,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7818,7 +7941,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7861,7 +7984,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7899,7 +8022,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7937,7 +8060,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8624A653-617C-4264-B426-4C6736718991}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8624A653-617C-4264-B426-4C6736718991}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7975,7 +8098,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10445,8 +10568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10467,38 +10590,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69" t="s">
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69" t="s">
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="U1" s="69"/>
+      <c r="U1" s="70"/>
     </row>
     <row r="2" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -10569,22 +10692,22 @@
       <c r="B3" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="I3" s="68" t="s">
+      <c r="D3" s="69"/>
+      <c r="I3" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68" t="s">
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -10832,7 +10955,7 @@
     </row>
     <row r="13" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B13" s="32">
         <f>(15.54-0.89)/2.95</f>
@@ -10862,7 +10985,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B14" s="7">
         <f>(22.44-0.39)/3.13</f>
@@ -10938,14 +11061,14 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="7" max="7" width="31.625" customWidth="1"/>
+    <col min="7" max="7" width="37.375" customWidth="1"/>
     <col min="8" max="8" width="23.625" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="32.75" customWidth="1"/>
@@ -10954,22 +11077,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -10982,13 +11105,13 @@
         <v>193</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E2" s="42" t="s">
         <v>324</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>325</v>
+        <v>385</v>
       </c>
       <c r="G2" s="42" t="s">
         <v>94</v>
@@ -10999,10 +11122,10 @@
       <c r="I2" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="68"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="42" t="s">
         <v>117</v>
       </c>
@@ -11018,10 +11141,10 @@
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="K3" s="62" t="s">
         <v>328</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11044,10 +11167,10 @@
         <v>2912</v>
       </c>
       <c r="H4" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>326</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>327</v>
       </c>
       <c r="J4" s="5">
         <v>0.36759999999999998</v>
@@ -11063,6 +11186,36 @@
       </c>
       <c r="C5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6">
+        <v>746</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>7579</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5719</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="J6" s="5">
+        <f>(15.8-13.45)/15.8</f>
+        <v>0.14873417721518994</v>
       </c>
     </row>
     <row r="39" spans="10:10" x14ac:dyDescent="0.15">
@@ -11087,8 +11240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="S3" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11126,30 +11279,30 @@
       <c r="C1" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68" t="s">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="N1" s="68"/>
+      <c r="N1" s="69"/>
       <c r="O1" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="Q1" s="68"/>
+      <c r="Q1" s="69"/>
       <c r="R1" s="49" t="s">
         <v>245</v>
       </c>
@@ -11268,7 +11421,7 @@
         <v>305</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E4">
         <v>3.14</v>
@@ -11283,7 +11436,7 @@
         <v>307</v>
       </c>
       <c r="J4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K4" s="5">
         <f>5484/93277</f>
@@ -11298,16 +11451,16 @@
         <v>0.14255091103965703</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="U4" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y4" t="s">
         <v>340</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11422,7 +11575,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11434,24 +11587,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>331</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>336</v>
-      </c>
       <c r="C2" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -11488,28 +11641,28 @@
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="69"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="70" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70" t="s">
         <v>299</v>
       </c>
-      <c r="M1" s="69"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
@@ -11640,16 +11793,16 @@
       <c r="F1" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B2" s="47" t="s">
@@ -12294,221 +12447,257 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="11" width="19.125" customWidth="1"/>
-    <col min="12" max="12" width="27.625" customWidth="1"/>
-    <col min="13" max="13" width="27.875" customWidth="1"/>
-    <col min="14" max="14" width="19.125" customWidth="1"/>
-    <col min="17" max="17" width="33.75" customWidth="1"/>
-    <col min="18" max="18" width="29.25" customWidth="1"/>
-    <col min="19" max="19" width="17.25" customWidth="1"/>
-    <col min="20" max="20" width="21.5" customWidth="1"/>
-    <col min="21" max="21" width="20.375" customWidth="1"/>
-    <col min="22" max="22" width="28.875" customWidth="1"/>
-    <col min="25" max="25" width="15.875" customWidth="1"/>
-    <col min="26" max="26" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="12" width="19.125" customWidth="1"/>
+    <col min="13" max="13" width="27.625" customWidth="1"/>
+    <col min="14" max="14" width="27.875" customWidth="1"/>
+    <col min="15" max="15" width="19.125" customWidth="1"/>
+    <col min="18" max="18" width="33.75" customWidth="1"/>
+    <col min="19" max="19" width="29.25" customWidth="1"/>
+    <col min="20" max="20" width="17.25" customWidth="1"/>
+    <col min="21" max="21" width="21.5" customWidth="1"/>
+    <col min="22" max="22" width="20.375" customWidth="1"/>
+    <col min="23" max="23" width="28.875" customWidth="1"/>
+    <col min="26" max="26" width="15.875" customWidth="1"/>
+    <col min="27" max="27" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="B2" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72" t="s">
+        <v>373</v>
+      </c>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="S2" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72" t="s">
+        <v>362</v>
+      </c>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA2" s="72"/>
+    </row>
+    <row r="3" spans="1:27" ht="189" x14ac:dyDescent="0.15">
+      <c r="B3" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="66" t="s">
-        <v>381</v>
-      </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="68" t="s">
-        <v>353</v>
-      </c>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68" t="s">
-        <v>355</v>
-      </c>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A2" s="70" t="s">
-        <v>365</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70" t="s">
-        <v>368</v>
-      </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70" t="s">
+      <c r="E3" s="47" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>372</v>
+      </c>
+      <c r="H3" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70" t="s">
+      <c r="I3" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="J3" s="47" t="s">
         <v>377</v>
-      </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="70" t="s">
-        <v>344</v>
-      </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="R2" s="70" t="s">
-        <v>349</v>
-      </c>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70" t="s">
-        <v>363</v>
-      </c>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70" t="s">
-        <v>356</v>
-      </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z2" s="70"/>
-    </row>
-    <row r="3" spans="1:26" ht="189" x14ac:dyDescent="0.15">
-      <c r="A3" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>367</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>372</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>380</v>
       </c>
       <c r="K3" s="47" t="s">
         <v>379</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M3" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="O3" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="N3" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q3" t="s">
         <v>345</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" s="47" t="s">
         <v>346</v>
       </c>
-      <c r="Q3" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="R3" s="47" t="s">
+      <c r="S3" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="T3" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="U3" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="V3" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="W3" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="X3" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y3" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z3" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA3" s="47" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>390</v>
+      </c>
+      <c r="P4" s="71" t="s">
         <v>351</v>
       </c>
-      <c r="T3" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="U3" s="47" t="s">
-        <v>364</v>
-      </c>
-      <c r="V3" s="47" t="s">
-        <v>357</v>
-      </c>
-      <c r="W3" s="47" t="s">
-        <v>361</v>
-      </c>
-      <c r="X3" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y3" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z3" s="47" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="O4" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="P4" s="71"/>
       <c r="Q4" s="71"/>
       <c r="R4" s="71"/>
       <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="P5" s="5">
+        <f>3.4/(3.4+1.5+0.8+0.4)</f>
+        <v>0.55737704918032782</v>
+      </c>
+      <c r="R5" t="s">
+        <v>389</v>
+      </c>
+      <c r="S5">
+        <v>234</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="V5" t="s">
+        <v>393</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="405">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -355,10 +355,6 @@
   </si>
   <si>
     <t>6年平均每股收益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资价值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1891,6 +1887,60 @@
   </si>
   <si>
     <t>第四类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三安光电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内在价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设增长率0，贴现5%，净利润全部转化为现金流入且保守估计为1.8亿，5年的内在价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设增长率10%，
+贴现7%,净利润全部转化为
+现金流入且保守估计2.13亿
+，5年内在价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6年平均每股收益的16.9倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6年每股平均收益的26.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设增长率0，贴现5%，净利润全部转化为现金流入且保守估计为0.39亿，5年的内在价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6年平均每股收益的6.53倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6年每股平均收益的10.57</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.13~7.50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.86~11.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设增长率10%，
+贴现7%,净利润全部转化为
+现金流入且保守估计0.42亿
+，5年内在价值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2010,7 +2060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2175,10 +2225,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2415,11 +2468,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="148931344"/>
-        <c:axId val="148950440"/>
+        <c:axId val="243155896"/>
+        <c:axId val="243156288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148931344"/>
+        <c:axId val="243155896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,7 +2515,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148950440"/>
+        <c:crossAx val="243156288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2470,7 +2523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148950440"/>
+        <c:axId val="243156288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,7 +2560,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148931344"/>
+        <c:crossAx val="243155896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2773,11 +2826,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="149037480"/>
-        <c:axId val="149054280"/>
+        <c:axId val="242918056"/>
+        <c:axId val="242918448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149037480"/>
+        <c:axId val="242918056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2817,7 +2870,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149054280"/>
+        <c:crossAx val="242918448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2825,7 +2878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149054280"/>
+        <c:axId val="242918448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2873,7 +2926,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149037480"/>
+        <c:crossAx val="242918056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3123,11 +3176,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="149011456"/>
-        <c:axId val="148405344"/>
+        <c:axId val="242919232"/>
+        <c:axId val="245027520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149011456"/>
+        <c:axId val="242919232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3220,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148405344"/>
+        <c:crossAx val="245027520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3175,7 +3228,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148405344"/>
+        <c:axId val="245027520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +3276,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149011456"/>
+        <c:crossAx val="242919232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3493,11 +3546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149712408"/>
-        <c:axId val="148400608"/>
+        <c:axId val="245028304"/>
+        <c:axId val="245028696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149712408"/>
+        <c:axId val="245028304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3554,7 +3607,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148400608"/>
+        <c:crossAx val="245028696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3562,7 +3615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148400608"/>
+        <c:axId val="245028696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3605,7 +3658,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149712408"/>
+        <c:crossAx val="245028304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3880,11 +3933,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="149245208"/>
-        <c:axId val="149436664"/>
+        <c:axId val="245031048"/>
+        <c:axId val="244318664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149245208"/>
+        <c:axId val="245031048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3927,7 +3980,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149436664"/>
+        <c:crossAx val="244318664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3935,7 +3988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149436664"/>
+        <c:axId val="244318664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3972,7 +4025,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149245208"/>
+        <c:crossAx val="245031048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4255,11 +4308,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="147262656"/>
-        <c:axId val="147263048"/>
+        <c:axId val="244319840"/>
+        <c:axId val="244320232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147262656"/>
+        <c:axId val="244319840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4302,7 +4355,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147263048"/>
+        <c:crossAx val="244320232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4310,7 +4363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147263048"/>
+        <c:axId val="244320232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4347,7 +4400,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147262656"/>
+        <c:crossAx val="244319840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7903,7 +7956,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7941,7 +7994,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7984,7 +8037,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8022,7 +8075,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8060,7 +8113,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8624A653-617C-4264-B426-4C6736718991}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8624A653-617C-4264-B426-4C6736718991}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8098,7 +8151,7 @@
         <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8711,7 +8764,7 @@
         <v>37</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -8772,7 +8825,7 @@
         <v>7</v>
       </c>
       <c r="S2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -8831,7 +8884,7 @@
         <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -8890,7 +8943,7 @@
         <v>47</v>
       </c>
       <c r="S4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
@@ -8950,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9011,7 +9064,7 @@
         <v>3</v>
       </c>
       <c r="S6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
@@ -9072,7 +9125,7 @@
         <v>12</v>
       </c>
       <c r="S7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
@@ -9131,7 +9184,7 @@
         <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
@@ -9191,7 +9244,7 @@
         <v>5</v>
       </c>
       <c r="S9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
@@ -9250,7 +9303,7 @@
         <v>44</v>
       </c>
       <c r="S10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
@@ -9311,7 +9364,7 @@
         <v>9</v>
       </c>
       <c r="S11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9370,7 +9423,7 @@
         <v>42</v>
       </c>
       <c r="S12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -9430,7 +9483,7 @@
         <v>11</v>
       </c>
       <c r="S13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -9491,7 +9544,7 @@
         <v>19</v>
       </c>
       <c r="S14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
@@ -9550,7 +9603,7 @@
         <v>17</v>
       </c>
       <c r="S15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
@@ -9609,7 +9662,7 @@
         <v>38</v>
       </c>
       <c r="S16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
@@ -9668,7 +9721,7 @@
         <v>40</v>
       </c>
       <c r="S17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
@@ -9727,7 +9780,7 @@
         <v>51</v>
       </c>
       <c r="S18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
@@ -9787,7 +9840,7 @@
         <v>53</v>
       </c>
       <c r="S19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
@@ -9846,7 +9899,7 @@
         <v>55</v>
       </c>
       <c r="S20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
@@ -9905,7 +9958,7 @@
         <v>57</v>
       </c>
       <c r="S21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
@@ -9964,7 +10017,7 @@
         <v>59</v>
       </c>
       <c r="S22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
@@ -10023,7 +10076,7 @@
         <v>61</v>
       </c>
       <c r="S23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
@@ -10082,7 +10135,7 @@
         <v>68</v>
       </c>
       <c r="S24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
@@ -10141,7 +10194,7 @@
         <v>75</v>
       </c>
       <c r="S25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
@@ -10196,7 +10249,7 @@
         <v>63</v>
       </c>
       <c r="S26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
@@ -10255,7 +10308,7 @@
         <v>65</v>
       </c>
       <c r="S27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
@@ -10314,7 +10367,7 @@
         <v>67</v>
       </c>
       <c r="S28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
@@ -10373,7 +10426,7 @@
         <v>70</v>
       </c>
       <c r="S29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
@@ -10432,7 +10485,7 @@
         <v>72</v>
       </c>
       <c r="S30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
@@ -10491,7 +10544,7 @@
         <v>70</v>
       </c>
       <c r="S31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
@@ -10546,7 +10599,7 @@
         <v>78</v>
       </c>
       <c r="S32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -10566,10 +10619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10577,145 +10630,150 @@
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="33" customWidth="1"/>
     <col min="3" max="4" width="24.75" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
-    <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="15.25" customWidth="1"/>
-    <col min="15" max="15" width="15.5" customWidth="1"/>
-    <col min="16" max="16" width="24.125" customWidth="1"/>
-    <col min="17" max="17" width="22.625" customWidth="1"/>
-    <col min="18" max="18" width="24.5" customWidth="1"/>
-    <col min="19" max="19" width="26.625" customWidth="1"/>
-    <col min="20" max="21" width="21" customWidth="1"/>
+    <col min="5" max="6" width="27.125" customWidth="1"/>
+    <col min="7" max="8" width="26.375" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="16" max="16" width="15.25" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="18" max="18" width="24.125" customWidth="1"/>
+    <col min="19" max="19" width="22.625" customWidth="1"/>
+    <col min="20" max="20" width="24.5" customWidth="1"/>
+    <col min="21" max="21" width="26.625" customWidth="1"/>
+    <col min="22" max="23" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" s="69"/>
       <c r="D1" s="69"/>
       <c r="E1" s="70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="70"/>
       <c r="G1" s="70"/>
-      <c r="H1" s="70" t="s">
-        <v>83</v>
-      </c>
+      <c r="H1" s="70"/>
       <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
+      <c r="J1" s="70" t="s">
+        <v>82</v>
+      </c>
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
       <c r="M1" s="70"/>
-      <c r="N1" s="70" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70" t="s">
-        <v>194</v>
-      </c>
+      <c r="T1" s="70"/>
       <c r="U1" s="70"/>
-    </row>
-    <row r="2" spans="1:23" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V1" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="W1" s="70"/>
+    </row>
+    <row r="2" spans="1:25" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="I2" s="42" t="s">
+      <c r="J2" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="N2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S2" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="T2" s="42" t="s">
+      <c r="U2" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="V2" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="K3" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="69"/>
-      <c r="I3" s="69" t="s">
-        <v>205</v>
-      </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
       <c r="L3" s="69"/>
       <c r="M3" s="69"/>
-      <c r="N3" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="33">
         <v>9.31</v>
@@ -10728,9 +10786,9 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="32">
         <f>(12.3-0.76)/2.43</f>
@@ -10740,38 +10798,38 @@
         <f>(33.29-24.4)/2.43</f>
         <v>3.6584362139917697</v>
       </c>
-      <c r="H5" s="18">
+      <c r="J5" s="18">
         <v>1.17E-2</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="M5" s="32">
+      <c r="K5" s="18"/>
+      <c r="O5" s="32">
         <f>208/17</f>
         <v>12.235294117647058</v>
       </c>
-      <c r="N5" s="20">
+      <c r="P5" s="20">
         <f>33.29/23.89</f>
         <v>1.393470071159481</v>
       </c>
-      <c r="O5" s="20">
+      <c r="Q5" s="20">
         <f>(33.28-4.05)/23.89</f>
         <v>1.2235244872331519</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="R5" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="S5" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="Q5" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="R5" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="S5" s="45" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="T5" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="U5" s="45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="33">
         <f>(64.19-8.12-1.98)/10.75</f>
@@ -10781,18 +10839,18 @@
         <f>(38.43-16.02)/10.75</f>
         <v>2.0846511627906978</v>
       </c>
-      <c r="H6" s="5">
+      <c r="J6" s="5">
         <v>6.3E-3</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="M6" s="33">
+      <c r="K6" s="5"/>
+      <c r="O6" s="33">
         <f>736/17</f>
         <v>43.294117647058826</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="32">
         <f>(39.49-7.59)/11.61</f>
@@ -10802,26 +10860,26 @@
         <f>(28.47-3.13)/11.61</f>
         <v>2.1826012058570199</v>
       </c>
-      <c r="H7" s="18">
+      <c r="J7" s="18">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="M7" s="32">
+      <c r="K7" s="18"/>
+      <c r="O7" s="32">
         <f>557/15</f>
         <v>37.133333333333333</v>
       </c>
-      <c r="N7" s="20">
+      <c r="P7" s="20">
         <f>248655/31297</f>
         <v>7.9450107039013327</v>
       </c>
-      <c r="O7" s="20">
+      <c r="Q7" s="20">
         <f>(248655-10356)/31297</f>
         <v>7.6141163689810529</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="33">
         <f>(30.56-2.27)/22.78</f>
@@ -10831,11 +10889,11 @@
         <f>(41.16-16.75)/22.78</f>
         <v>1.071553994732221</v>
       </c>
-      <c r="M8" s="33"/>
-    </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" s="32">
         <f>(51122-7348)/11200</f>
@@ -10844,212 +10902,329 @@
       <c r="E9" s="17">
         <v>0.34</v>
       </c>
-      <c r="H9" s="18">
+      <c r="F9" s="20">
+        <f>0.39*5*1.05^5/1.12</f>
+        <v>2.2220973632812502</v>
+      </c>
+      <c r="G9" s="20">
+        <f>0.42*(1.1+1.1^2+1.1^3+1.1^4+1.1^5)*1.07^5/1.1</f>
+        <v>3.5963417998605598</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="J9" s="18">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="M9" s="32">
+      <c r="K9" s="18"/>
+      <c r="O9" s="32">
         <f>304/18</f>
         <v>16.888888888888889</v>
       </c>
-      <c r="N9" s="20">
+      <c r="P9" s="20">
         <f>52367/28725</f>
         <v>1.8230461270670149</v>
       </c>
-      <c r="O9" s="20">
+      <c r="Q9" s="20">
         <f>(52367-26519)/28725</f>
         <v>0.89984334203655347</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="33">
+    <row r="10" spans="1:25" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="B10" s="32"/>
+      <c r="F10" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>404</v>
+      </c>
+      <c r="H10" s="73"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+    </row>
+    <row r="11" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="32"/>
+      <c r="F11" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="33">
         <f>(140755-37289-28391)/40362</f>
         <v>1.8600416233090531</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>0.97</v>
       </c>
-      <c r="H10" s="5">
+      <c r="J12" s="5">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="I10" s="5">
+      <c r="K12" s="5">
         <v>0.41399999999999998</v>
       </c>
-      <c r="M10" s="33">
+      <c r="O12" s="33">
         <v>37.799999999999997</v>
       </c>
-      <c r="N10" s="7">
+      <c r="P12" s="7">
         <f>181671/111350</f>
         <v>1.6315312079030084</v>
       </c>
-      <c r="O10" s="7">
+      <c r="Q12" s="7">
         <f>(181671-846)/111350</f>
         <v>1.6239335428828019</v>
       </c>
-      <c r="P10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="B11" s="32">
+      <c r="R12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="32">
         <f>(33.63-4.18)/9.08</f>
         <v>3.2433920704845818</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E13" s="17">
         <v>0.2</v>
       </c>
-      <c r="H11" s="18">
+      <c r="J13" s="18">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="I11" s="18">
+      <c r="K13" s="18">
         <v>0.66410000000000002</v>
       </c>
-      <c r="M11" s="32">
+      <c r="O13" s="32">
         <f>407/12</f>
         <v>33.916666666666664</v>
       </c>
-      <c r="N11" s="20">
+      <c r="P13" s="20">
         <f>35.64/34.01</f>
         <v>1.0479270802705087</v>
       </c>
-      <c r="O11" s="20">
+      <c r="Q13" s="20">
         <f>(35.64-19.6)/34.01</f>
         <v>0.47162599235518965</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="33">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="33">
         <f>(113.17-4.6)/11.687</f>
         <v>9.2898091896979569</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>0.64</v>
       </c>
-      <c r="H12" s="18">
+      <c r="J14" s="18">
         <v>1.26E-2</v>
       </c>
-      <c r="I12" s="5">
+      <c r="K14" s="5">
         <v>0.49509999999999998</v>
       </c>
-      <c r="M12" s="33">
+      <c r="O14" s="33">
         <f>936/32</f>
         <v>29.25</v>
       </c>
-      <c r="N12" s="7">
+      <c r="P14" s="7">
         <f>246.35/174.58</f>
         <v>1.4111009279413449</v>
       </c>
-      <c r="O12" s="7">
+      <c r="Q14" s="7">
         <f>(246.35-104.48)/174.58</f>
         <v>0.81263604078359486</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" s="32">
+    <row r="15" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" s="32">
         <f>(15.54-0.89)/2.95</f>
         <v>4.9661016949152534</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E15" s="17">
         <v>0.23</v>
       </c>
-      <c r="H13" s="18">
+      <c r="F15" s="20">
+        <f>1.8*5*1.05^5/2.95</f>
+        <v>3.8937403601694913</v>
+      </c>
+      <c r="G15" s="20">
+        <f>2.13*(1.1+1.1^2+1.1^3+1.1^4+1.1^5)*1.05^5/2.97</f>
+        <v>6.1468854030281257</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="J15" s="18">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="I13" s="18">
+      <c r="K15" s="18">
         <v>0.14749999999999999</v>
       </c>
-      <c r="M13" s="32">
+      <c r="O15" s="32">
         <f>1389/17</f>
         <v>81.705882352941174</v>
       </c>
-      <c r="N13" s="20">
+      <c r="P15" s="20">
         <f>7.37/2.66</f>
         <v>2.7706766917293231</v>
       </c>
-      <c r="O13" s="20">
+      <c r="Q15" s="20">
         <f>(7.37-0.85)/2.66</f>
         <v>2.4511278195488724</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B14" s="7">
+    <row r="16" spans="1:25" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="B16" s="32"/>
+      <c r="F16" s="73" t="s">
+        <v>395</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>396</v>
+      </c>
+      <c r="H16" s="73"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="32"/>
+      <c r="F17" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18" s="7">
         <f>(22.44-0.39)/3.13</f>
         <v>7.0447284345047931</v>
       </c>
-      <c r="H14" s="5">
+      <c r="J18" s="5">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="I14" s="5">
+      <c r="K18" s="5">
         <v>0.42470000000000002</v>
       </c>
-      <c r="M14">
+      <c r="O18">
         <f>711/12</f>
         <v>59.25</v>
       </c>
-      <c r="N14" s="7">
+      <c r="P18" s="7">
         <f>18.06/2.39</f>
         <v>7.556485355648535</v>
       </c>
-      <c r="O14" s="7">
+      <c r="Q18" s="7">
         <f>(18.06-1.07)/2.39</f>
         <v>7.1087866108786599</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="E16" s="64"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B19" s="33">
+        <f>(197.69-21.02)/40.78</f>
+        <v>4.3322707209416373</v>
+      </c>
       <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E20" s="7"/>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F22" t="s">
-        <v>92</v>
+      <c r="F19" s="7"/>
+      <c r="J19" s="5">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="L19" s="5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O19">
+        <f>975/20</f>
+        <v>48.75</v>
+      </c>
+      <c r="P19" s="7">
+        <f>115/16</f>
+        <v>7.1875</v>
+      </c>
+      <c r="Q19" s="7">
+        <f>(115-18)/16</f>
+        <v>6.0625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G26" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q5" r:id="rId1"/>
-    <hyperlink ref="R5" r:id="rId2"/>
-    <hyperlink ref="S5" r:id="rId3"/>
+    <hyperlink ref="S5" r:id="rId1"/>
+    <hyperlink ref="T5" r:id="rId2"/>
+    <hyperlink ref="U5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -11061,7 +11236,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11078,18 +11253,18 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B1" s="70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
       <c r="F1" s="70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G1" s="70"/>
       <c r="H1" s="70"/>
       <c r="I1" s="70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J1" s="70"/>
       <c r="K1" s="70"/>
@@ -11099,35 +11274,35 @@
         <v>79</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G2" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="42" t="s">
-        <v>95</v>
-      </c>
       <c r="I2" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="69" t="s">
         <v>115</v>
-      </c>
-      <c r="J2" s="69" t="s">
-        <v>116</v>
       </c>
       <c r="K2" s="69"/>
       <c r="L2" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11141,15 +11316,15 @@
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="K3" s="62" t="s">
         <v>327</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4">
         <v>237</v>
@@ -11167,10 +11342,10 @@
         <v>2912</v>
       </c>
       <c r="H4" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>325</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>326</v>
       </c>
       <c r="J4" s="5">
         <v>0.36759999999999998</v>
@@ -11190,7 +11365,7 @@
     </row>
     <row r="6" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B6">
         <v>746</v>
@@ -11208,7 +11383,7 @@
         <v>5719</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I6">
         <v>24</v>
@@ -11220,7 +11395,7 @@
     </row>
     <row r="39" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -11271,16 +11446,16 @@
   <sheetData>
     <row r="1" spans="1:25" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
@@ -11288,140 +11463,140 @@
       <c r="H1" s="69"/>
       <c r="I1" s="69"/>
       <c r="J1" s="69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
       <c r="M1" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N1" s="69"/>
       <c r="O1" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P1" s="69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q1" s="69"/>
       <c r="R1" s="49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S1" s="49" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T1" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U1" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V1" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W1" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X1" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y1" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="59" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B3" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>227</v>
-      </c>
       <c r="D3" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="G3" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="H3" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="I3" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="I3" s="47" t="s">
-        <v>234</v>
-      </c>
       <c r="J3" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K3" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="L3" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="L3" s="52" t="s">
-        <v>261</v>
-      </c>
       <c r="M3" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P3" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R3" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S3" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T3" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="U3" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="U3" s="47" t="s">
-        <v>264</v>
-      </c>
       <c r="V3" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W3" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X3" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y3" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4">
         <v>3.14</v>
@@ -11433,10 +11608,10 @@
         <v>127</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K4" s="5">
         <f>5484/93277</f>
@@ -11451,27 +11626,27 @@
         <v>0.14255091103965703</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="U4" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y4" t="s">
         <v>339</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
         <v>249</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>250</v>
-      </c>
-      <c r="C5" t="s">
-        <v>251</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="7">
@@ -11487,7 +11662,7 @@
         <v>2234</v>
       </c>
       <c r="J5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K5" s="50">
         <f>4645/116233</f>
@@ -11508,18 +11683,18 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="C6" s="47" t="s">
         <v>256</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>257</v>
       </c>
       <c r="E6">
         <v>4.32</v>
@@ -11531,7 +11706,7 @@
         <v>208</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K6" s="50">
         <f>2618/30796</f>
@@ -11547,10 +11722,10 @@
       </c>
       <c r="O6" s="47"/>
       <c r="Q6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -11587,24 +11762,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>330</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>332</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>335</v>
-      </c>
       <c r="C2" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -11639,70 +11814,70 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
       <c r="E1" s="70"/>
       <c r="F1" s="70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G1" s="70"/>
       <c r="H1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="70" t="s">
         <v>294</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>295</v>
       </c>
       <c r="J1" s="70"/>
       <c r="K1" s="70"/>
       <c r="L1" s="70" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="5">
         <f>1.33/13.41</f>
@@ -11755,7 +11930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -11776,87 +11951,87 @@
   <sheetData>
     <row r="1" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E1" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="55" t="s">
-        <v>284</v>
-      </c>
       <c r="G1" s="70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1" s="70"/>
       <c r="I1" s="70"/>
       <c r="J1" s="70" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B2" s="47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>282</v>
-      </c>
       <c r="F2" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="G3" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -11886,94 +12061,94 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16">
         <v>1.75</v>
@@ -11981,7 +12156,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -11989,7 +12164,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -11997,116 +12172,116 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" t="s">
         <v>138</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>139</v>
-      </c>
-      <c r="F32" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33">
         <v>1.75</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C36" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
@@ -12117,10 +12292,10 @@
     <row r="37" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C37" s="43"/>
       <c r="D37" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="43" t="s">
         <v>148</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>149</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
@@ -12129,7 +12304,7 @@
     <row r="38" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C38" s="43"/>
       <c r="D38" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" s="44">
         <v>14245</v>
@@ -12141,7 +12316,7 @@
     <row r="39" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C39" s="43"/>
       <c r="D39" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E39" s="43">
         <v>37663000</v>
@@ -12153,7 +12328,7 @@
     <row r="40" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C40" s="43"/>
       <c r="D40" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E40" s="43">
         <v>22554000</v>
@@ -12165,10 +12340,10 @@
     <row r="41" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C41" s="43"/>
       <c r="D41" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
@@ -12177,7 +12352,7 @@
     <row r="42" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C42" s="43"/>
       <c r="D42" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E42" s="43">
         <v>15109000</v>
@@ -12189,7 +12364,7 @@
     <row r="43" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C43" s="43"/>
       <c r="D43" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E43" s="43">
         <v>1819000</v>
@@ -12201,7 +12376,7 @@
     <row r="44" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C44" s="43"/>
       <c r="D44" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E44" s="43">
         <v>13290000</v>
@@ -12213,7 +12388,7 @@
     <row r="45" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C45" s="43"/>
       <c r="D45" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E45" s="43">
         <v>1.55</v>
@@ -12225,7 +12400,7 @@
     <row r="46" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C46" s="43"/>
       <c r="D46" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E46" s="43">
         <v>1.53</v>
@@ -12237,7 +12412,7 @@
     <row r="47" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C47" s="43"/>
       <c r="D47" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E47" s="43">
         <v>438000000</v>
@@ -12249,10 +12424,10 @@
     <row r="48" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C48" s="43"/>
       <c r="D48" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="43"/>
@@ -12261,10 +12436,10 @@
     <row r="49" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C49" s="43"/>
       <c r="D49" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="43"/>
@@ -12273,7 +12448,7 @@
     <row r="50" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C50" s="43"/>
       <c r="D50" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E50" s="43">
         <v>221000000</v>
@@ -12285,10 +12460,10 @@
     <row r="51" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C51" s="43"/>
       <c r="D51" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
@@ -12296,32 +12471,32 @@
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E57">
         <v>10000</v>
@@ -12329,7 +12504,7 @@
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E58">
         <v>2000000</v>
@@ -12337,7 +12512,7 @@
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E59">
         <v>3000000</v>
@@ -12345,7 +12520,7 @@
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E60">
         <v>5000000</v>
@@ -12353,12 +12528,12 @@
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E62">
         <v>1.75</v>
@@ -12366,7 +12541,7 @@
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -12374,7 +12549,7 @@
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -12382,7 +12557,7 @@
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -12390,52 +12565,52 @@
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D67" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" t="s">
         <v>191</v>
-      </c>
-      <c r="E67" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D68" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" t="s">
         <v>183</v>
-      </c>
-      <c r="E68" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D71" t="s">
+        <v>186</v>
+      </c>
+      <c r="E71" t="s">
         <v>187</v>
-      </c>
-      <c r="E71" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72" t="s">
         <v>189</v>
-      </c>
-      <c r="E72" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -12449,7 +12624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
@@ -12477,10 +12652,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
@@ -12493,19 +12668,19 @@
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
       <c r="M1" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N1" s="66"/>
       <c r="O1" s="66"/>
       <c r="P1" s="69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q1" s="69"/>
       <c r="R1" s="69"/>
       <c r="S1" s="69"/>
       <c r="T1" s="69"/>
       <c r="U1" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V1" s="69"/>
       <c r="W1" s="69"/>
@@ -12514,156 +12689,156 @@
       <c r="Z1" s="69"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B2" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72" t="s">
-        <v>367</v>
-      </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72" t="s">
-        <v>373</v>
-      </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="B2" s="71" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71" t="s">
+        <v>375</v>
+      </c>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="67"/>
       <c r="N2" s="68"/>
       <c r="O2" s="67"/>
-      <c r="P2" s="72" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q2" s="72"/>
+      <c r="P2" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q2" s="71"/>
       <c r="R2" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="S2" s="71" t="s">
         <v>347</v>
       </c>
-      <c r="S2" s="72" t="s">
-        <v>348</v>
-      </c>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72" t="s">
-        <v>362</v>
-      </c>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72" t="s">
-        <v>355</v>
-      </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="AA2" s="72"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA2" s="71"/>
     </row>
     <row r="3" spans="1:27" ht="189" x14ac:dyDescent="0.15">
       <c r="B3" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>368</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="D3" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="D3" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="G3" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>372</v>
-      </c>
       <c r="H3" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="I3" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="I3" s="47" t="s">
-        <v>375</v>
-      </c>
       <c r="J3" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="L3" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="K3" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>378</v>
-      </c>
       <c r="M3" s="47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N3" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="O3" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="O3" s="47" t="s">
-        <v>382</v>
-      </c>
       <c r="P3" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q3" t="s">
         <v>344</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="R3" s="47" t="s">
-        <v>346</v>
-      </c>
       <c r="S3" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="T3" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="T3" s="47" t="s">
-        <v>350</v>
-      </c>
       <c r="U3" s="47" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V3" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W3" s="47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="X3" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y3" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="Y3" s="47" t="s">
-        <v>361</v>
-      </c>
       <c r="Z3" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA3" s="47" t="s">
         <v>358</v>
-      </c>
-      <c r="AA3" s="47" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" t="s">
         <v>390</v>
-      </c>
-      <c r="C4" t="s">
-        <v>391</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>390</v>
-      </c>
-      <c r="P4" s="71" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
+        <v>389</v>
+      </c>
+      <c r="P4" s="72" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="P5" s="5">
@@ -12671,26 +12846,20 @@
         <v>0.55737704918032782</v>
       </c>
       <c r="R5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S5">
         <v>234</v>
       </c>
       <c r="T5" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="V5" t="s">
         <v>392</v>
-      </c>
-      <c r="V5" t="s">
-        <v>393</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U2:V2"/>
@@ -12698,6 +12867,12 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -11,15 +11,13 @@
     <sheet name="资产负债表-低价股F" sheetId="14" r:id="rId2"/>
     <sheet name="损益表分析-收益股G" sheetId="15" r:id="rId3"/>
     <sheet name="成长股十五原则" sheetId="17" r:id="rId4"/>
-    <sheet name="投资者不要原则" sheetId="20" r:id="rId5"/>
-    <sheet name="成长股财务指标" sheetId="19" r:id="rId6"/>
-    <sheet name="成长股买卖原则" sheetId="18" r:id="rId7"/>
-    <sheet name="债券选择原则-H" sheetId="16" r:id="rId8"/>
-    <sheet name="保守型投资要素" sheetId="21" r:id="rId9"/>
+    <sheet name="公司分析" sheetId="22" r:id="rId5"/>
+    <sheet name="债券选择原则-H" sheetId="16" r:id="rId6"/>
+    <sheet name="保守型投资要素" sheetId="21" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="386">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1277,122 +1275,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>传统选取买股时机的方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜集经济资料 
-对企业中短期景气状况做判断</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传统不合理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预测经济趋势的知识不充足
-在一件没办法做好的事情上投入大量精力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通股购买时机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">利润即将大幅改善，但对利润增加的预期还没有造成公司股票价格大幅拉升（新产品推出和复杂工厂正式开始运营）
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资者不应该去猜测整体经济或股市未来的发展方向
-应该发挥判断力比较准确的判断他想买入的公司相对于整体经济会出现怎样的表现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场趋势</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济衰退，使得价值投资失去原有的价值？</t>
-  </si>
-  <si>
-    <t>影响股市的力量分别是利率趋势、政府对投资和私人企业整体的态度、通货膨胀的长期趋势、最重要的新发明和新技术对传统行业的影响力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈利能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>净资产收益率ROE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产回报率ROA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>净利润率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛利润</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成长指标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入增长率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>净利润增长率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产负债率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格指标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>市盈率（PE）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>市净率（PB）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>市销率（PS)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成长方向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人口需求新兴消费品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济转型方向科技龙头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>永安药业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永安药业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1437,71 +1320,6 @@
   </si>
   <si>
     <t>利润率（每1元销售收入含有的利润)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出理由</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最初买入行为是一个错误，
-而且当下盈利情况越来越清楚的表明，
-所买入公司实际情况并不像原先想象那么优秀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出意义：1减少长期持股损失
-2承认自己犯下的错误
-3不愿意承担损失
-4了解判断失误的成因，防止再次发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本面随着时间推移发生变化
-与十五个原则契合度不在那么高就应该卖出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>意义：经营下坡路，1管理层松懈退化
-2公司成长可能性几近枯竭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现更有吸引力的公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>误判某些重要因素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融界给出卖出的理由</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在可预见的将来，
-整体股市在一定程度上出现某种幅度的下跌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误：忽略影响走势的较强因素，
-反而担心较弱因素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一只优秀股票价格涨幅过大，因此应该将其卖出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>意义：面对几年后规模达到现在4倍的公司，高估35%重要么</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票有了很大的涨幅，上涨潜力已经被释放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>意义：三个同学股市</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1579,32 +1397,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不要过度分散化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要过度重视过往收益和价格变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要担心战争时刻买入股票</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>真正重要的是从过往发现探索未来的线索
-，并且将现在和过往因素综合来寻找未来的蛛丝马迹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业分散/公司分散/主营分散</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战争失败会降低证券和货币的价值，
-成功的影响具体看公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1691,12 +1483,6 @@
   </si>
   <si>
     <t>评价组成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业评价
-有时候事情很明显，容易理解，有时候对某一行业得评价起起落落，原因是看中某种背景时间的影响力神域其他背景事件
-投资者必须不断探索研究，弄清楚评价比实际有利或不利</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1941,6 +1727,131 @@
 贴现7%,净利润全部转化为
 现金流入且保守估计0.42亿
 ，5年内在价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品或服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途是什么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者是否需要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求是否稳定将来如何满足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高产品或服务，
+销售业绩不受影响可能性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与替代品相比，有何独特之处，
+消费者是否在意，多大程度在意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁是客户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散还是集中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户财务状况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业评价
+有时候事情很明显，容易理解，有时候对某一行业得评价起起落落，原因是看中某种背景时间的影响力甚于其他背景事件
+投资者必须不断探索研究，弄清楚评价比实际有利或不利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一家企业在剩余的寿命中可以产生的现金的折现值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何销售</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场地理分布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应链稳固</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳资关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司生命周期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品品牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品特色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供货来源成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送连</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户习惯和偏好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务组织和设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对经济和市场变化
+做出响应的能力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1953,7 +1864,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2020,6 +1931,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -2179,12 +2108,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2202,14 +2125,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2218,6 +2135,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2225,12 +2145,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2252,1469 +2177,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10949445258743833"/>
-          <c:y val="0.25441951335030488"/>
-          <c:w val="0.81176955097069736"/>
-          <c:h val="0.53435725028753434"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]比率分析!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>利润率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]比率分析!$A$6:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]比率分析!$B$6:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D2DA-40E7-AF9C-D6B77FEF1AE2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:smooth val="0"/>
-        <c:axId val="243155896"/>
-        <c:axId val="243156288"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="243155896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="243156288"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="243156288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="243155896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'[2]中科创达(300496)_利润表 (1)'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>利润率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'[2]中科创达(300496)_利润表 (1)'!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2018</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'[2]中科创达(300496)_利润表 (1)'!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-53E7-43D6-9378-1BE460360DA0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="242918056"/>
-        <c:axId val="242918448"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="242918056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="242918448"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="242918448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="242918056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]比率分析!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>净资产收益率ROE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]比率分析!$I$3:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]比率分析!$J$3:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.1296296296296296E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8828828828828829E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.517857142857143E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2676295666949875E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.8884758364312278E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-87A4-4000-8E98-60544EE1C559}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="242919232"/>
-        <c:axId val="245027520"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="242919232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="245027520"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="245027520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="242919232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]比率分析!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>资产回报率ROA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]比率分析!$L$3:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]比率分析!$M$3:$M$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.913477537437604E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6958719460825613E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4131338320864507E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8703849175176749E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4177215189873422E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CB20-4061-B741-69197F46C34B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="245028304"/>
-        <c:axId val="245028696"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="245028304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="245028696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="245028696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="245028304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3904,7 +2366,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D0D1-4B15-AB9E-478195AFE5D5}"/>
+              <c16:uniqueId val="{00000000-D2DA-40E7-AF9C-D6B77FEF1AE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3933,11 +2395,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="245031048"/>
-        <c:axId val="244318664"/>
+        <c:axId val="248860752"/>
+        <c:axId val="152763400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245031048"/>
+        <c:axId val="248860752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3980,7 +2442,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244318664"/>
+        <c:crossAx val="152763400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3988,7 +2450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244318664"/>
+        <c:axId val="152763400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4025,7 +2487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245031048"/>
+        <c:crossAx val="248860752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4093,7 +2555,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4122,12 +2584,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4149,17 +2608,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]比率分析!$P$2</c:f>
+              <c:f>'[2]中科创达(300496)_利润表 (1)'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>毛利润</c:v>
+                  <c:v>利润率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -4187,10 +2646,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4216,7 +2672,7 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
@@ -4230,10 +2686,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>[1]比率分析!$O$3:$O$7</c:f>
+              <c:f>'[2]中科创达(300496)_利润表 (1)'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -4249,29 +2705,35 @@
                 <c:pt idx="4">
                   <c:v>2017</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]比率分析!$P$3:$P$7</c:f>
+              <c:f>'[2]中科创达(300496)_利润表 (1)'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.16252390057361385</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15349544072948326</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17805755395683442</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25818181818181818</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36548767416934619</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4279,7 +2741,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-717D-43FC-9ACE-4270697C038C}"/>
+              <c16:uniqueId val="{00000000-53E7-43D6-9378-1BE460360DA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4292,41 +2754,26 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="244319840"/>
-        <c:axId val="244320232"/>
+        <c:axId val="150434224"/>
+        <c:axId val="251963288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244319840"/>
+        <c:axId val="150434224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -4340,12 +2787,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4355,7 +2799,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244320232"/>
+        <c:crossAx val="251963288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4363,12 +2807,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244320232"/>
+        <c:axId val="251963288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4385,12 +2843,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4400,24 +2855,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244319840"/>
+        <c:crossAx val="150434224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -4437,11 +2880,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4509,166 +2952,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5714,2071 +3997,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -7956,7 +4174,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7994,7 +4212,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8009,163 +4227,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2495550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1571624</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7FED39-74BC-41A2-8C07-2E843A78E3AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2538413</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1590674</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCD41E5-CFBD-42A2-8A7A-5C786B0A8671}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2457451</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1590675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8624A653-617C-4264-B426-4C6736718991}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2133601</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1571624</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22342621-8A88-4AF9-B606-EB11596E2C0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10622,7 +6683,7 @@
   <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10644,40 +6705,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70" t="s">
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70" t="s">
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="W1" s="70"/>
+      <c r="W1" s="67"/>
     </row>
     <row r="2" spans="1:25" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -10695,11 +6756,11 @@
       <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="70" t="s">
-        <v>394</v>
-      </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="F2" s="67" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="1" t="s">
         <v>81</v>
       </c>
@@ -10750,22 +6811,27 @@
       <c r="B3" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="K3" s="69" t="s">
+      <c r="D3" s="66"/>
+      <c r="F3" s="66" t="s">
+        <v>371</v>
+      </c>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="K3" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
@@ -10911,7 +6977,7 @@
         <v>3.5963417998605598</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="J9" s="18">
         <v>7.3000000000000001E-3</v>
@@ -10932,13 +6998,13 @@
     </row>
     <row r="10" spans="1:25" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="B10" s="32"/>
-      <c r="F10" s="73" t="s">
-        <v>399</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>404</v>
-      </c>
-      <c r="H10" s="73"/>
+      <c r="F10" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="H10" s="65"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="O10" s="32"/>
@@ -10948,10 +7014,10 @@
     <row r="11" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="32"/>
       <c r="F11" s="20" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="H11" s="20"/>
       <c r="J11" s="18"/>
@@ -11054,7 +7120,7 @@
     </row>
     <row r="15" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="B15" s="32">
         <f>(15.54-0.89)/2.95</f>
@@ -11072,7 +7138,7 @@
         <v>6.1468854030281257</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="J15" s="18">
         <v>3.7000000000000002E-3</v>
@@ -11095,13 +7161,13 @@
     </row>
     <row r="16" spans="1:25" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="B16" s="32"/>
-      <c r="F16" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="G16" s="73" t="s">
-        <v>396</v>
-      </c>
-      <c r="H16" s="73"/>
+      <c r="F16" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="H16" s="65"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="O16" s="32"/>
@@ -11111,10 +7177,10 @@
     <row r="17" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="32"/>
       <c r="F17" s="20" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="H17" s="20"/>
       <c r="J17" s="18"/>
@@ -11125,7 +7191,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="B18" s="7">
         <f>(22.44-0.39)/3.13</f>
@@ -11152,7 +7218,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="B19" s="33">
         <f>(197.69-21.02)/40.78</f>
@@ -11183,8 +7249,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="E21" s="7"/>
@@ -11208,7 +7274,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="V1:W1"/>
@@ -11219,6 +7285,7 @@
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -11236,7 +7303,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11252,22 +7319,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -11280,13 +7347,13 @@
         <v>192</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="G2" s="42" t="s">
         <v>93</v>
@@ -11297,10 +7364,10 @@
       <c r="I2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="69"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="42" t="s">
         <v>116</v>
       </c>
@@ -11315,16 +7382,16 @@
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
-      <c r="J3" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>327</v>
+      <c r="J3" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="B4">
         <v>237</v>
@@ -11342,10 +7409,10 @@
         <v>2912</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="J4" s="5">
         <v>0.36759999999999998</v>
@@ -11365,7 +7432,7 @@
     </row>
     <row r="6" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="B6">
         <v>746</v>
@@ -11383,7 +7450,7 @@
         <v>5719</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="I6">
         <v>24</v>
@@ -11415,13 +7482,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="58"/>
+    <col min="1" max="1" width="9" style="56"/>
     <col min="2" max="2" width="35.75" customWidth="1"/>
     <col min="3" max="3" width="34.625" customWidth="1"/>
     <col min="4" max="4" width="32.125" customWidth="1"/>
@@ -11445,7 +7512,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>219</v>
       </c>
       <c r="B1" s="46" t="s">
@@ -11454,30 +7521,30 @@
       <c r="C1" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="69"/>
+      <c r="N1" s="66"/>
       <c r="O1" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="Q1" s="69"/>
+      <c r="Q1" s="66"/>
       <c r="R1" s="49" t="s">
         <v>244</v>
       </c>
@@ -11512,8 +7579,8 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
-        <v>305</v>
+      <c r="A3" s="57" t="s">
+        <v>277</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>225</v>
@@ -11542,14 +7609,14 @@
       <c r="J3" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="58" t="s">
         <v>259</v>
       </c>
       <c r="L3" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="M3" s="61" t="s">
-        <v>307</v>
+      <c r="M3" s="59" t="s">
+        <v>279</v>
       </c>
       <c r="N3" s="47" t="s">
         <v>238</v>
@@ -11589,14 +7656,14 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="58" t="s">
-        <v>302</v>
+      <c r="A4" s="56" t="s">
+        <v>275</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="E4">
         <v>3.14</v>
@@ -11608,10 +7675,10 @@
         <v>127</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="J4" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="K4" s="5">
         <f>5484/93277</f>
@@ -11626,20 +7693,20 @@
         <v>0.14255091103965703</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="Y4" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="56" t="s">
         <v>248</v>
       </c>
       <c r="B5" t="s">
@@ -11687,7 +7754,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="81" x14ac:dyDescent="0.15">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="56" t="s">
         <v>254</v>
       </c>
       <c r="B6" s="47" t="s">
@@ -11747,42 +7814,150 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="38.375" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="27.375" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="8" max="9" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="21" max="21" width="12.875" customWidth="1"/>
+    <col min="22" max="22" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>332</v>
+    <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+    </row>
+    <row r="4" spans="1:22" s="70" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A4" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>368</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>369</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="K4" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>385</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="P4" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q4" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="R4" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="S4" s="70" t="s">
+        <v>381</v>
+      </c>
+      <c r="T4" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="U4" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="V4" s="70" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="Q3:V3"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11790,262 +7965,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="3" width="34.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="12" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="7" customWidth="1"/>
-    <col min="12" max="12" width="22.5" customWidth="1"/>
-    <col min="13" max="13" width="24.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70" t="s">
-        <v>290</v>
-      </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70" t="s">
-        <v>298</v>
-      </c>
-      <c r="M1" s="70"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="5">
-        <f>1.33/13.41</f>
-        <v>9.9179716629381062E-2</v>
-      </c>
-      <c r="C3" s="5">
-        <f>1.33/15.8</f>
-        <v>8.4177215189873422E-2</v>
-      </c>
-      <c r="D3" s="5">
-        <f>1.33/9.33</f>
-        <v>0.14255091103965703</v>
-      </c>
-      <c r="E3" s="5">
-        <f>(9.32-5.92)/9.32</f>
-        <v>0.36480686695278974</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.69779999999999998</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2.0893999999999999</v>
-      </c>
-      <c r="I3">
-        <v>20.51</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2.18E-2</v>
-      </c>
-      <c r="K3" s="7">
-        <f>33.71/9.33</f>
-        <v>3.6130760986066455</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="36.875" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="47.625" customWidth="1"/>
-    <col min="7" max="7" width="32.5" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
-    <col min="10" max="10" width="26.5" customWidth="1"/>
-    <col min="11" max="11" width="17.375" customWidth="1"/>
-    <col min="12" max="12" width="15.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>279</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="G1" s="70" t="s">
-        <v>308</v>
-      </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70" t="s">
-        <v>315</v>
-      </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-    </row>
-    <row r="2" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="G3" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="I3" t="s">
-        <v>314</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>321</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
@@ -12620,12 +8539,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12652,193 +8571,193 @@
   <sheetData>
     <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B1" s="70" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="69" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
+        <v>338</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B2" s="71" t="s">
-        <v>363</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71" t="s">
-        <v>366</v>
-      </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71" t="s">
-        <v>372</v>
-      </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71" t="s">
-        <v>375</v>
-      </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="71" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="65" t="s">
-        <v>346</v>
-      </c>
-      <c r="S2" s="71" t="s">
-        <v>347</v>
-      </c>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71" t="s">
-        <v>361</v>
-      </c>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71" t="s">
-        <v>354</v>
-      </c>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA2" s="71"/>
+      <c r="B2" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="69" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="S2" s="69" t="s">
+        <v>299</v>
+      </c>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA2" s="69"/>
     </row>
     <row r="3" spans="1:27" ht="189" x14ac:dyDescent="0.15">
       <c r="B3" s="47" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="F3" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="P3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>296</v>
+      </c>
+      <c r="R3" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="S3" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="T3" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="U3" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="V3" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="W3" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>374</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>382</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="P3" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>344</v>
-      </c>
-      <c r="R3" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="S3" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="U3" s="47" t="s">
-        <v>352</v>
-      </c>
-      <c r="V3" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="W3" s="47" t="s">
-        <v>355</v>
-      </c>
       <c r="X3" s="47" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="Y3" s="47" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="Z3" s="47" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="AA3" s="47" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="C4" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>389</v>
-      </c>
-      <c r="P4" s="72" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
+        <v>340</v>
+      </c>
+      <c r="P4" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="P5" s="5">
@@ -12846,20 +8765,26 @@
         <v>0.55737704918032782</v>
       </c>
       <c r="R5" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="S5">
         <v>234</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="V5" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U2:V2"/>
@@ -12867,12 +8792,7 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -1715,14 +1715,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6.13~7.50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.86~11.11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>假设增长率10%，
 贴现7%,净利润全部转化为
 现金流入且保守估计0.42亿
@@ -1852,6 +1844,14 @@
   <si>
     <t>对经济和市场变化
 做出响应的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.44~6.98</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.61~8.9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2138,25 +2138,25 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2191,7 +2191,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2303,7 +2302,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2395,11 +2393,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="248860752"/>
-        <c:axId val="152763400"/>
+        <c:axId val="148566144"/>
+        <c:axId val="148582592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="248860752"/>
+        <c:axId val="148566144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2440,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152763400"/>
+        <c:crossAx val="148582592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2450,7 +2448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152763400"/>
+        <c:axId val="148582592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2485,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248860752"/>
+        <c:crossAx val="148566144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2570,7 +2568,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2666,7 +2663,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2755,11 +2751,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="150434224"/>
-        <c:axId val="251963288"/>
+        <c:axId val="148533136"/>
+        <c:axId val="148942584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150434224"/>
+        <c:axId val="148533136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2799,7 +2795,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251963288"/>
+        <c:crossAx val="148942584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2807,7 +2803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251963288"/>
+        <c:axId val="148942584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2855,7 +2851,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150434224"/>
+        <c:crossAx val="148533136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4174,7 +4170,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4212,7 +4208,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4247,74 +4243,10 @@
           <cell r="J2" t="str">
             <v>净资产收益率ROE</v>
           </cell>
-          <cell r="M2" t="str">
-            <v>资产回报率ROA</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>毛利润</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="I3">
-            <v>2013</v>
-          </cell>
-          <cell r="J3">
-            <v>2.1296296296296296E-2</v>
-          </cell>
-          <cell r="L3">
-            <v>2013</v>
-          </cell>
-          <cell r="M3">
-            <v>1.913477537437604E-2</v>
-          </cell>
-          <cell r="O3">
-            <v>2013</v>
-          </cell>
-          <cell r="P3">
-            <v>0.16252390057361385</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>2014</v>
-          </cell>
-          <cell r="J4">
-            <v>2.8828828828828829E-2</v>
-          </cell>
-          <cell r="L4">
-            <v>2014</v>
-          </cell>
-          <cell r="M4">
-            <v>2.6958719460825613E-2</v>
-          </cell>
-          <cell r="O4">
-            <v>2014</v>
-          </cell>
-          <cell r="P4">
-            <v>0.15349544072948326</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
             <v>利润率</v>
-          </cell>
-          <cell r="I5">
-            <v>2015</v>
-          </cell>
-          <cell r="J5">
-            <v>1.517857142857143E-2</v>
-          </cell>
-          <cell r="L5">
-            <v>2015</v>
-          </cell>
-          <cell r="M5">
-            <v>1.4131338320864507E-2</v>
-          </cell>
-          <cell r="O5">
-            <v>2015</v>
-          </cell>
-          <cell r="P5">
-            <v>0.17805755395683442</v>
           </cell>
         </row>
         <row r="6">
@@ -4324,24 +4256,6 @@
           <cell r="B6">
             <v>0.05</v>
           </cell>
-          <cell r="I6">
-            <v>2016</v>
-          </cell>
-          <cell r="J6">
-            <v>5.2676295666949875E-2</v>
-          </cell>
-          <cell r="L6">
-            <v>2016</v>
-          </cell>
-          <cell r="M6">
-            <v>4.8703849175176749E-2</v>
-          </cell>
-          <cell r="O6">
-            <v>2016</v>
-          </cell>
-          <cell r="P6">
-            <v>0.25818181818181818</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="A7">
@@ -4349,24 +4263,6 @@
           </cell>
           <cell r="B7">
             <v>0.03</v>
-          </cell>
-          <cell r="I7">
-            <v>2017</v>
-          </cell>
-          <cell r="J7">
-            <v>9.8884758364312278E-2</v>
-          </cell>
-          <cell r="L7">
-            <v>2017</v>
-          </cell>
-          <cell r="M7">
-            <v>8.4177215189873422E-2</v>
-          </cell>
-          <cell r="O7">
-            <v>2017</v>
-          </cell>
-          <cell r="P7">
-            <v>0.36548767416934619</v>
           </cell>
         </row>
         <row r="8">
@@ -6683,7 +6579,7 @@
   <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6705,40 +6601,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67" t="s">
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67" t="s">
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="W1" s="67"/>
+      <c r="W1" s="70"/>
     </row>
     <row r="2" spans="1:25" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -6756,11 +6652,11 @@
       <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="1" t="s">
         <v>81</v>
       </c>
@@ -6811,27 +6707,27 @@
       <c r="B3" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="F3" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="K3" s="66" t="s">
+      <c r="D3" s="69"/>
+      <c r="F3" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="K3" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66" t="s">
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
@@ -6969,15 +6865,15 @@
         <v>0.34</v>
       </c>
       <c r="F9" s="20">
-        <f>0.39*5*1.05^5/1.12</f>
-        <v>2.2220973632812502</v>
+        <f>NPV(5%,0.39,0.39,0.39,0.39,0.39)/1.1</f>
+        <v>1.5349962741327448</v>
       </c>
       <c r="G9" s="20">
-        <f>0.42*(1.1+1.1^2+1.1^3+1.1^4+1.1^5)*1.07^5/1.1</f>
-        <v>3.5963417998605598</v>
+        <f>NPV(7%,0.42*1.1,0.42*1.1^2,0.42*1.1^3,0.42*1.1^4,0.42*1.1^5)/1.1</f>
+        <v>2.0757992068834001</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="J9" s="18">
         <v>7.3000000000000001E-3</v>
@@ -7002,7 +6898,7 @@
         <v>350</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H10" s="65"/>
       <c r="J10" s="18"/>
@@ -7130,15 +7026,15 @@
         <v>0.23</v>
       </c>
       <c r="F15" s="20">
-        <f>1.8*5*1.05^5/2.95</f>
-        <v>3.8937403601694913</v>
+        <f>NPV(5%,1.8,1.8,1.8,1.8,1.8)/2.95</f>
+        <v>2.6417145786899914</v>
       </c>
       <c r="G15" s="20">
-        <f>2.13*(1.1+1.1^2+1.1^3+1.1^4+1.1^5)*1.05^5/2.97</f>
-        <v>6.1468854030281257</v>
+        <f>NPV(7%,2.13*1.1,2.13*1.1^2,2.13*1.1^3,2.13*1.1^4,2.13*1.1^5)/2.95</f>
+        <v>3.925421744735921</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="J15" s="18">
         <v>3.7000000000000002E-3</v>
@@ -7319,22 +7215,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -7364,10 +7260,10 @@
       <c r="I2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="66"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="42" t="s">
         <v>116</v>
       </c>
@@ -7521,30 +7417,30 @@
       <c r="C1" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66" t="s">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="66"/>
+      <c r="N1" s="69"/>
       <c r="O1" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="Q1" s="66"/>
+      <c r="Q1" s="69"/>
       <c r="R1" s="49" t="s">
         <v>244</v>
       </c>
@@ -7837,117 +7733,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="71" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-    </row>
-    <row r="2" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="72" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="67" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67" t="s">
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+    </row>
+    <row r="4" spans="1:22" s="66" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A4" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>360</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67" t="s">
+      <c r="C4" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>362</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>363</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>370</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>371</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="M4" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q4" s="66" t="s">
+        <v>377</v>
+      </c>
+      <c r="R4" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-    </row>
-    <row r="4" spans="1:22" s="70" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A4" s="70" t="s">
-        <v>361</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>362</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>363</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>364</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>366</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>365</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>367</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>368</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>369</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>372</v>
-      </c>
-      <c r="K4" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="L4" s="73" t="s">
-        <v>385</v>
-      </c>
-      <c r="M4" s="70" t="s">
-        <v>374</v>
-      </c>
-      <c r="N4" s="70" t="s">
-        <v>375</v>
-      </c>
-      <c r="O4" s="70" t="s">
-        <v>376</v>
-      </c>
-      <c r="P4" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q4" s="70" t="s">
+      <c r="S4" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="T4" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="U4" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="T4" s="70" t="s">
+      <c r="V4" s="66" t="s">
         <v>382</v>
-      </c>
-      <c r="U4" s="70" t="s">
-        <v>383</v>
-      </c>
-      <c r="V4" s="70" t="s">
-        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -8573,87 +8469,87 @@
       <c r="A1" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="70" t="s">
         <v>315</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="66" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="69" t="s">
         <v>303</v>
       </c>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66" t="s">
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69" t="s">
         <v>305</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="63"/>
       <c r="N2" s="64"/>
       <c r="O2" s="63"/>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="Q2" s="69"/>
+      <c r="Q2" s="72"/>
       <c r="R2" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69" t="s">
+      <c r="T2" s="72"/>
+      <c r="U2" s="72" t="s">
         <v>312</v>
       </c>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69" t="s">
+      <c r="V2" s="72"/>
+      <c r="W2" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69" t="s">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72" t="s">
         <v>307</v>
       </c>
-      <c r="AA2" s="69"/>
+      <c r="AA2" s="72"/>
     </row>
     <row r="3" spans="1:27" ht="189" x14ac:dyDescent="0.15">
       <c r="B3" s="47" t="s">
@@ -8720,7 +8616,7 @@
         <v>313</v>
       </c>
       <c r="W3" s="47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>310</v>
@@ -8751,13 +8647,13 @@
       <c r="J4" t="s">
         <v>340</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="73" t="s">
         <v>302</v>
       </c>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="P5" s="5">
@@ -8779,12 +8675,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U2:V2"/>
@@ -8793,6 +8683,12 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -9,15 +9,16 @@
   <sheets>
     <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
     <sheet name="资产负债表-低价股F" sheetId="14" r:id="rId2"/>
-    <sheet name="损益表分析-收益股G" sheetId="15" r:id="rId3"/>
-    <sheet name="成长股十五原则" sheetId="17" r:id="rId4"/>
-    <sheet name="公司分析" sheetId="22" r:id="rId5"/>
-    <sheet name="债券选择原则-H" sheetId="16" r:id="rId6"/>
-    <sheet name="保守型投资要素" sheetId="21" r:id="rId7"/>
+    <sheet name="估值方法" sheetId="23" r:id="rId3"/>
+    <sheet name="损益表分析-收益股G" sheetId="15" r:id="rId4"/>
+    <sheet name="成长股十五原则" sheetId="17" r:id="rId5"/>
+    <sheet name="公司分析" sheetId="22" r:id="rId6"/>
+    <sheet name="债券选择原则-H" sheetId="16" r:id="rId7"/>
+    <sheet name="保守型投资要素" sheetId="21" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="415">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1684,44 +1685,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>假设增长率0，贴现5%，净利润全部转化为现金流入且保守估计为1.8亿，5年的内在价值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>假设增长率10%，
-贴现7%,净利润全部转化为
-现金流入且保守估计2.13亿
-，5年内在价值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6年平均每股收益的16.9倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6年每股平均收益的26.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>假设增长率0，贴现5%，净利润全部转化为现金流入且保守估计为0.39亿，5年的内在价值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6年平均每股收益的6.53倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6年每股平均收益的10.57</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>假设增长率10%，
-贴现7%,净利润全部转化为
-现金流入且保守估计0.42亿
-，5年内在价值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>能力范围</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1786,10 +1749,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一家企业在剩余的寿命中可以产生的现金的折现值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>如何销售</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1847,11 +1806,238 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.44~6.98</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.61~8.9</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重置成本法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+要对一个持续经营的企业进行估值，可以考虑如果以目前成本，完全新建一个类似企业需要多大的成本，也就是重置价值</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商誉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏资产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发投入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户关系价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账面和市场较高者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品质量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺或配方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工培训</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊生产配送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品寿命乘以年均研发投入
+17年专利，5%研发营收占比，
+估值为当前营收85%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售管理支出乘以一个因子
+一般为费用的1-3倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>盈余估值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+现时盈余除以资本成本V=E/k
+现时盈余是当前盈余
+资本成本公司债务和股权成本的加权平均，假设没有增长
+盈余调整：一次性费用和非现金费用（折旧和摊销）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前盈余</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债务成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股权成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成长价值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+V=D1/(k-g)
+现时盈余公式中分母减去增长率g</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金流折现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBITDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除税务和利息前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上折旧和摊销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金流变量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资本性支出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资本成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远期现金流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所估计最后一年的现金流乘以一个因子
+这个因子由增长率和资本成本的关系决定,其值等于1除以二者之差
+例如：资本成本10%，成长率5%，这个因子等于20（1/(10%-5%))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈余估值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1864,7 +2050,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1955,6 +2141,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1989,7 +2184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2135,13 +2330,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2153,10 +2348,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2393,11 +2600,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="148566144"/>
-        <c:axId val="148582592"/>
+        <c:axId val="156059280"/>
+        <c:axId val="156055672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148566144"/>
+        <c:axId val="156059280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,7 +2647,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148582592"/>
+        <c:crossAx val="156055672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2448,7 +2655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148582592"/>
+        <c:axId val="156055672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,7 +2692,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148566144"/>
+        <c:crossAx val="156059280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2751,11 +2958,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="148533136"/>
-        <c:axId val="148942584"/>
+        <c:axId val="233576720"/>
+        <c:axId val="233577104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148533136"/>
+        <c:axId val="233576720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2795,7 +3002,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148942584"/>
+        <c:crossAx val="233577104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2803,7 +3010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148942584"/>
+        <c:axId val="233577104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,7 +3058,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148533136"/>
+        <c:crossAx val="233576720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4170,7 +4377,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4208,7 +4415,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4644,7 +4851,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6576,10 +6783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6711,11 +6918,13 @@
         <v>202</v>
       </c>
       <c r="D3" s="69"/>
-      <c r="F3" s="69" t="s">
-        <v>369</v>
-      </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="F3" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3" s="42"/>
       <c r="K3" s="69" t="s">
         <v>204</v>
       </c>
@@ -6869,12 +7078,10 @@
         <v>1.5349962741327448</v>
       </c>
       <c r="G9" s="20">
-        <f>NPV(7%,0.42*1.1,0.42*1.1^2,0.42*1.1^3,0.42*1.1^4,0.42*1.1^5)/1.1</f>
-        <v>2.0757992068834001</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>384</v>
-      </c>
+        <f>5.57/1.1</f>
+        <v>5.0636363636363635</v>
+      </c>
+      <c r="H9" s="20"/>
       <c r="J9" s="18">
         <v>7.3000000000000001E-3</v>
       </c>
@@ -6892,285 +7099,223 @@
         <v>0.89984334203655347</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="F10" s="65" t="s">
-        <v>350</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>353</v>
-      </c>
-      <c r="H10" s="65"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-    </row>
-    <row r="11" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="F11" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-    </row>
-    <row r="12" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B10" s="33">
         <f>(140755-37289-28391)/40362</f>
         <v>1.8600416233090531</v>
       </c>
-      <c r="E12">
+      <c r="E10">
         <v>0.97</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J10" s="5">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K10" s="5">
         <v>0.41399999999999998</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O10" s="33">
         <v>37.799999999999997</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P10" s="7">
         <f>181671/111350</f>
         <v>1.6315312079030084</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q10" s="7">
         <f>(181671-846)/111350</f>
         <v>1.6239335428828019</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R10" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="32">
+        <f>(33.63-4.18)/9.08</f>
+        <v>3.2433920704845818</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="18">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="O11" s="32">
+        <f>407/12</f>
+        <v>33.916666666666664</v>
+      </c>
+      <c r="P11" s="20">
+        <f>35.64/34.01</f>
+        <v>1.0479270802705087</v>
+      </c>
+      <c r="Q11" s="20">
+        <f>(35.64-19.6)/34.01</f>
+        <v>0.47162599235518965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="33">
+        <f>(113.17-4.6)/11.687</f>
+        <v>9.2898091896979569</v>
+      </c>
+      <c r="E12">
+        <v>0.64</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1.26E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="O12" s="33">
+        <f>936/32</f>
+        <v>29.25</v>
+      </c>
+      <c r="P12" s="7">
+        <f>246.35/174.58</f>
+        <v>1.4111009279413449</v>
+      </c>
+      <c r="Q12" s="7">
+        <f>(246.35-104.48)/174.58</f>
+        <v>0.81263604078359486</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="B13" s="32">
-        <f>(33.63-4.18)/9.08</f>
-        <v>3.2433920704845818</v>
+        <f>(15.54-0.89)/2.95</f>
+        <v>4.9661016949152534</v>
       </c>
       <c r="E13" s="17">
-        <v>0.2</v>
-      </c>
+        <v>0.23</v>
+      </c>
+      <c r="F13" s="20">
+        <f>NPV(5%,1.8,1.8,1.8,1.8,1.8)/2.95</f>
+        <v>2.6417145786899914</v>
+      </c>
+      <c r="G13" s="20">
+        <f>NPV(7%,2.13*1.1,2.13*1.1^2,2.13*1.1^3,2.13*1.1^4,2.13*1.1^5)/2.95</f>
+        <v>3.925421744735921</v>
+      </c>
+      <c r="H13" s="20"/>
       <c r="J13" s="18">
-        <v>5.4199999999999998E-2</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="K13" s="18">
-        <v>0.66410000000000002</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="O13" s="32">
-        <f>407/12</f>
-        <v>33.916666666666664</v>
+        <f>1389/17</f>
+        <v>81.705882352941174</v>
       </c>
       <c r="P13" s="20">
-        <f>35.64/34.01</f>
-        <v>1.0479270802705087</v>
+        <f>7.37/2.66</f>
+        <v>2.7706766917293231</v>
       </c>
       <c r="Q13" s="20">
-        <f>(35.64-19.6)/34.01</f>
-        <v>0.47162599235518965</v>
+        <f>(7.37-0.85)/2.66</f>
+        <v>2.4511278195488724</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B14" s="33">
-        <f>(113.17-4.6)/11.687</f>
-        <v>9.2898091896979569</v>
-      </c>
-      <c r="E14">
-        <v>0.64</v>
-      </c>
-      <c r="J14" s="18">
-        <v>1.26E-2</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0.49509999999999998</v>
-      </c>
-      <c r="O14" s="33">
-        <f>936/32</f>
-        <v>29.25</v>
-      </c>
-      <c r="P14" s="7">
-        <f>246.35/174.58</f>
-        <v>1.4111009279413449</v>
-      </c>
-      <c r="Q14" s="7">
-        <f>(246.35-104.48)/174.58</f>
-        <v>0.81263604078359486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="B15" s="32">
-        <f>(15.54-0.89)/2.95</f>
-        <v>4.9661016949152534</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0.23</v>
-      </c>
-      <c r="F15" s="20">
-        <f>NPV(5%,1.8,1.8,1.8,1.8,1.8)/2.95</f>
-        <v>2.6417145786899914</v>
-      </c>
-      <c r="G15" s="20">
-        <f>NPV(7%,2.13*1.1,2.13*1.1^2,2.13*1.1^3,2.13*1.1^4,2.13*1.1^5)/2.95</f>
-        <v>3.925421744735921</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="J15" s="18">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="K15" s="18">
-        <v>0.14749999999999999</v>
-      </c>
-      <c r="O15" s="32">
-        <f>1389/17</f>
-        <v>81.705882352941174</v>
-      </c>
-      <c r="P15" s="20">
-        <f>7.37/2.66</f>
-        <v>2.7706766917293231</v>
-      </c>
-      <c r="Q15" s="20">
-        <f>(7.37-0.85)/2.66</f>
-        <v>2.4511278195488724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
-      <c r="F16" s="65" t="s">
-        <v>346</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="H16" s="65"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-    </row>
-    <row r="17" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="32"/>
-      <c r="F17" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
         <v>292</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B14" s="7">
         <f>(22.44-0.39)/3.13</f>
         <v>7.0447284345047931</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J14" s="5">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K14" s="5">
         <v>0.42470000000000002</v>
       </c>
-      <c r="O18">
+      <c r="O14">
         <f>711/12</f>
         <v>59.25</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P14" s="7">
         <f>18.06/2.39</f>
         <v>7.556485355648535</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q14" s="7">
         <f>(18.06-1.07)/2.39</f>
         <v>7.1087866108786599</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B15" s="33">
         <f>(197.69-21.02)/40.78</f>
         <v>4.3322707209416373</v>
       </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="J15" s="5">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="L15" s="5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O15">
+        <f>975/20</f>
+        <v>48.75</v>
+      </c>
+      <c r="P15" s="7">
+        <f>115/16</f>
+        <v>7.1875</v>
+      </c>
+      <c r="Q15" s="7">
+        <f>(115-18)/16</f>
+        <v>6.0625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="J19" s="5">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0.32219999999999999</v>
-      </c>
-      <c r="L19" s="5">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O19">
-        <f>975/20</f>
-        <v>48.75</v>
-      </c>
-      <c r="P19" s="7">
-        <f>115/16</f>
-        <v>7.1875</v>
-      </c>
-      <c r="Q19" s="7">
-        <f>(115-18)/16</f>
-        <v>6.0625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="G26" t="s">
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="G22" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="V1:W1"/>
@@ -7181,7 +7326,6 @@
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -7195,6 +7339,238 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="26.125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="22.5" customWidth="1"/>
+    <col min="19" max="19" width="20.125" customWidth="1"/>
+    <col min="20" max="20" width="17.375" customWidth="1"/>
+    <col min="21" max="21" width="15.5" customWidth="1"/>
+    <col min="22" max="22" width="21.5" customWidth="1"/>
+    <col min="25" max="25" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76" t="s">
+        <v>396</v>
+      </c>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="T1" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+    </row>
+    <row r="2" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="76" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>385</v>
+      </c>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" t="s">
+        <v>389</v>
+      </c>
+      <c r="T2" s="73" t="s">
+        <v>402</v>
+      </c>
+      <c r="U2" s="73"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="73" t="s">
+        <v>407</v>
+      </c>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA2" s="73"/>
+    </row>
+    <row r="3" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="G3" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="T3" t="s">
+        <v>405</v>
+      </c>
+      <c r="U3" t="s">
+        <v>406</v>
+      </c>
+      <c r="V3" s="47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G4" t="s">
+        <v>386</v>
+      </c>
+      <c r="H4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K4" t="s">
+        <v>391</v>
+      </c>
+      <c r="L4" t="s">
+        <v>393</v>
+      </c>
+      <c r="M4" t="s">
+        <v>392</v>
+      </c>
+      <c r="N4" t="s">
+        <v>388</v>
+      </c>
+      <c r="O4" t="s">
+        <v>397</v>
+      </c>
+      <c r="P4" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>399</v>
+      </c>
+      <c r="T4" t="s">
+        <v>403</v>
+      </c>
+      <c r="U4" t="s">
+        <v>404</v>
+      </c>
+      <c r="V4" t="s">
+        <v>412</v>
+      </c>
+      <c r="W4" t="s">
+        <v>408</v>
+      </c>
+      <c r="X4" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="O5">
+        <v>0.39</v>
+      </c>
+      <c r="P5" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R5" s="7">
+        <f>O5/P5</f>
+        <v>5.5714285714285712</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="O1:R1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
@@ -7374,7 +7750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
@@ -7708,7 +8084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
@@ -7733,22 +8109,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="A1" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="71" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="70" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
@@ -7756,12 +8132,12 @@
       <c r="E3" s="70"/>
       <c r="F3" s="70"/>
       <c r="G3" s="70" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H3" s="70"/>
       <c r="I3" s="70"/>
       <c r="J3" s="70" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="K3" s="70"/>
       <c r="L3" s="70"/>
@@ -7770,7 +8146,7 @@
       <c r="O3" s="70"/>
       <c r="P3" s="70"/>
       <c r="Q3" s="70" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="R3" s="70"/>
       <c r="S3" s="70"/>
@@ -7778,72 +8154,72 @@
       <c r="U3" s="70"/>
       <c r="V3" s="70"/>
     </row>
-    <row r="4" spans="1:22" s="66" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A4" s="66" t="s">
+    <row r="4" spans="1:22" s="65" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A4" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="I4" s="65" t="s">
         <v>359</v>
       </c>
-      <c r="B4" s="66" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4" s="66" t="s">
+      <c r="J4" s="65" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="K4" s="65" t="s">
         <v>362</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="L4" s="67" t="s">
+        <v>374</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="N4" s="65" t="s">
         <v>364</v>
       </c>
-      <c r="F4" s="68" t="s">
-        <v>363</v>
-      </c>
-      <c r="G4" s="66" t="s">
+      <c r="O4" s="65" t="s">
         <v>365</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="P4" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="I4" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="J4" s="66" t="s">
+      <c r="Q4" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="R4" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="S4" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="T4" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="L4" s="68" t="s">
-        <v>383</v>
-      </c>
-      <c r="M4" s="66" t="s">
+      <c r="U4" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="V4" s="65" t="s">
         <v>373</v>
-      </c>
-      <c r="O4" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="P4" s="66" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q4" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="R4" s="66" t="s">
-        <v>378</v>
-      </c>
-      <c r="S4" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="T4" s="66" t="s">
-        <v>380</v>
-      </c>
-      <c r="U4" s="66" t="s">
-        <v>381</v>
-      </c>
-      <c r="V4" s="66" t="s">
-        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -7860,7 +8236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
@@ -8435,7 +8811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -8504,52 +8880,52 @@
       <c r="Z1" s="69"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73" t="s">
         <v>317</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72" t="s">
+      <c r="I2" s="73"/>
+      <c r="J2" s="73" t="s">
         <v>326</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="63"/>
       <c r="N2" s="64"/>
       <c r="O2" s="63"/>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="Q2" s="72"/>
+      <c r="Q2" s="73"/>
       <c r="R2" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="S2" s="72" t="s">
+      <c r="S2" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72" t="s">
+      <c r="T2" s="73"/>
+      <c r="U2" s="73" t="s">
         <v>312</v>
       </c>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72" t="s">
+      <c r="V2" s="73"/>
+      <c r="W2" s="73" t="s">
         <v>306</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72" t="s">
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="AA2" s="72"/>
+      <c r="AA2" s="73"/>
     </row>
     <row r="3" spans="1:27" ht="189" x14ac:dyDescent="0.15">
       <c r="B3" s="47" t="s">
@@ -8616,7 +8992,7 @@
         <v>313</v>
       </c>
       <c r="W3" s="47" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>310</v>
@@ -8647,13 +9023,13 @@
       <c r="J4" t="s">
         <v>340</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="P5" s="5">
@@ -8675,6 +9051,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U2:V2"/>
@@ -8683,12 +9065,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="424">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2023,10 +2023,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>资本成本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>远期现金流</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2038,6 +2034,52 @@
   </si>
   <si>
     <t>盈余估值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WACC(加权平均资本成本)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPM（资产定价模型)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期国债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">参照标准，资本市场上其他参与者为风险类似的
+企业融资项目会给投资者多少股权回报，以
+吸引股权投资
+例如，高风险投资项目股权成本，可以咨询类似企业给
+风险投资开出的回报条件。风险较低的企业，可将二次
+发行股票的蓝筹企业作为参照
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险溢价乘以beta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折现率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照盈余估值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折现率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波精达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>估值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2184,7 +2226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2338,18 +2380,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2359,11 +2389,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2600,11 +2645,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="156059280"/>
-        <c:axId val="156055672"/>
+        <c:axId val="242667632"/>
+        <c:axId val="242668416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156059280"/>
+        <c:axId val="242667632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,7 +2692,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156055672"/>
+        <c:crossAx val="242668416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2655,7 +2700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156055672"/>
+        <c:axId val="242668416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,7 +2737,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156059280"/>
+        <c:crossAx val="242667632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2958,11 +3003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="233576720"/>
-        <c:axId val="233577104"/>
+        <c:axId val="242669200"/>
+        <c:axId val="242669592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233576720"/>
+        <c:axId val="242669200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,7 +3047,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233577104"/>
+        <c:crossAx val="242669592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3010,7 +3055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233577104"/>
+        <c:axId val="242669592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3058,7 +3103,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233576720"/>
+        <c:crossAx val="242669200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4377,7 +4422,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4415,7 +4460,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6785,7 +6830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -6808,40 +6853,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70" t="s">
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70" t="s">
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70" t="s">
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="W1" s="70"/>
+      <c r="W1" s="73"/>
     </row>
     <row r="2" spans="1:25" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -6859,11 +6904,11 @@
       <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="73" t="s">
         <v>345</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="1" t="s">
         <v>81</v>
       </c>
@@ -6914,29 +6959,29 @@
       <c r="B3" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="72"/>
       <c r="F3" s="42" t="s">
         <v>401</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H3" s="42"/>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69" t="s">
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
@@ -7340,229 +7385,282 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="7" max="7" width="24.25" customWidth="1"/>
-    <col min="8" max="8" width="26.125" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="22.5" customWidth="1"/>
-    <col min="19" max="19" width="20.125" customWidth="1"/>
-    <col min="20" max="20" width="17.375" customWidth="1"/>
-    <col min="21" max="21" width="15.5" customWidth="1"/>
-    <col min="22" max="22" width="21.5" customWidth="1"/>
-    <col min="25" max="25" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="24.25" customWidth="1"/>
+    <col min="9" max="9" width="26.125" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="22.5" customWidth="1"/>
+    <col min="18" max="18" width="37.625" customWidth="1"/>
+    <col min="19" max="19" width="7.75" customWidth="1"/>
+    <col min="21" max="21" width="18.875" customWidth="1"/>
+    <col min="22" max="22" width="7.625" customWidth="1"/>
+    <col min="24" max="24" width="20.125" customWidth="1"/>
+    <col min="25" max="25" width="17.375" customWidth="1"/>
+    <col min="26" max="26" width="15.5" customWidth="1"/>
+    <col min="27" max="27" width="21.5" customWidth="1"/>
+    <col min="30" max="30" width="11.125" customWidth="1"/>
+    <col min="31" max="31" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:31" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74" t="s">
         <v>396</v>
       </c>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="74" t="s">
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="70" t="s">
         <v>400</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="Y1" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-    </row>
-    <row r="2" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76" t="s">
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+    </row>
+    <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" t="s">
         <v>384</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>383</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="H2" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" t="s">
         <v>389</v>
       </c>
-      <c r="T2" s="73" t="s">
+      <c r="Q2" t="s">
+        <v>416</v>
+      </c>
+      <c r="R2" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="S2" s="47"/>
+      <c r="T2" t="s">
+        <v>416</v>
+      </c>
+      <c r="U2" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y2" s="75" t="s">
         <v>402</v>
       </c>
-      <c r="U2" s="73"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="73" t="s">
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="75" t="s">
         <v>407</v>
       </c>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73" t="s">
-        <v>411</v>
-      </c>
-      <c r="AA2" s="73"/>
-    </row>
-    <row r="3" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="G3" s="64" t="s">
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="69" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="H3" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="I3" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="I3" s="68"/>
       <c r="J3" s="68"/>
       <c r="K3" s="68"/>
       <c r="L3" s="68"/>
       <c r="M3" s="68"/>
-      <c r="T3" t="s">
+      <c r="N3" s="68"/>
+      <c r="Q3" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="R3" s="75"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="75" t="s">
+        <v>415</v>
+      </c>
+      <c r="U3" s="75"/>
+      <c r="V3" s="69"/>
+      <c r="Y3" t="s">
         <v>405</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Z3" t="s">
         <v>406</v>
       </c>
-      <c r="V3" s="47" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="AA3" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
         <v>376</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>377</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>378</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>379</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>381</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>382</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>386</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>387</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>296</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>390</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>391</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>393</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>392</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>388</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>397</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>398</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>399</v>
       </c>
+      <c r="S4" s="47" t="s">
+        <v>421</v>
+      </c>
       <c r="T4" t="s">
+        <v>398</v>
+      </c>
+      <c r="U4" t="s">
+        <v>399</v>
+      </c>
+      <c r="V4" t="s">
+        <v>421</v>
+      </c>
+      <c r="W4" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y4" t="s">
         <v>403</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Z4" t="s">
         <v>404</v>
       </c>
-      <c r="V4" t="s">
-        <v>412</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="AA4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB4" t="s">
         <v>408</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AC4" t="s">
         <v>409</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AD4" t="s">
         <v>410</v>
       </c>
-      <c r="Z4" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="O5">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>422</v>
+      </c>
+      <c r="P5">
         <v>0.39</v>
       </c>
-      <c r="P5" s="21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R5" s="7">
-        <f>O5/P5</f>
-        <v>5.5714285714285712</v>
+      <c r="Q5" s="5">
+        <v>3.7249999999999998E-2</v>
+      </c>
+      <c r="R5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="S5" s="5">
+        <f>Q5*0.37+R5*0.63</f>
+        <v>7.6782500000000004E-2</v>
+      </c>
+      <c r="W5" s="7">
+        <f>P5/S5</f>
+        <v>5.0792823885651028</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="O1:R1"/>
+  <mergeCells count="9">
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="P1:W1"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="Y2:Z2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7591,22 +7689,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70" t="s">
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -7636,10 +7734,10 @@
       <c r="I2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="69"/>
+      <c r="K2" s="72"/>
       <c r="L2" s="42" t="s">
         <v>116</v>
       </c>
@@ -7793,30 +7891,30 @@
       <c r="C1" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="69"/>
+      <c r="N1" s="72"/>
       <c r="O1" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="72" t="s">
         <v>241</v>
       </c>
-      <c r="Q1" s="69"/>
+      <c r="Q1" s="72"/>
       <c r="R1" s="49" t="s">
         <v>244</v>
       </c>
@@ -8116,43 +8214,43 @@
       <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="77" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="73" t="s">
         <v>348</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73" t="s">
         <v>349</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
     </row>
     <row r="4" spans="1:22" s="65" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="65" t="s">
@@ -8845,87 +8943,87 @@
       <c r="A1" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="69" t="s">
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69" t="s">
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>317</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
       <c r="M2" s="63"/>
       <c r="N2" s="64"/>
       <c r="O2" s="63"/>
-      <c r="P2" s="73" t="s">
+      <c r="P2" s="75" t="s">
         <v>294</v>
       </c>
-      <c r="Q2" s="73"/>
+      <c r="Q2" s="75"/>
       <c r="R2" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="S2" s="73" t="s">
+      <c r="S2" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73" t="s">
+      <c r="T2" s="75"/>
+      <c r="U2" s="75" t="s">
         <v>312</v>
       </c>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73" t="s">
+      <c r="V2" s="75"/>
+      <c r="W2" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73" t="s">
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="AA2" s="73"/>
+      <c r="AA2" s="75"/>
     </row>
     <row r="3" spans="1:27" ht="189" x14ac:dyDescent="0.15">
       <c r="B3" s="47" t="s">
@@ -9023,13 +9121,13 @@
       <c r="J4" t="s">
         <v>340</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="P5" s="5">
@@ -9051,12 +9149,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U2:V2"/>
@@ -9065,6 +9157,12 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -2395,13 +2395,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2645,11 +2645,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="242667632"/>
-        <c:axId val="242668416"/>
+        <c:axId val="152354440"/>
+        <c:axId val="152354824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="242667632"/>
+        <c:axId val="152354440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,7 +2692,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242668416"/>
+        <c:crossAx val="152354824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2700,7 +2700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242668416"/>
+        <c:axId val="152354824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2737,7 +2737,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242667632"/>
+        <c:crossAx val="152354440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3003,11 +3003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="242669200"/>
-        <c:axId val="242669592"/>
+        <c:axId val="152484496"/>
+        <c:axId val="152484880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="242669200"/>
+        <c:axId val="152484496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3047,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242669592"/>
+        <c:crossAx val="152484880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3055,7 +3055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242669592"/>
+        <c:axId val="152484880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,7 +3103,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242669200"/>
+        <c:crossAx val="152484496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4422,7 +4422,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4460,7 +4460,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7388,7 +7388,7 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7412,67 +7412,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
       <c r="X1" s="70" t="s">
         <v>400</v>
       </c>
-      <c r="Y1" s="76" t="s">
+      <c r="Y1" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
     </row>
     <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
       <c r="F2" t="s">
         <v>384</v>
       </c>
       <c r="G2" t="s">
         <v>383</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="76" t="s">
         <v>385</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
       <c r="O2" t="s">
         <v>389</v>
       </c>
@@ -7489,16 +7489,16 @@
       <c r="U2" t="s">
         <v>418</v>
       </c>
-      <c r="Y2" s="75" t="s">
+      <c r="Y2" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="Z2" s="75"/>
+      <c r="Z2" s="76"/>
       <c r="AA2" s="68"/>
-      <c r="AB2" s="75" t="s">
+      <c r="AB2" s="76" t="s">
         <v>407</v>
       </c>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
       <c r="AE2" s="69" t="s">
         <v>419</v>
       </c>
@@ -7519,15 +7519,15 @@
       <c r="L3" s="68"/>
       <c r="M3" s="68"/>
       <c r="N3" s="68"/>
-      <c r="Q3" s="75" t="s">
+      <c r="Q3" s="76" t="s">
         <v>414</v>
       </c>
-      <c r="R3" s="75"/>
+      <c r="R3" s="76"/>
       <c r="S3" s="69"/>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="76" t="s">
         <v>415</v>
       </c>
-      <c r="U3" s="75"/>
+      <c r="U3" s="76"/>
       <c r="V3" s="69"/>
       <c r="Y3" t="s">
         <v>405</v>
@@ -7639,15 +7639,16 @@
         <v>3.7249999999999998E-2</v>
       </c>
       <c r="R5" s="21">
-        <v>0.1</v>
+        <f>0.1+0.02</f>
+        <v>0.12000000000000001</v>
       </c>
       <c r="S5" s="5">
         <f>Q5*0.37+R5*0.63</f>
-        <v>7.6782500000000004E-2</v>
+        <v>8.9382500000000004E-2</v>
       </c>
       <c r="W5" s="7">
         <f>P5/S5</f>
-        <v>5.0792823885651028</v>
+        <v>4.3632702150868461</v>
       </c>
     </row>
   </sheetData>
@@ -8978,52 +8979,52 @@
       <c r="Z1" s="72"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75" t="s">
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75" t="s">
+      <c r="I2" s="76"/>
+      <c r="J2" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
       <c r="M2" s="63"/>
       <c r="N2" s="64"/>
       <c r="O2" s="63"/>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="76" t="s">
         <v>294</v>
       </c>
-      <c r="Q2" s="75"/>
+      <c r="Q2" s="76"/>
       <c r="R2" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="S2" s="75" t="s">
+      <c r="S2" s="76" t="s">
         <v>299</v>
       </c>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75" t="s">
+      <c r="T2" s="76"/>
+      <c r="U2" s="76" t="s">
         <v>312</v>
       </c>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75" t="s">
+      <c r="V2" s="76"/>
+      <c r="W2" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75" t="s">
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="AA2" s="75"/>
+      <c r="AA2" s="76"/>
     </row>
     <row r="3" spans="1:27" ht="189" x14ac:dyDescent="0.15">
       <c r="B3" s="47" t="s">
@@ -9149,6 +9150,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U2:V2"/>
@@ -9157,12 +9164,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="425">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2080,6 +2080,10 @@
   </si>
   <si>
     <t>估值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永安药业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2645,11 +2649,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="152354440"/>
-        <c:axId val="152354824"/>
+        <c:axId val="296652152"/>
+        <c:axId val="295727104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152354440"/>
+        <c:axId val="296652152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,7 +2696,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152354824"/>
+        <c:crossAx val="295727104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2700,7 +2704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152354824"/>
+        <c:axId val="295727104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2737,7 +2741,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152354440"/>
+        <c:crossAx val="296652152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3003,11 +3007,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="152484496"/>
-        <c:axId val="152484880"/>
+        <c:axId val="295727888"/>
+        <c:axId val="295728280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152484496"/>
+        <c:axId val="295727888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3051,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152484880"/>
+        <c:crossAx val="295728280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3055,7 +3059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152484880"/>
+        <c:axId val="295728280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,7 +3107,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152484496"/>
+        <c:crossAx val="295727888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4422,7 +4426,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4460,7 +4464,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6830,8 +6834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7385,9 +7389,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -7649,6 +7653,33 @@
       <c r="W5" s="7">
         <f>P5/S5</f>
         <v>4.3632702150868461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>424</v>
+      </c>
+      <c r="P6" s="7">
+        <f>1.96+0.653-0.1239+0.0779+0.045</f>
+        <v>2.6120000000000001</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>3.7249999999999998E-2</v>
+      </c>
+      <c r="R6" s="21">
+        <f>(5%+8%)/2</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="S6" s="5">
+        <f>Q6*0.15+R6*0.85</f>
+        <v>6.0837500000000003E-2</v>
+      </c>
+      <c r="W6" s="7">
+        <f>P6/S6</f>
+        <v>42.934045613314154</v>
+      </c>
+      <c r="Z6">
+        <v>1.97</v>
       </c>
     </row>
   </sheetData>
@@ -9150,12 +9181,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U2:V2"/>
@@ -9164,6 +9189,12 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="426">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2084,6 +2084,10 @@
   </si>
   <si>
     <t>永安药业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.22-42.93</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2230,7 +2234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2413,6 +2417,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2649,11 +2656,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="296652152"/>
-        <c:axId val="295727104"/>
+        <c:axId val="140989760"/>
+        <c:axId val="140990144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="296652152"/>
+        <c:axId val="140989760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,7 +2703,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295727104"/>
+        <c:crossAx val="140990144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2704,7 +2711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295727104"/>
+        <c:axId val="140990144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,7 +2748,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296652152"/>
+        <c:crossAx val="140989760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3007,11 +3014,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="295727888"/>
-        <c:axId val="295728280"/>
+        <c:axId val="140708960"/>
+        <c:axId val="140709344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295727888"/>
+        <c:axId val="140708960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +3058,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295728280"/>
+        <c:crossAx val="140709344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3059,7 +3066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295728280"/>
+        <c:axId val="140709344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3107,7 +3114,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295727888"/>
+        <c:crossAx val="140708960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4426,7 +4433,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4464,7 +4471,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6834,8 +6841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7255,9 +7262,8 @@
         <f>NPV(5%,1.8,1.8,1.8,1.8,1.8)/2.95</f>
         <v>2.6417145786899914</v>
       </c>
-      <c r="G13" s="20">
-        <f>NPV(7%,2.13*1.1,2.13*1.1^2,2.13*1.1^3,2.13*1.1^4,2.13*1.1^5)/2.95</f>
-        <v>3.925421744735921</v>
+      <c r="G13" s="79" t="s">
+        <v>425</v>
       </c>
       <c r="H13" s="20"/>
       <c r="J13" s="18">
@@ -7389,10 +7395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7680,6 +7686,18 @@
       </c>
       <c r="Z6">
         <v>1.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="P7">
+        <v>1.96</v>
+      </c>
+      <c r="S7" s="5">
+        <v>6.0837500000000003E-2</v>
+      </c>
+      <c r="W7" s="7">
+        <f>P7/S7</f>
+        <v>32.216971440312307</v>
       </c>
     </row>
   </sheetData>
@@ -9181,6 +9199,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U2:V2"/>
@@ -9189,12 +9213,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="427">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -846,11 +846,6 @@
   </si>
   <si>
     <t>1资本投入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流动资产
-流动资产减所有负债和优先级高于该证券的权益</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2084,6 +2079,19 @@
   </si>
   <si>
     <t>永安药业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>济川药业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动资产
+流动资产减所有负债和优先级高于该证券的权益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长估值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2230,7 +2238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2413,6 +2421,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2649,11 +2660,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="296652152"/>
-        <c:axId val="295727104"/>
+        <c:axId val="234981688"/>
+        <c:axId val="234984120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="296652152"/>
+        <c:axId val="234981688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,7 +2707,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295727104"/>
+        <c:crossAx val="234984120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2704,7 +2715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295727104"/>
+        <c:axId val="234984120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,7 +2752,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296652152"/>
+        <c:crossAx val="234981688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3007,11 +3018,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="295727888"/>
-        <c:axId val="295728280"/>
+        <c:axId val="143089120"/>
+        <c:axId val="143516328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295727888"/>
+        <c:axId val="143089120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +3062,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295728280"/>
+        <c:crossAx val="143516328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3059,7 +3070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295728280"/>
+        <c:axId val="143516328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3107,7 +3118,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295727888"/>
+        <c:crossAx val="143089120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4426,7 +4437,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4464,7 +4475,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6834,8 +6845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6878,12 +6889,12 @@
       <c r="N1" s="73"/>
       <c r="O1" s="73"/>
       <c r="P1" s="73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q1" s="73"/>
       <c r="R1" s="73"/>
       <c r="S1" s="73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T1" s="73"/>
       <c r="U1" s="73"/>
@@ -6897,10 +6908,10 @@
         <v>79</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>194</v>
@@ -6909,7 +6920,7 @@
         <v>80</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G2" s="73"/>
       <c r="H2" s="73"/>
@@ -6917,10 +6928,10 @@
         <v>81</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>84</v>
@@ -6941,7 +6952,7 @@
         <v>97</v>
       </c>
       <c r="R2" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>99</v>
@@ -6950,10 +6961,10 @@
         <v>100</v>
       </c>
       <c r="U2" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="V2" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -6961,28 +6972,30 @@
     </row>
     <row r="3" spans="1:25" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" s="72"/>
       <c r="F3" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="H3" s="42"/>
+        <v>412</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>426</v>
+      </c>
       <c r="K3" s="72" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L3" s="72"/>
       <c r="M3" s="72"/>
       <c r="N3" s="72"/>
       <c r="O3" s="72"/>
       <c r="P3" s="72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q3" s="73"/>
       <c r="R3" s="73"/>
@@ -7008,7 +7021,7 @@
     </row>
     <row r="5" spans="1:25" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="32">
         <f>(12.3-0.76)/2.43</f>
@@ -7035,21 +7048,21 @@
         <v>1.2235244872331519</v>
       </c>
       <c r="R5" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="S5" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="S5" s="45" t="s">
-        <v>216</v>
-      </c>
       <c r="T5" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U5" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="33">
         <f>(64.19-8.12-1.98)/10.75</f>
@@ -7070,7 +7083,7 @@
     </row>
     <row r="7" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="32">
         <f>(39.49-7.59)/11.61</f>
@@ -7099,7 +7112,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="33">
         <f>(30.56-2.27)/22.78</f>
@@ -7113,7 +7126,7 @@
     </row>
     <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" s="32">
         <f>(51122-7348)/11200</f>
@@ -7150,7 +7163,7 @@
     </row>
     <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="33">
         <f>(140755-37289-28391)/40362</f>
@@ -7177,12 +7190,12 @@
         <v>1.6239335428828019</v>
       </c>
       <c r="R10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B11" s="32">
         <f>(33.63-4.18)/9.08</f>
@@ -7212,7 +7225,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B12" s="33">
         <f>(113.17-4.6)/11.687</f>
@@ -7242,7 +7255,7 @@
     </row>
     <row r="13" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" s="32">
         <f>(15.54-0.89)/2.95</f>
@@ -7281,7 +7294,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B14" s="7">
         <f>(22.44-0.39)/3.13</f>
@@ -7308,7 +7321,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B15" s="33">
         <f>(197.69-21.02)/40.78</f>
@@ -7339,8 +7352,41 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>424</v>
+      </c>
+      <c r="B16" s="33">
+        <f>84.79/8.1481</f>
+        <v>10.406106945177404</v>
+      </c>
       <c r="E16" s="61"/>
       <c r="F16" s="61"/>
+      <c r="G16">
+        <f>16.16/(0.018*0.33+0.03289*0.67)</f>
+        <v>577.63178118621829</v>
+      </c>
+      <c r="H16">
+        <f>16.16*(8.5+2*10)</f>
+        <v>460.56</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="O16" s="7">
+        <f>1139/15</f>
+        <v>75.933333333333337</v>
+      </c>
+      <c r="P16" s="7">
+        <f>42.89/18.45</f>
+        <v>2.3246612466124663</v>
+      </c>
+      <c r="Q16" s="7">
+        <f>(42.89-2.37)/18.44</f>
+        <v>2.1973969631236443</v>
+      </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E17" s="7"/>
@@ -7391,8 +7437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7417,7 +7463,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="75" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -7433,7 +7479,7 @@
       <c r="N1" s="75"/>
       <c r="O1" s="75"/>
       <c r="P1" s="75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q1" s="75"/>
       <c r="R1" s="75"/>
@@ -7443,10 +7489,10 @@
       <c r="V1" s="75"/>
       <c r="W1" s="75"/>
       <c r="X1" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y1" s="74" t="s">
         <v>400</v>
-      </c>
-      <c r="Y1" s="74" t="s">
-        <v>401</v>
       </c>
       <c r="Z1" s="74"/>
       <c r="AA1" s="74"/>
@@ -7457,19 +7503,19 @@
     </row>
     <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
       <c r="F2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H2" s="76" t="s">
         <v>384</v>
-      </c>
-      <c r="G2" t="s">
-        <v>383</v>
-      </c>
-      <c r="H2" s="76" t="s">
-        <v>385</v>
       </c>
       <c r="I2" s="76"/>
       <c r="J2" s="76"/>
@@ -7478,33 +7524,33 @@
       <c r="M2" s="76"/>
       <c r="N2" s="76"/>
       <c r="O2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R2" s="47" t="s">
         <v>416</v>
-      </c>
-      <c r="R2" s="47" t="s">
-        <v>417</v>
       </c>
       <c r="S2" s="47"/>
       <c r="T2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y2" s="76" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Z2" s="76"/>
       <c r="AA2" s="68"/>
       <c r="AB2" s="76" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AC2" s="76"/>
       <c r="AD2" s="76"/>
       <c r="AE2" s="69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7513,10 +7559,10 @@
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
       <c r="H3" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="I3" s="64" t="s">
         <v>394</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>395</v>
       </c>
       <c r="J3" s="68"/>
       <c r="K3" s="68"/>
@@ -7524,117 +7570,117 @@
       <c r="M3" s="68"/>
       <c r="N3" s="68"/>
       <c r="Q3" s="76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="R3" s="76"/>
       <c r="S3" s="69"/>
       <c r="T3" s="76" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U3" s="76"/>
       <c r="V3" s="69"/>
       <c r="Y3" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z3" t="s">
         <v>405</v>
       </c>
-      <c r="Z3" t="s">
-        <v>406</v>
-      </c>
       <c r="AA3" s="47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" t="s">
         <v>376</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>377</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>378</v>
       </c>
-      <c r="E4" t="s">
-        <v>379</v>
-      </c>
       <c r="F4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G4" t="s">
         <v>381</v>
       </c>
-      <c r="G4" t="s">
-        <v>382</v>
-      </c>
       <c r="H4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I4" t="s">
         <v>386</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" t="s">
+        <v>389</v>
+      </c>
+      <c r="L4" t="s">
+        <v>390</v>
+      </c>
+      <c r="M4" t="s">
+        <v>392</v>
+      </c>
+      <c r="N4" t="s">
+        <v>391</v>
+      </c>
+      <c r="O4" t="s">
         <v>387</v>
       </c>
-      <c r="J4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K4" t="s">
-        <v>390</v>
-      </c>
-      <c r="L4" t="s">
-        <v>391</v>
-      </c>
-      <c r="M4" t="s">
-        <v>393</v>
-      </c>
-      <c r="N4" t="s">
-        <v>392</v>
-      </c>
-      <c r="O4" t="s">
-        <v>388</v>
-      </c>
       <c r="P4" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q4" t="s">
         <v>397</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>398</v>
       </c>
-      <c r="R4" t="s">
-        <v>399</v>
-      </c>
       <c r="S4" s="47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T4" t="s">
+        <v>397</v>
+      </c>
+      <c r="U4" t="s">
         <v>398</v>
       </c>
-      <c r="U4" t="s">
-        <v>399</v>
-      </c>
       <c r="V4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Y4" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z4" t="s">
         <v>403</v>
       </c>
-      <c r="Z4" t="s">
-        <v>404</v>
-      </c>
       <c r="AA4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AB4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AC4" t="s">
         <v>408</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>409</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P5">
         <v>0.39</v>
@@ -7657,7 +7703,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P6" s="7">
         <f>1.96+0.653-0.1239+0.0779+0.045</f>
@@ -7749,13 +7795,13 @@
         <v>192</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G2" s="42" t="s">
         <v>93</v>
@@ -7785,15 +7831,15 @@
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" s="60" t="s">
         <v>284</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4">
         <v>237</v>
@@ -7811,10 +7857,10 @@
         <v>2912</v>
       </c>
       <c r="H4" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>282</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>283</v>
       </c>
       <c r="J4" s="5">
         <v>0.36759999999999998</v>
@@ -7834,7 +7880,7 @@
     </row>
     <row r="6" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B6">
         <v>746</v>
@@ -7852,7 +7898,7 @@
         <v>5719</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I6">
         <v>24</v>
@@ -7882,10 +7928,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7915,16 +7961,16 @@
   <sheetData>
     <row r="1" spans="1:25" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A1" s="55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="72"/>
       <c r="F1" s="72"/>
@@ -7932,140 +7978,140 @@
       <c r="H1" s="72"/>
       <c r="I1" s="72"/>
       <c r="J1" s="72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K1" s="72"/>
       <c r="L1" s="72"/>
       <c r="M1" s="72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N1" s="72"/>
       <c r="O1" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P1" s="72" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q1" s="72"/>
       <c r="R1" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S1" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T1" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U1" s="51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V1" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W1" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X1" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y1" s="54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>226</v>
-      </c>
       <c r="D3" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="G3" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="H3" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="I3" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="I3" s="47" t="s">
-        <v>233</v>
-      </c>
       <c r="J3" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K3" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="L3" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="L3" s="52" t="s">
-        <v>260</v>
-      </c>
       <c r="M3" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P3" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R3" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S3" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T3" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="U3" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="U3" s="47" t="s">
-        <v>263</v>
-      </c>
       <c r="V3" s="47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W3" s="47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X3" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y3" s="47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>276</v>
-      </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E4">
         <v>3.14</v>
@@ -8077,10 +8123,10 @@
         <v>127</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K4" s="5">
         <f>5484/93277</f>
@@ -8095,27 +8141,27 @@
         <v>0.14255091103965703</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="U4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y4" t="s">
         <v>290</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" t="s">
         <v>248</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>249</v>
-      </c>
-      <c r="C5" t="s">
-        <v>250</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="7">
@@ -8131,7 +8177,7 @@
         <v>2234</v>
       </c>
       <c r="J5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K5" s="50">
         <f>4645/116233</f>
@@ -8152,18 +8198,18 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="C6" s="47" t="s">
         <v>255</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>256</v>
       </c>
       <c r="E6">
         <v>4.32</v>
@@ -8175,7 +8221,7 @@
         <v>208</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K6" s="50">
         <f>2618/30796</f>
@@ -8191,11 +8237,17 @@
       </c>
       <c r="O6" s="47"/>
       <c r="Q6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R6" t="s">
-        <v>258</v>
-      </c>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A7" s="79">
+        <v>1</v>
+      </c>
+      <c r="B7" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8240,21 +8292,21 @@
   <sheetData>
     <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="77" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
@@ -8262,12 +8314,12 @@
       <c r="E3" s="73"/>
       <c r="F3" s="73"/>
       <c r="G3" s="73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H3" s="73"/>
       <c r="I3" s="73"/>
       <c r="J3" s="73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="73"/>
@@ -8276,7 +8328,7 @@
       <c r="O3" s="73"/>
       <c r="P3" s="73"/>
       <c r="Q3" s="73" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R3" s="73"/>
       <c r="S3" s="73"/>
@@ -8286,70 +8338,70 @@
     </row>
     <row r="4" spans="1:22" s="65" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>351</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="C4" s="65" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="D4" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="E4" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="F4" s="67" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="G4" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="F4" s="67" t="s">
-        <v>355</v>
-      </c>
-      <c r="G4" s="65" t="s">
+      <c r="H4" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="I4" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="I4" s="65" t="s">
-        <v>359</v>
-      </c>
       <c r="J4" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="K4" s="65" t="s">
         <v>361</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="L4" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="M4" s="65" t="s">
         <v>362</v>
       </c>
-      <c r="L4" s="67" t="s">
-        <v>374</v>
-      </c>
-      <c r="M4" s="65" t="s">
+      <c r="N4" s="65" t="s">
         <v>363</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="O4" s="65" t="s">
         <v>364</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="P4" s="65" t="s">
         <v>365</v>
       </c>
-      <c r="P4" s="65" t="s">
-        <v>366</v>
-      </c>
       <c r="Q4" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="R4" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="S4" s="65" t="s">
         <v>369</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="T4" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="T4" s="65" t="s">
+      <c r="U4" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="V4" s="65" t="s">
         <v>372</v>
-      </c>
-      <c r="V4" s="65" t="s">
-        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -8945,8 +8997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8973,10 +9025,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C1" s="73"/>
       <c r="D1" s="73"/>
@@ -8989,19 +9041,19 @@
       <c r="K1" s="73"/>
       <c r="L1" s="73"/>
       <c r="M1" s="73" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N1" s="73"/>
       <c r="O1" s="73"/>
       <c r="P1" s="72" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q1" s="72"/>
       <c r="R1" s="72"/>
       <c r="S1" s="72"/>
       <c r="T1" s="72"/>
       <c r="U1" s="72" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V1" s="72"/>
       <c r="W1" s="72"/>
@@ -9011,21 +9063,21 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B2" s="76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F2" s="76"/>
       <c r="G2" s="76"/>
       <c r="H2" s="76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I2" s="76"/>
       <c r="J2" s="76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K2" s="76"/>
       <c r="L2" s="76"/>
@@ -9033,128 +9085,128 @@
       <c r="N2" s="64"/>
       <c r="O2" s="63"/>
       <c r="P2" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="76"/>
       <c r="R2" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="S2" s="76" t="s">
         <v>298</v>
-      </c>
-      <c r="S2" s="76" t="s">
-        <v>299</v>
       </c>
       <c r="T2" s="76"/>
       <c r="U2" s="76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V2" s="76"/>
       <c r="W2" s="76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X2" s="76"/>
       <c r="Y2" s="76"/>
       <c r="Z2" s="76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA2" s="76"/>
     </row>
     <row r="3" spans="1:27" ht="189" x14ac:dyDescent="0.15">
       <c r="B3" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="D3" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="D3" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="G3" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>322</v>
-      </c>
       <c r="H3" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="I3" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="I3" s="47" t="s">
-        <v>325</v>
-      </c>
       <c r="J3" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="L3" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="K3" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>328</v>
-      </c>
       <c r="M3" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N3" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="O3" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="O3" s="47" t="s">
-        <v>332</v>
-      </c>
       <c r="P3" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q3" t="s">
         <v>295</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="R3" s="47" t="s">
-        <v>297</v>
-      </c>
       <c r="S3" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="T3" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="T3" s="47" t="s">
-        <v>301</v>
-      </c>
       <c r="U3" s="47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V3" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W3" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X3" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y3" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="Y3" s="47" t="s">
-        <v>311</v>
-      </c>
       <c r="Z3" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA3" s="47" t="s">
         <v>308</v>
-      </c>
-      <c r="AA3" s="47" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" t="s">
         <v>340</v>
-      </c>
-      <c r="C4" t="s">
-        <v>341</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P4" s="78" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="78"/>
       <c r="R4" s="78"/>
@@ -9167,20 +9219,26 @@
         <v>0.55737704918032782</v>
       </c>
       <c r="R5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S5">
         <v>234</v>
       </c>
       <c r="T5" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="V5" t="s">
         <v>342</v>
-      </c>
-      <c r="V5" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U2:V2"/>
@@ -9189,12 +9247,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="432">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -846,11 +846,6 @@
   </si>
   <si>
     <t>1资本投入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流动资产
-流动资产减所有负债和优先级高于该证券的权益</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2087,7 +2082,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>32.22-42.93</t>
+    <t>济川药业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动资产
+流动资产减所有负债和优先级高于该证券的权益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长估值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理效率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偿付比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润/利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存周转率（销售成本/平均库存）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款周转率（赊销销售额/平均应收账款）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2234,7 +2258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2403,6 +2427,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2417,9 +2450,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2656,11 +2686,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="140989760"/>
-        <c:axId val="140990144"/>
+        <c:axId val="140677912"/>
+        <c:axId val="140717104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140989760"/>
+        <c:axId val="140677912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2733,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140990144"/>
+        <c:crossAx val="140717104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2711,7 +2741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140990144"/>
+        <c:axId val="140717104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,7 +2778,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140989760"/>
+        <c:crossAx val="140677912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3014,11 +3044,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="140708960"/>
-        <c:axId val="140709344"/>
+        <c:axId val="141528368"/>
+        <c:axId val="141092920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140708960"/>
+        <c:axId val="141528368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3058,7 +3088,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140709344"/>
+        <c:crossAx val="141092920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3066,7 +3096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140709344"/>
+        <c:axId val="141092920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3114,7 +3144,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140708960"/>
+        <c:crossAx val="141528368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4433,7 +4463,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4471,7 +4501,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6839,10 +6869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6854,60 +6884,63 @@
     <col min="7" max="8" width="26.375" customWidth="1"/>
     <col min="9" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="16" max="16" width="15.25" customWidth="1"/>
-    <col min="17" max="17" width="15.5" customWidth="1"/>
-    <col min="18" max="18" width="24.125" customWidth="1"/>
-    <col min="19" max="19" width="22.625" customWidth="1"/>
-    <col min="20" max="20" width="24.5" customWidth="1"/>
-    <col min="21" max="21" width="26.625" customWidth="1"/>
-    <col min="22" max="23" width="21" customWidth="1"/>
+    <col min="19" max="19" width="15.25" customWidth="1"/>
+    <col min="20" max="20" width="15.5" customWidth="1"/>
+    <col min="21" max="21" width="24.125" customWidth="1"/>
+    <col min="22" max="22" width="22.625" customWidth="1"/>
+    <col min="23" max="23" width="24.5" customWidth="1"/>
+    <col min="24" max="24" width="26.625" customWidth="1"/>
+    <col min="25" max="26" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="72" t="s">
+    <row r="1" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73" t="s">
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73" t="s">
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="W1" s="73"/>
-    </row>
-    <row r="2" spans="1:25" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z1" s="76"/>
+    </row>
+    <row r="2" spans="1:28" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>194</v>
@@ -6915,19 +6948,19 @@
       <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="73" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="F2" s="76" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
       <c r="I2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>84</v>
@@ -6941,64 +6974,82 @@
       <c r="O2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="76" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="U2" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y2" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="F3" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="K3" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="72" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q3" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="R3" s="72" t="s">
+        <v>429</v>
+      </c>
+      <c r="S3" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="U2" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="V2" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="72"/>
-      <c r="F3" s="42" t="s">
-        <v>401</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="K3" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
       <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -7013,9 +7064,9 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="32">
         <f>(12.3-0.76)/2.43</f>
@@ -7033,30 +7084,33 @@
         <f>208/17</f>
         <v>12.235294117647058</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="20">
         <f>33.29/23.89</f>
         <v>1.393470071159481</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="T5" s="20">
         <f>(33.28-4.05)/23.89</f>
         <v>1.2235244872331519</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="U5" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="V5" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="S5" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="T5" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="U5" s="45" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W5" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="X5" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="33">
         <f>(64.19-8.12-1.98)/10.75</f>
@@ -7074,10 +7128,13 @@
         <f>736/17</f>
         <v>43.294117647058826</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+    </row>
+    <row r="7" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="32">
         <f>(39.49-7.59)/11.61</f>
@@ -7095,18 +7152,21 @@
         <f>557/15</f>
         <v>37.133333333333333</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="20">
         <f>248655/31297</f>
         <v>7.9450107039013327</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="T7" s="20">
         <f>(248655-10356)/31297</f>
         <v>7.6141163689810529</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="33">
         <f>(30.56-2.27)/22.78</f>
@@ -7117,10 +7177,13 @@
         <v>1.071553994732221</v>
       </c>
       <c r="O8" s="33"/>
-    </row>
-    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+    </row>
+    <row r="9" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" s="32">
         <f>(51122-7348)/11200</f>
@@ -7146,18 +7209,21 @@
         <f>304/18</f>
         <v>16.888888888888889</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="20">
         <f>52367/28725</f>
         <v>1.8230461270670149</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="T9" s="20">
         <f>(52367-26519)/28725</f>
         <v>0.89984334203655347</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="33">
         <f>(140755-37289-28391)/40362</f>
@@ -7175,21 +7241,24 @@
       <c r="O10" s="33">
         <v>37.799999999999997</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="7">
         <f>181671/111350</f>
         <v>1.6315312079030084</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="T10" s="7">
         <f>(181671-846)/111350</f>
         <v>1.6239335428828019</v>
       </c>
-      <c r="R10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="U10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B11" s="32">
         <f>(33.63-4.18)/9.08</f>
@@ -7208,18 +7277,21 @@
         <f>407/12</f>
         <v>33.916666666666664</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="20">
         <f>35.64/34.01</f>
         <v>1.0479270802705087</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="T11" s="20">
         <f>(35.64-19.6)/34.01</f>
         <v>0.47162599235518965</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B12" s="33">
         <f>(113.17-4.6)/11.687</f>
@@ -7238,18 +7310,21 @@
         <f>936/32</f>
         <v>29.25</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="7">
         <f>246.35/174.58</f>
         <v>1.4111009279413449</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="T12" s="7">
         <f>(246.35-104.48)/174.58</f>
         <v>0.81263604078359486</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" s="32">
         <f>(15.54-0.89)/2.95</f>
@@ -7262,8 +7337,9 @@
         <f>NPV(5%,1.8,1.8,1.8,1.8,1.8)/2.95</f>
         <v>2.6417145786899914</v>
       </c>
-      <c r="G13" s="79" t="s">
-        <v>425</v>
+      <c r="G13" s="20">
+        <f>NPV(7%,2.13*1.1,2.13*1.1^2,2.13*1.1^3,2.13*1.1^4,2.13*1.1^5)/2.95</f>
+        <v>3.925421744735921</v>
       </c>
       <c r="H13" s="20"/>
       <c r="J13" s="18">
@@ -7276,18 +7352,21 @@
         <f>1389/17</f>
         <v>81.705882352941174</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="20">
         <f>7.37/2.66</f>
         <v>2.7706766917293231</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="T13" s="20">
         <f>(7.37-0.85)/2.66</f>
         <v>2.4511278195488724</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B14" s="7">
         <f>(22.44-0.39)/3.13</f>
@@ -7303,18 +7382,18 @@
         <f>711/12</f>
         <v>59.25</v>
       </c>
-      <c r="P14" s="7">
+      <c r="S14" s="7">
         <f>18.06/2.39</f>
         <v>7.556485355648535</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="T14" s="7">
         <f>(18.06-1.07)/2.39</f>
         <v>7.1087866108786599</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B15" s="33">
         <f>(197.69-21.02)/40.78</f>
@@ -7335,18 +7414,58 @@
         <f>975/20</f>
         <v>48.75</v>
       </c>
-      <c r="P15" s="7">
+      <c r="S15" s="7">
         <f>115/16</f>
         <v>7.1875</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="T15" s="7">
         <f>(115-18)/16</f>
         <v>6.0625</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>424</v>
+      </c>
+      <c r="B16" s="33">
+        <f>84.79/8.1481</f>
+        <v>10.406106945177404</v>
+      </c>
       <c r="E16" s="61"/>
       <c r="F16" s="61"/>
+      <c r="G16">
+        <f>16.16/(0.018*0.33+0.03289*0.67)</f>
+        <v>577.63178118621829</v>
+      </c>
+      <c r="H16">
+        <f>16.16*(8.5+2*10)</f>
+        <v>460.56</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="O16" s="7">
+        <f>1139/15</f>
+        <v>75.933333333333337</v>
+      </c>
+      <c r="P16" s="7">
+        <v>3.57</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>2.78</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7">
+        <f>42.89/18.45</f>
+        <v>2.3246612466124663</v>
+      </c>
+      <c r="T16" s="7">
+        <f>(42.89-2.37)/18.44</f>
+        <v>2.1973969631236443</v>
+      </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E17" s="7"/>
@@ -7370,23 +7489,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="V1:X1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S5" r:id="rId1"/>
-    <hyperlink ref="T5" r:id="rId2"/>
-    <hyperlink ref="U5" r:id="rId3"/>
+    <hyperlink ref="V5" r:id="rId1"/>
+    <hyperlink ref="W5" r:id="rId2"/>
+    <hyperlink ref="X5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -7395,10 +7515,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7422,95 +7542,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
-        <v>375</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
+      <c r="B1" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
       <c r="X1" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y1" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="Y1" s="74" t="s">
-        <v>401</v>
-      </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
     </row>
     <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="75" t="s">
-        <v>380</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="B2" s="78" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H2" s="79" t="s">
         <v>384</v>
       </c>
-      <c r="G2" t="s">
-        <v>383</v>
-      </c>
-      <c r="H2" s="76" t="s">
-        <v>385</v>
-      </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
       <c r="O2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q2" t="s">
+        <v>415</v>
+      </c>
+      <c r="R2" s="47" t="s">
         <v>416</v>
-      </c>
-      <c r="R2" s="47" t="s">
-        <v>417</v>
       </c>
       <c r="S2" s="47"/>
       <c r="T2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U2" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y2" s="79" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="69" t="s">
         <v>418</v>
-      </c>
-      <c r="Y2" s="76" t="s">
-        <v>402</v>
-      </c>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="76" t="s">
-        <v>407</v>
-      </c>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="69" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7519,128 +7639,128 @@
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
       <c r="H3" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="I3" s="64" t="s">
         <v>394</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>395</v>
       </c>
       <c r="J3" s="68"/>
       <c r="K3" s="68"/>
       <c r="L3" s="68"/>
       <c r="M3" s="68"/>
       <c r="N3" s="68"/>
-      <c r="Q3" s="76" t="s">
+      <c r="Q3" s="79" t="s">
+        <v>413</v>
+      </c>
+      <c r="R3" s="79"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="79" t="s">
         <v>414</v>
       </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="76" t="s">
-        <v>415</v>
-      </c>
-      <c r="U3" s="76"/>
+      <c r="U3" s="79"/>
       <c r="V3" s="69"/>
       <c r="Y3" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z3" t="s">
         <v>405</v>
       </c>
-      <c r="Z3" t="s">
-        <v>406</v>
-      </c>
       <c r="AA3" s="47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" t="s">
         <v>376</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>377</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>378</v>
       </c>
-      <c r="E4" t="s">
-        <v>379</v>
-      </c>
       <c r="F4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G4" t="s">
         <v>381</v>
       </c>
-      <c r="G4" t="s">
-        <v>382</v>
-      </c>
       <c r="H4" t="s">
+        <v>385</v>
+      </c>
+      <c r="I4" t="s">
         <v>386</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" t="s">
+        <v>389</v>
+      </c>
+      <c r="L4" t="s">
+        <v>390</v>
+      </c>
+      <c r="M4" t="s">
+        <v>392</v>
+      </c>
+      <c r="N4" t="s">
+        <v>391</v>
+      </c>
+      <c r="O4" t="s">
         <v>387</v>
       </c>
-      <c r="J4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K4" t="s">
-        <v>390</v>
-      </c>
-      <c r="L4" t="s">
-        <v>391</v>
-      </c>
-      <c r="M4" t="s">
-        <v>393</v>
-      </c>
-      <c r="N4" t="s">
-        <v>392</v>
-      </c>
-      <c r="O4" t="s">
-        <v>388</v>
-      </c>
       <c r="P4" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q4" t="s">
         <v>397</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>398</v>
       </c>
-      <c r="R4" t="s">
-        <v>399</v>
-      </c>
       <c r="S4" s="47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T4" t="s">
+        <v>397</v>
+      </c>
+      <c r="U4" t="s">
         <v>398</v>
       </c>
-      <c r="U4" t="s">
-        <v>399</v>
-      </c>
       <c r="V4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Y4" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z4" t="s">
         <v>403</v>
       </c>
-      <c r="Z4" t="s">
-        <v>404</v>
-      </c>
       <c r="AA4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AB4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AC4" t="s">
         <v>408</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>409</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P5">
         <v>0.39</v>
@@ -7663,7 +7783,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P6" s="7">
         <f>1.96+0.653-0.1239+0.0779+0.045</f>
@@ -7686,18 +7806,6 @@
       </c>
       <c r="Z6">
         <v>1.97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="P7">
-        <v>1.96</v>
-      </c>
-      <c r="S7" s="5">
-        <v>6.0837500000000003E-2</v>
-      </c>
-      <c r="W7" s="7">
-        <f>P7/S7</f>
-        <v>32.216971440312307</v>
       </c>
     </row>
   </sheetData>
@@ -7739,22 +7847,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73" t="s">
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -7767,13 +7875,13 @@
         <v>192</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G2" s="42" t="s">
         <v>93</v>
@@ -7784,10 +7892,10 @@
       <c r="I2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="72"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="42" t="s">
         <v>116</v>
       </c>
@@ -7803,15 +7911,15 @@
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" s="60" t="s">
         <v>284</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4">
         <v>237</v>
@@ -7829,10 +7937,10 @@
         <v>2912</v>
       </c>
       <c r="H4" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>282</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>283</v>
       </c>
       <c r="J4" s="5">
         <v>0.36759999999999998</v>
@@ -7852,7 +7960,7 @@
     </row>
     <row r="6" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B6">
         <v>746</v>
@@ -7870,7 +7978,7 @@
         <v>5719</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I6">
         <v>24</v>
@@ -7900,10 +8008,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7933,157 +8041,157 @@
   <sheetData>
     <row r="1" spans="1:25" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A1" s="55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72" t="s">
-        <v>234</v>
-      </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="N1" s="72"/>
+        <v>252</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" s="75"/>
       <c r="O1" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="P1" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q1" s="72"/>
+        <v>238</v>
+      </c>
+      <c r="P1" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q1" s="75"/>
       <c r="R1" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S1" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T1" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U1" s="51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V1" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W1" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X1" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y1" s="54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>226</v>
-      </c>
       <c r="D3" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="G3" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="H3" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="I3" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="I3" s="47" t="s">
-        <v>233</v>
-      </c>
       <c r="J3" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K3" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="L3" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="L3" s="52" t="s">
-        <v>260</v>
-      </c>
       <c r="M3" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P3" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R3" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S3" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T3" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="U3" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="U3" s="47" t="s">
-        <v>263</v>
-      </c>
       <c r="V3" s="47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W3" s="47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X3" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y3" s="47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>276</v>
-      </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E4">
         <v>3.14</v>
@@ -8095,10 +8203,10 @@
         <v>127</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K4" s="5">
         <f>5484/93277</f>
@@ -8113,27 +8221,27 @@
         <v>0.14255091103965703</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="U4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y4" t="s">
         <v>290</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" t="s">
         <v>248</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>249</v>
-      </c>
-      <c r="C5" t="s">
-        <v>250</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="7">
@@ -8149,7 +8257,7 @@
         <v>2234</v>
       </c>
       <c r="J5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K5" s="50">
         <f>4645/116233</f>
@@ -8170,18 +8278,18 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="C6" s="47" t="s">
         <v>255</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>256</v>
       </c>
       <c r="E6">
         <v>4.32</v>
@@ -8193,7 +8301,7 @@
         <v>208</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K6" s="50">
         <f>2618/30796</f>
@@ -8209,11 +8317,17 @@
       </c>
       <c r="O6" s="47"/>
       <c r="Q6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R6" t="s">
-        <v>258</v>
-      </c>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A7" s="74">
+        <v>1</v>
+      </c>
+      <c r="B7" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8258,116 +8372,116 @@
   <sheetData>
     <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="73" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76" t="s">
         <v>348</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73" t="s">
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76" t="s">
         <v>349</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73" t="s">
-        <v>350</v>
-      </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73" t="s">
-        <v>367</v>
-      </c>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76" t="s">
+        <v>366</v>
+      </c>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
     </row>
     <row r="4" spans="1:22" s="65" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>351</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="C4" s="65" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="D4" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="E4" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="F4" s="67" t="s">
         <v>354</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="G4" s="65" t="s">
         <v>356</v>
       </c>
-      <c r="F4" s="67" t="s">
-        <v>355</v>
-      </c>
-      <c r="G4" s="65" t="s">
+      <c r="H4" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="I4" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="I4" s="65" t="s">
-        <v>359</v>
-      </c>
       <c r="J4" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="K4" s="65" t="s">
         <v>361</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="L4" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="M4" s="65" t="s">
         <v>362</v>
       </c>
-      <c r="L4" s="67" t="s">
-        <v>374</v>
-      </c>
-      <c r="M4" s="65" t="s">
+      <c r="N4" s="65" t="s">
         <v>363</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="O4" s="65" t="s">
         <v>364</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="P4" s="65" t="s">
         <v>365</v>
       </c>
-      <c r="P4" s="65" t="s">
-        <v>366</v>
-      </c>
       <c r="Q4" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="R4" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="S4" s="65" t="s">
         <v>369</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="T4" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="T4" s="65" t="s">
+      <c r="U4" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="V4" s="65" t="s">
         <v>372</v>
-      </c>
-      <c r="V4" s="65" t="s">
-        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -8964,7 +9078,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8991,193 +9105,193 @@
   <sheetData>
     <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73" t="s">
-        <v>330</v>
-      </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="72" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72" t="s">
-        <v>305</v>
-      </c>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
+        <v>337</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B2" s="76" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76" t="s">
-        <v>317</v>
-      </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76" t="s">
-        <v>323</v>
-      </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76" t="s">
-        <v>326</v>
-      </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
+      <c r="B2" s="79" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79" t="s">
+        <v>322</v>
+      </c>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
       <c r="M2" s="63"/>
       <c r="N2" s="64"/>
       <c r="O2" s="63"/>
-      <c r="P2" s="76" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q2" s="76"/>
+      <c r="P2" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q2" s="79"/>
       <c r="R2" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="S2" s="79" t="s">
         <v>298</v>
       </c>
-      <c r="S2" s="76" t="s">
-        <v>299</v>
-      </c>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76" t="s">
-        <v>312</v>
-      </c>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76" t="s">
+      <c r="T2" s="79"/>
+      <c r="U2" s="79" t="s">
+        <v>311</v>
+      </c>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA2" s="76"/>
+      <c r="AA2" s="79"/>
     </row>
     <row r="3" spans="1:27" ht="189" x14ac:dyDescent="0.15">
       <c r="B3" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="D3" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="D3" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="G3" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>322</v>
-      </c>
       <c r="H3" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="I3" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="I3" s="47" t="s">
-        <v>325</v>
-      </c>
       <c r="J3" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="L3" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="K3" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>328</v>
-      </c>
       <c r="M3" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N3" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="O3" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="O3" s="47" t="s">
-        <v>332</v>
-      </c>
       <c r="P3" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q3" t="s">
         <v>295</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="R3" s="47" t="s">
-        <v>297</v>
-      </c>
       <c r="S3" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="T3" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="T3" s="47" t="s">
-        <v>301</v>
-      </c>
       <c r="U3" s="47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V3" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W3" s="47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X3" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y3" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="Y3" s="47" t="s">
-        <v>311</v>
-      </c>
       <c r="Z3" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA3" s="47" t="s">
         <v>308</v>
-      </c>
-      <c r="AA3" s="47" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" t="s">
         <v>340</v>
-      </c>
-      <c r="C4" t="s">
-        <v>341</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>340</v>
-      </c>
-      <c r="P4" s="78" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
+        <v>339</v>
+      </c>
+      <c r="P4" s="81" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="P5" s="5">
@@ -9185,26 +9299,20 @@
         <v>0.55737704918032782</v>
       </c>
       <c r="R5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S5">
         <v>234</v>
       </c>
       <c r="T5" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="V5" t="s">
         <v>342</v>
-      </c>
-      <c r="V5" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U2:V2"/>
@@ -9213,6 +9321,12 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="432">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2092,6 +2092,26 @@
   </si>
   <si>
     <t>成长估值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理效率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偿付比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润/利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存周转率（销售成本/平均库存）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款周转率（赊销销售额/平均应收账款）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2238,7 +2258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2407,6 +2427,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2421,9 +2450,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2660,11 +2686,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="234981688"/>
-        <c:axId val="234984120"/>
+        <c:axId val="140677912"/>
+        <c:axId val="140717104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="234981688"/>
+        <c:axId val="140677912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2707,7 +2733,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234984120"/>
+        <c:crossAx val="140717104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2715,7 +2741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234984120"/>
+        <c:axId val="140717104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,7 +2778,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234981688"/>
+        <c:crossAx val="140677912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3018,11 +3044,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="143089120"/>
-        <c:axId val="143516328"/>
+        <c:axId val="141528368"/>
+        <c:axId val="141092920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143089120"/>
+        <c:axId val="141528368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3062,7 +3088,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143516328"/>
+        <c:crossAx val="141092920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3070,7 +3096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143516328"/>
+        <c:axId val="141092920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3118,7 +3144,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143089120"/>
+        <c:crossAx val="141528368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4437,7 +4463,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4475,7 +4501,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6843,10 +6869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6858,52 +6884,55 @@
     <col min="7" max="8" width="26.375" customWidth="1"/>
     <col min="9" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="16" max="16" width="15.25" customWidth="1"/>
-    <col min="17" max="17" width="15.5" customWidth="1"/>
-    <col min="18" max="18" width="24.125" customWidth="1"/>
-    <col min="19" max="19" width="22.625" customWidth="1"/>
-    <col min="20" max="20" width="24.5" customWidth="1"/>
-    <col min="21" max="21" width="26.625" customWidth="1"/>
-    <col min="22" max="23" width="21" customWidth="1"/>
+    <col min="19" max="19" width="15.25" customWidth="1"/>
+    <col min="20" max="20" width="15.5" customWidth="1"/>
+    <col min="21" max="21" width="24.125" customWidth="1"/>
+    <col min="22" max="22" width="22.625" customWidth="1"/>
+    <col min="23" max="23" width="24.5" customWidth="1"/>
+    <col min="24" max="24" width="26.625" customWidth="1"/>
+    <col min="25" max="26" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="72" t="s">
+    <row r="1" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73" t="s">
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73" t="s">
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73" t="s">
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="W1" s="73"/>
-    </row>
-    <row r="2" spans="1:25" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z1" s="76"/>
+    </row>
+    <row r="2" spans="1:28" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -6919,11 +6948,11 @@
       <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="76" t="s">
         <v>344</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
       <c r="I2" s="1" t="s">
         <v>81</v>
       </c>
@@ -6945,39 +6974,46 @@
       <c r="O2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="76" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="U2" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="X2" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="Y2" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="72"/>
+      <c r="D3" s="75"/>
       <c r="F3" s="42" t="s">
         <v>400</v>
       </c>
@@ -6987,24 +7023,33 @@
       <c r="H3" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="72" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q3" s="72" t="s">
+        <v>431</v>
+      </c>
+      <c r="R3" s="72" t="s">
+        <v>429</v>
+      </c>
+      <c r="S3" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
       <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -7019,7 +7064,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>205</v>
       </c>
@@ -7039,28 +7084,31 @@
         <f>208/17</f>
         <v>12.235294117647058</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="20">
         <f>33.29/23.89</f>
         <v>1.393470071159481</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="T5" s="20">
         <f>(33.28-4.05)/23.89</f>
         <v>1.2235244872331519</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="U5" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="S5" s="45" t="s">
+      <c r="V5" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="T5" s="45" t="s">
+      <c r="W5" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="U5" s="45" t="s">
+      <c r="X5" s="45" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>206</v>
       </c>
@@ -7080,8 +7128,11 @@
         <f>736/17</f>
         <v>43.294117647058826</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+    </row>
+    <row r="7" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>207</v>
       </c>
@@ -7101,16 +7152,19 @@
         <f>557/15</f>
         <v>37.133333333333333</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="20">
         <f>248655/31297</f>
         <v>7.9450107039013327</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="T7" s="20">
         <f>(248655-10356)/31297</f>
         <v>7.6141163689810529</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -7123,8 +7177,11 @@
         <v>1.071553994732221</v>
       </c>
       <c r="O8" s="33"/>
-    </row>
-    <row r="9" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+    </row>
+    <row r="9" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>216</v>
       </c>
@@ -7152,16 +7209,19 @@
         <f>304/18</f>
         <v>16.888888888888889</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="20">
         <f>52367/28725</f>
         <v>1.8230461270670149</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="T9" s="20">
         <f>(52367-26519)/28725</f>
         <v>0.89984334203655347</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>220</v>
       </c>
@@ -7181,19 +7241,22 @@
       <c r="O10" s="33">
         <v>37.799999999999997</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="7">
         <f>181671/111350</f>
         <v>1.6315312079030084</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="T10" s="7">
         <f>(181671-846)/111350</f>
         <v>1.6239335428828019</v>
       </c>
-      <c r="R10" t="s">
+      <c r="U10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>272</v>
       </c>
@@ -7214,16 +7277,19 @@
         <f>407/12</f>
         <v>33.916666666666664</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="20">
         <f>35.64/34.01</f>
         <v>1.0479270802705087</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="T11" s="20">
         <f>(35.64-19.6)/34.01</f>
         <v>0.47162599235518965</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>273</v>
       </c>
@@ -7244,16 +7310,19 @@
         <f>936/32</f>
         <v>29.25</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="7">
         <f>246.35/174.58</f>
         <v>1.4111009279413449</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="T12" s="7">
         <f>(246.35-104.48)/174.58</f>
         <v>0.81263604078359486</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>285</v>
       </c>
@@ -7283,16 +7352,19 @@
         <f>1389/17</f>
         <v>81.705882352941174</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="20">
         <f>7.37/2.66</f>
         <v>2.7706766917293231</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="T13" s="20">
         <f>(7.37-0.85)/2.66</f>
         <v>2.4511278195488724</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>291</v>
       </c>
@@ -7310,16 +7382,16 @@
         <f>711/12</f>
         <v>59.25</v>
       </c>
-      <c r="P14" s="7">
+      <c r="S14" s="7">
         <f>18.06/2.39</f>
         <v>7.556485355648535</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="T14" s="7">
         <f>(18.06-1.07)/2.39</f>
         <v>7.1087866108786599</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
         <v>343</v>
       </c>
@@ -7342,16 +7414,16 @@
         <f>975/20</f>
         <v>48.75</v>
       </c>
-      <c r="P15" s="7">
+      <c r="S15" s="7">
         <f>115/16</f>
         <v>7.1875</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="T15" s="7">
         <f>(115-18)/16</f>
         <v>6.0625</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>424</v>
       </c>
@@ -7380,10 +7452,17 @@
         <v>75.933333333333337</v>
       </c>
       <c r="P16" s="7">
+        <v>3.57</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>2.78</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7">
         <f>42.89/18.45</f>
         <v>2.3246612466124663</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="T16" s="7">
         <f>(42.89-2.37)/18.44</f>
         <v>2.1973969631236443</v>
       </c>
@@ -7410,23 +7489,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="V1:X1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S5" r:id="rId1"/>
-    <hyperlink ref="T5" r:id="rId2"/>
-    <hyperlink ref="U5" r:id="rId3"/>
+    <hyperlink ref="V5" r:id="rId1"/>
+    <hyperlink ref="W5" r:id="rId2"/>
+    <hyperlink ref="X5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -7437,8 +7517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7462,67 +7542,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78" t="s">
         <v>395</v>
       </c>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
       <c r="X1" s="70" t="s">
         <v>399</v>
       </c>
-      <c r="Y1" s="74" t="s">
+      <c r="Y1" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
     </row>
     <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" t="s">
         <v>383</v>
       </c>
       <c r="G2" t="s">
         <v>382</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="79" t="s">
         <v>384</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
       <c r="O2" t="s">
         <v>388</v>
       </c>
@@ -7539,16 +7619,16 @@
       <c r="U2" t="s">
         <v>417</v>
       </c>
-      <c r="Y2" s="76" t="s">
+      <c r="Y2" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="Z2" s="76"/>
+      <c r="Z2" s="79"/>
       <c r="AA2" s="68"/>
-      <c r="AB2" s="76" t="s">
+      <c r="AB2" s="79" t="s">
         <v>406</v>
       </c>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
       <c r="AE2" s="69" t="s">
         <v>418</v>
       </c>
@@ -7569,15 +7649,15 @@
       <c r="L3" s="68"/>
       <c r="M3" s="68"/>
       <c r="N3" s="68"/>
-      <c r="Q3" s="76" t="s">
+      <c r="Q3" s="79" t="s">
         <v>413</v>
       </c>
-      <c r="R3" s="76"/>
+      <c r="R3" s="79"/>
       <c r="S3" s="69"/>
-      <c r="T3" s="76" t="s">
+      <c r="T3" s="79" t="s">
         <v>414</v>
       </c>
-      <c r="U3" s="76"/>
+      <c r="U3" s="79"/>
       <c r="V3" s="69"/>
       <c r="Y3" t="s">
         <v>404</v>
@@ -7767,22 +7847,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73" t="s">
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -7812,10 +7892,10 @@
       <c r="I2" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="72"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="42" t="s">
         <v>116</v>
       </c>
@@ -7969,30 +8049,30 @@
       <c r="C1" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72" t="s">
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="72"/>
+      <c r="N1" s="75"/>
       <c r="O1" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="P1" s="72" t="s">
+      <c r="P1" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" s="72"/>
+      <c r="Q1" s="75"/>
       <c r="R1" s="49" t="s">
         <v>243</v>
       </c>
@@ -8244,7 +8324,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="79">
+      <c r="A7" s="74">
         <v>1</v>
       </c>
       <c r="B7" s="47"/>
@@ -8298,43 +8378,43 @@
       <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="76" t="s">
         <v>347</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76" t="s">
         <v>348</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73" t="s">
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76" t="s">
         <v>349</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76" t="s">
         <v>366</v>
       </c>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
     </row>
     <row r="4" spans="1:22" s="65" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="65" t="s">
@@ -8997,7 +9077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
@@ -9027,87 +9107,87 @@
       <c r="A1" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="76" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76" t="s">
         <v>329</v>
       </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="72" t="s">
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="75" t="s">
         <v>302</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72" t="s">
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="79" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79" t="s">
         <v>316</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79" t="s">
         <v>322</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="79" t="s">
         <v>325</v>
       </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
       <c r="M2" s="63"/>
       <c r="N2" s="64"/>
       <c r="O2" s="63"/>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="Q2" s="76"/>
+      <c r="Q2" s="79"/>
       <c r="R2" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="S2" s="76" t="s">
+      <c r="S2" s="79" t="s">
         <v>298</v>
       </c>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76" t="s">
+      <c r="T2" s="79"/>
+      <c r="U2" s="79" t="s">
         <v>311</v>
       </c>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76" t="s">
+      <c r="V2" s="79"/>
+      <c r="W2" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76" t="s">
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="AA2" s="76"/>
+      <c r="AA2" s="79"/>
     </row>
     <row r="3" spans="1:27" ht="189" x14ac:dyDescent="0.15">
       <c r="B3" s="47" t="s">
@@ -9205,13 +9285,13 @@
       <c r="J4" t="s">
         <v>339</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="81" t="s">
         <v>301</v>
       </c>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="P5" s="5">
@@ -9233,12 +9313,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U2:V2"/>
@@ -9247,6 +9321,12 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,11 @@
     <sheet name="公司分析" sheetId="22" r:id="rId6"/>
     <sheet name="债券选择原则-H" sheetId="16" r:id="rId7"/>
     <sheet name="保守型投资要素" sheetId="21" r:id="rId8"/>
+    <sheet name="公司比较" sheetId="24" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="463">
   <si>
     <t>大商股份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1951,6 +1952,143 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>现金流折现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBITDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除税务和利息前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上折旧和摊销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金流变量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资本性支出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远期现金流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所估计最后一年的现金流乘以一个因子
+这个因子由增长率和资本成本的关系决定,其值等于1除以二者之差
+例如：资本成本10%，成长率5%，这个因子等于20（1/(10%-5%))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈余估值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WACC(加权平均资本成本)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPM（资产定价模型)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期国债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">参照标准，资本市场上其他参与者为风险类似的
+企业融资项目会给投资者多少股权回报，以
+吸引股权投资
+例如，高风险投资项目股权成本，可以咨询类似企业给
+风险投资开出的回报条件。风险较低的企业，可将二次
+发行股票的蓝筹企业作为参照
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险溢价乘以beta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折现率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照盈余估值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折现率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波精达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>估值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永安药业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>济川药业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动资产
+流动资产减所有负债和优先级高于该证券的权益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长估值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理效率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偿付比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润/利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存周转率（销售成本/平均库存）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款周转率（赊销销售额/平均应收账款）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1973,145 +2111,133 @@
       </rPr>
       <t xml:space="preserve">
 V=D1/(k-g)
-现时盈余公式中分母减去增长率g</t>
+现时盈余公式中分母减去增长率g
+v = D1*(8.5+2*g)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>现金流折现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBITDA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣除税务和利息前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加上折旧和摊销</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金流变量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资本性支出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>远期现金流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所估计最后一年的现金流乘以一个因子
-这个因子由增长率和资本成本的关系决定,其值等于1除以二者之差
-例如：资本成本10%，成长率5%，这个因子等于20（1/(10%-5%))</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈余估值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WACC(加权平均资本成本)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAPM（资产定价模型)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长期国债</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">参照标准，资本市场上其他参与者为风险类似的
-企业融资项目会给投资者多少股权回报，以
-吸引股权投资
-例如，高风险投资项目股权成本，可以咨询类似企业给
-风险投资开出的回报条件。风险较低的企业，可将二次
-发行股票的蓝筹企业作为参照
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险溢价乘以beta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>折现率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照盈余估值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>折现率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波精达</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>估值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>永安药业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>济川药业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流动资产
-流动资产减所有负债和优先级高于该证券的权益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成长估值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理效率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>偿付比率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>净利润/利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存周转率（销售成本/平均库存）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收款周转率（赊销销售额/平均应收账款）</t>
+    <t>普通股股份数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通股市值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资本总市值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股账面值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当期股息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次支付股息的时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市盈率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股价/账面值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股息收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净收入/销售额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润/账面值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动资产/流动负债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营运资本/债务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股收益增长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位(亿)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年每股收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年每股收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008年每股收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.23倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.62倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年比2013年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年比2008年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美盈森(2018.3季度)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双星新材（2018年全年）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.76倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.21倍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2119,10 +2245,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -2258,7 +2385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2451,6 +2578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2484,6 +2612,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2595,6 +2724,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2686,11 +2816,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="140677912"/>
-        <c:axId val="140717104"/>
+        <c:axId val="140112616"/>
+        <c:axId val="140113008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140677912"/>
+        <c:axId val="140112616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,7 +2863,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140717104"/>
+        <c:crossAx val="140113008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2741,7 +2871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140717104"/>
+        <c:axId val="140113008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2778,7 +2908,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140677912"/>
+        <c:crossAx val="140112616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2861,6 +2991,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2956,6 +3087,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3044,11 +3176,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="141528368"/>
-        <c:axId val="141092920"/>
+        <c:axId val="140113792"/>
+        <c:axId val="140114184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141528368"/>
+        <c:axId val="140113792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3088,7 +3220,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141092920"/>
+        <c:crossAx val="140114184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3096,7 +3228,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141092920"/>
+        <c:axId val="140114184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3144,7 +3276,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141528368"/>
+        <c:crossAx val="140113792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4463,7 +4595,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4501,7 +4633,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6871,7 +7003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
@@ -6940,7 +7072,7 @@
         <v>200</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>194</v>
@@ -6975,11 +7107,11 @@
         <v>87</v>
       </c>
       <c r="P2" s="76" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q2" s="76"/>
       <c r="R2" s="73" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>98</v>
@@ -7015,13 +7147,13 @@
       </c>
       <c r="D3" s="75"/>
       <c r="F3" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K3" s="75" t="s">
         <v>203</v>
@@ -7031,13 +7163,13 @@
       <c r="N3" s="75"/>
       <c r="O3" s="75"/>
       <c r="P3" s="72" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q3" s="72" t="s">
         <v>430</v>
       </c>
-      <c r="Q3" s="72" t="s">
-        <v>431</v>
-      </c>
       <c r="R3" s="72" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S3" s="75" t="s">
         <v>211</v>
@@ -7425,7 +7557,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B16" s="33">
         <f>84.79/8.1481</f>
@@ -7517,8 +7649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7569,10 +7701,10 @@
       <c r="V1" s="78"/>
       <c r="W1" s="78"/>
       <c r="X1" s="70" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y1" s="77" t="s">
         <v>399</v>
-      </c>
-      <c r="Y1" s="77" t="s">
-        <v>400</v>
       </c>
       <c r="Z1" s="77"/>
       <c r="AA1" s="77"/>
@@ -7607,30 +7739,30 @@
         <v>388</v>
       </c>
       <c r="Q2" t="s">
+        <v>414</v>
+      </c>
+      <c r="R2" s="47" t="s">
         <v>415</v>
-      </c>
-      <c r="R2" s="47" t="s">
-        <v>416</v>
       </c>
       <c r="S2" s="47"/>
       <c r="T2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Y2" s="79" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z2" s="79"/>
       <c r="AA2" s="68"/>
       <c r="AB2" s="79" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AC2" s="79"/>
       <c r="AD2" s="79"/>
       <c r="AE2" s="69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7650,26 +7782,26 @@
       <c r="M3" s="68"/>
       <c r="N3" s="68"/>
       <c r="Q3" s="79" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R3" s="79"/>
       <c r="S3" s="69"/>
       <c r="T3" s="79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U3" s="79"/>
       <c r="V3" s="69"/>
       <c r="Y3" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z3" t="s">
         <v>404</v>
       </c>
-      <c r="Z3" t="s">
-        <v>405</v>
-      </c>
       <c r="AA3" s="47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -7725,7 +7857,7 @@
         <v>398</v>
       </c>
       <c r="S4" s="47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="T4" t="s">
         <v>397</v>
@@ -7734,33 +7866,33 @@
         <v>398</v>
       </c>
       <c r="V4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y4" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z4" t="s">
         <v>402</v>
       </c>
-      <c r="Z4" t="s">
-        <v>403</v>
-      </c>
       <c r="AA4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC4" t="s">
         <v>407</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>408</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P5">
         <v>0.39</v>
@@ -7783,7 +7915,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P6" s="7">
         <f>1.96+0.653-0.1239+0.0779+0.045</f>
@@ -8010,7 +8142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -9077,8 +9209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9313,6 +9445,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U2:V2"/>
@@ -9321,15 +9459,305 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>6.4</v>
+      </c>
+      <c r="C2">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B3">
+        <v>11.56</v>
+      </c>
+      <c r="C3">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4">
+        <v>74</v>
+      </c>
+      <c r="C4">
+        <v>82.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="C5">
+        <v>17.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B6">
+        <f>B3+B5</f>
+        <v>27.57</v>
+      </c>
+      <c r="C6">
+        <f>C3+C5</f>
+        <v>32.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7">
+        <v>6.66</v>
+      </c>
+      <c r="C7">
+        <v>2.9270999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B8">
+        <v>38.58</v>
+      </c>
+      <c r="C8">
+        <v>32.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B9">
+        <v>2.6429999999999998</v>
+      </c>
+      <c r="C9">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B10">
+        <v>0.23</v>
+      </c>
+      <c r="C10">
+        <v>0.26450000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B11">
+        <v>0.16</v>
+      </c>
+      <c r="C11">
+        <v>0.45929999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B12">
+        <v>0.21</v>
+      </c>
+      <c r="C12">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B13">
+        <v>0.2</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="66" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16">
+        <v>23.03</v>
+      </c>
+      <c r="C16">
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>443</v>
+      </c>
+      <c r="B17" s="5">
+        <f>B2/B7</f>
+        <v>0.96096096096096095</v>
+      </c>
+      <c r="C17" s="5">
+        <f>C2/C7</f>
+        <v>1.8414130026305899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B18" s="5">
+        <f>B13/B2</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <f>C13/C2</f>
+        <v>3.7105751391465679E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>445</v>
+      </c>
+      <c r="B19" s="5">
+        <f>B9/B8</f>
+        <v>6.8506998444790038E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <f>C9/C8</f>
+        <v>0.1252693136349646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>446</v>
+      </c>
+      <c r="B20" s="5">
+        <f>B10/B7</f>
+        <v>3.4534534534534533E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <f>C10/C7</f>
+        <v>9.0362474804413936E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>447</v>
+      </c>
+      <c r="B21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>448</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>456</v>
+      </c>
+      <c r="C22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="66" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>457</v>
+      </c>
+      <c r="B24" s="5">
+        <f>(B10-B11)/B11</f>
+        <v>0.43750000000000006</v>
+      </c>
+      <c r="C24" s="5">
+        <f>(C10-C11)/C11</f>
+        <v>-0.424123666448944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>458</v>
+      </c>
+      <c r="B25" s="5">
+        <f>(B10-B12)/B12</f>
+        <v>9.523809523809533E-2</v>
+      </c>
+      <c r="C25" s="5">
+        <f>(C10-C12)/C12</f>
+        <v>-0.64686248331108143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="选股逻辑" sheetId="1" r:id="rId1"/>
-    <sheet name="资产负债表-低价股F" sheetId="14" r:id="rId2"/>
-    <sheet name="估值方法" sheetId="23" r:id="rId3"/>
-    <sheet name="损益表分析-收益股G" sheetId="15" r:id="rId4"/>
-    <sheet name="成长股十五原则" sheetId="17" r:id="rId5"/>
-    <sheet name="公司分析" sheetId="22" r:id="rId6"/>
-    <sheet name="债券选择原则-H" sheetId="16" r:id="rId7"/>
-    <sheet name="保守型投资要素" sheetId="21" r:id="rId8"/>
+    <sheet name="资产负债表-低价股F" sheetId="14" r:id="rId1"/>
+    <sheet name="估值方法" sheetId="23" r:id="rId2"/>
+    <sheet name="损益表分析-收益股G" sheetId="15" r:id="rId3"/>
+    <sheet name="成长股十五原则" sheetId="17" r:id="rId4"/>
+    <sheet name="公司分析" sheetId="22" r:id="rId5"/>
+    <sheet name="债券" sheetId="16" r:id="rId6"/>
+    <sheet name="保守型投资要素" sheetId="21" r:id="rId7"/>
+    <sheet name="报表调整" sheetId="28" r:id="rId8"/>
     <sheet name="公司比较" sheetId="24" r:id="rId9"/>
+    <sheet name="市场现状观察" sheetId="25" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,321 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="463">
-  <si>
-    <t>大商股份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零售</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大秦铁路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公路铁路运输</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>象屿股份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大东方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交运设备服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>茂业商业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超市以及百货零售批发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>华达科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车零部件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>煤炭开采</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳泉煤业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川成渝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公路铁路运输</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明泰铝业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有色冶炼加工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东高速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公路铁路运输</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁沪高速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>季报</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增持百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每股收益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>股本（亿）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="561">
   <si>
     <t>股价</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每股收益与市价比率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总资产收益率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>股息率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每股净资产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全边际价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全边际程度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业收入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业收入增长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业利润</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业利润增长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公路铁路运输</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海澜之家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服装家纺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>华光股份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电气设备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时代出版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传媒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海能源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>煤炭开采</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方大炭素（4.71）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业利润/营业收入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄂武商A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零售</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天神娱乐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传媒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>康欣新材</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装印刷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中牧股份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尖峰集团</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸿达兴业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础化学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉芳家化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>化学制品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周大生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家用轻工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>韵达股份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>房地产开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>华润三九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的集团</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色家电</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>东阿阿胶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌霄泵业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用设备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大嘉宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>华懋科技</t>
-  </si>
-  <si>
-    <t>汽车零部件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>股票名称</t>
@@ -830,20 +523,6 @@
     <t>现金资产
 现金资产减去所有负债和优先级高于该证券的权益</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选股逻辑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每股收益率&gt;7%</t>
-  </si>
-  <si>
-    <t>每股收益率&gt;7%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低价优质股</t>
   </si>
   <si>
     <t>1资本投入</t>
@@ -2240,18 +1919,701 @@
     <t>1.21倍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>长飞光纤(2018)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中天科技(2018)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.96(2014)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1(2018)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.462(2017年)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.564(2012年)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.538(2008年)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.44(2018年三季度）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.43（2017）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.43（2012）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0763（2008）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>济川药业（2018年三季度)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>康弘药业（2018年三季度)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94(2017)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.44(2012)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25(2009)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步长制药（2018年三季度)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.13(2017)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.79(2012)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股价增长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年比2012年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年比2008年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果标记大部分在左侧栏里，就要看紧自己的钱包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆滞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>积极</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消极</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急切</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谨慎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资本市场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽松</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧缩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短缺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>条款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>严格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐观/自信/渴望买入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲观/担忧/丧失兴趣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产持有人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐于持有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急于出手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥挤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急需关注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申购门槛高/每天都有新基金/普通合伙人全权管控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有人开放/只有最好的才能募集到资金/有限合伙人有议价能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期的回报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人群特征</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>积极进取/广泛投资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谨慎守纪/有选择的投资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>众泰汽车(2018年三季度)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪(2018年 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5年平均每股收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10年平均每股收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21国债(7)010107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>息票利率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清偿价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按半年期支付（请参见上面的信息）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以 30/360 为日计数基准（请参见上面的信息）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11海航02 122071</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YIELD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整资产负债表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币资金</t>
+  </si>
+  <si>
+    <t>金融资产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融负债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收票据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年内到期的非流动资产</t>
+  </si>
+  <si>
+    <t>可供出售金融资产</t>
+  </si>
+  <si>
+    <t>长期股权投资</t>
+  </si>
+  <si>
+    <t>短期借款</t>
+  </si>
+  <si>
+    <t>应付票据</t>
+  </si>
+  <si>
+    <t>应付短期债券</t>
+  </si>
+  <si>
+    <t>一年内到期的非流动负债</t>
+  </si>
+  <si>
+    <t>应付债券</t>
+  </si>
+  <si>
+    <t>经营资产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收利息</t>
+  </si>
+  <si>
+    <t>应收股利</t>
+  </si>
+  <si>
+    <t>预付款项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款（减坏账准备)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他应收款(减坏账准备)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货</t>
+  </si>
+  <si>
+    <t>持有待售的资产</t>
+  </si>
+  <si>
+    <t>其他流动资产</t>
+  </si>
+  <si>
+    <t>长期应收款</t>
+  </si>
+  <si>
+    <t>投资性房地产</t>
+  </si>
+  <si>
+    <t>固定资产</t>
+  </si>
+  <si>
+    <t>在建工程</t>
+  </si>
+  <si>
+    <t>无形资产</t>
+  </si>
+  <si>
+    <t>商誉</t>
+  </si>
+  <si>
+    <t>长期待摊费用</t>
+  </si>
+  <si>
+    <t>递延所得税资产</t>
+  </si>
+  <si>
+    <t>其他非流动资产</t>
+  </si>
+  <si>
+    <t>经营负债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款</t>
+  </si>
+  <si>
+    <t>预收款项</t>
+  </si>
+  <si>
+    <t>应付职工薪酬</t>
+  </si>
+  <si>
+    <t>应交税费</t>
+  </si>
+  <si>
+    <t>应付利息</t>
+  </si>
+  <si>
+    <t>其他流动负债</t>
+  </si>
+  <si>
+    <t>长期借款</t>
+  </si>
+  <si>
+    <t>长期应付款</t>
+  </si>
+  <si>
+    <t>递延收益</t>
+  </si>
+  <si>
+    <t>其他非流动负债</t>
+  </si>
+  <si>
+    <t>少数股东权益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属于母公司所有者权益合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以公允价值计量且其变动计入当期损益的金融资产</t>
+  </si>
+  <si>
+    <t>其他应付款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>损益表调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告的主营业务收入，减去包括在其中的所有利息收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业总成本-财务费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孚日股份（2017）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资收益</t>
+  </si>
+  <si>
+    <t>股权投资收益，即在子公司收益中所分享的份额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非持续经营项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计变更的累积影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营中的非正常利得和损失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非净盈余经营项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加：营业外收入-减：营业外支出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税前经营收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他收益+资产处置收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统报表中的所得税</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业收入-利息收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自净利息费用的税收收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统报表所得税/利润总额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利息费用*税率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税后经营收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税后净金融费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税前净利息费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税后净利息费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算税率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税前净利息费用*计算税率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债务重组利得和损失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融资产已实现利得和损失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非净盈余金融项目（包括优先股股利)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇兑损益+其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利息费用*（1-税率）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="186" formatCode="#,##0.000000_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2273,13 +2635,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2351,8 +2706,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2362,12 +2730,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2383,99 +2745,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2494,13 +2788,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2531,9 +2825,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2542,10 +2836,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2557,28 +2851,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2612,7 +2918,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2724,7 +3029,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2816,11 +3120,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="140112616"/>
-        <c:axId val="140113008"/>
+        <c:axId val="155499392"/>
+        <c:axId val="155503872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140112616"/>
+        <c:axId val="155499392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,7 +3167,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140113008"/>
+        <c:crossAx val="155503872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2871,7 +3175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140113008"/>
+        <c:axId val="155503872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +3212,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140112616"/>
+        <c:crossAx val="155499392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2991,7 +3295,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3087,7 +3390,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3176,11 +3478,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="140113792"/>
-        <c:axId val="140114184"/>
+        <c:axId val="155475104"/>
+        <c:axId val="155429000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140113792"/>
+        <c:axId val="155475104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3220,7 +3522,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140114184"/>
+        <c:crossAx val="155429000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3228,7 +3530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140114184"/>
+        <c:axId val="155429000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3276,7 +3578,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140113792"/>
+        <c:crossAx val="155475104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4595,7 +4897,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4633,7 +4935,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5066,1951 +5368,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="0.125" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9" style="5"/>
-    <col min="10" max="10" width="13.375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="33" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="5" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23">
-        <v>0.218</v>
-      </c>
-      <c r="E2" s="23">
-        <v>7.37</v>
-      </c>
-      <c r="F2" s="23">
-        <v>4.74</v>
-      </c>
-      <c r="G2" s="38">
-        <f t="shared" ref="G2:G18" si="0">D2*4/F2</f>
-        <v>0.18396624472573839</v>
-      </c>
-      <c r="H2" s="24">
-        <f>4.3*4%</f>
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="I2" s="24">
-        <f>0.15/F2</f>
-        <v>3.164556962025316E-2</v>
-      </c>
-      <c r="J2" s="31">
-        <v>3.94</v>
-      </c>
-      <c r="K2" s="31">
-        <f>D2*4/0.07*0.9</f>
-        <v>11.21142857142857</v>
-      </c>
-      <c r="L2" s="24">
-        <f t="shared" ref="L2:L7" si="1">(K2-F2)/F2</f>
-        <v>1.3652802893309219</v>
-      </c>
-      <c r="M2" s="25">
-        <v>24.57</v>
-      </c>
-      <c r="N2" s="26">
-        <v>9.1499999999999998E-2</v>
-      </c>
-      <c r="O2" s="27">
-        <v>1.236</v>
-      </c>
-      <c r="P2" s="28">
-        <v>0.23630000000000001</v>
-      </c>
-      <c r="Q2" s="28">
-        <f>O2/M2</f>
-        <v>5.0305250305250307E-2</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3">
-        <v>0.47</v>
-      </c>
-      <c r="E3">
-        <v>7.23</v>
-      </c>
-      <c r="F3">
-        <v>10.42</v>
-      </c>
-      <c r="G3" s="10">
-        <f t="shared" si="0"/>
-        <v>0.18042226487523991</v>
-      </c>
-      <c r="H3" s="5">
-        <f>3.72*4%</f>
-        <v>0.14880000000000002</v>
-      </c>
-      <c r="I3" s="5">
-        <f>0.22/F3</f>
-        <v>2.1113243761996161E-2</v>
-      </c>
-      <c r="J3" s="33">
-        <v>12.93</v>
-      </c>
-      <c r="K3" s="33">
-        <f>D3*4/0.07*0.9</f>
-        <v>24.171428571428571</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" si="1"/>
-        <v>1.3197148341102276</v>
-      </c>
-      <c r="M3">
-        <v>17.510000000000002</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0.24460000000000001</v>
-      </c>
-      <c r="O3">
-        <v>3.38</v>
-      </c>
-      <c r="P3" s="21">
-        <v>1.04</v>
-      </c>
-      <c r="Q3" s="28">
-        <f t="shared" ref="Q3:Q32" si="2">O3/M3</f>
-        <v>0.193032552826956</v>
-      </c>
-      <c r="R3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4">
-        <v>1.0590999999999999</v>
-      </c>
-      <c r="E4">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="F4">
-        <v>24.53</v>
-      </c>
-      <c r="G4" s="10">
-        <f t="shared" si="0"/>
-        <v>0.17270281288218506</v>
-      </c>
-      <c r="H4" s="5">
-        <f>17.79*4%</f>
-        <v>0.71160000000000001</v>
-      </c>
-      <c r="I4" s="5">
-        <f>1.9/F4</f>
-        <v>7.7456176110884623E-2</v>
-      </c>
-      <c r="J4" s="33">
-        <v>6.54</v>
-      </c>
-      <c r="K4" s="33">
-        <f>D4*4/0.07*0.9</f>
-        <v>54.467999999999989</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2204647370566648</v>
-      </c>
-      <c r="M4">
-        <v>35.21</v>
-      </c>
-      <c r="N4" s="21">
-        <v>4.08</v>
-      </c>
-      <c r="O4">
-        <v>18.940000000000001</v>
-      </c>
-      <c r="P4" s="21">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="28">
-        <f t="shared" si="2"/>
-        <v>0.5379153649531383</v>
-      </c>
-      <c r="R4" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.94</v>
-      </c>
-      <c r="F5" s="6">
-        <v>31.95</v>
-      </c>
-      <c r="G5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.15023474178403756</v>
-      </c>
-      <c r="H5" s="5">
-        <f>4.67*4%</f>
-        <v>0.18679999999999999</v>
-      </c>
-      <c r="I5" s="5">
-        <f>0.9/32.6</f>
-        <v>2.7607361963190184E-2</v>
-      </c>
-      <c r="J5" s="33">
-        <v>26.24</v>
-      </c>
-      <c r="K5" s="33">
-        <f>1.2*4/0.07*0.9</f>
-        <v>61.714285714285715</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="1"/>
-        <v>0.93158953722334015</v>
-      </c>
-      <c r="M5" s="7">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="N5" s="5">
-        <v>-7.51E-2</v>
-      </c>
-      <c r="O5" s="7">
-        <v>3.5192999999999999</v>
-      </c>
-      <c r="P5" s="5">
-        <v>6.88E-2</v>
-      </c>
-      <c r="Q5" s="28">
-        <f t="shared" si="2"/>
-        <v>4.9269214615707678E-2</v>
-      </c>
-      <c r="R5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E6" s="11">
-        <v>149</v>
-      </c>
-      <c r="F6" s="11">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="G6" s="10">
-        <f t="shared" si="0"/>
-        <v>0.13130128956623682</v>
-      </c>
-      <c r="H6" s="10">
-        <f>4.04*4%</f>
-        <v>0.16159999999999999</v>
-      </c>
-      <c r="I6" s="10">
-        <f>0.47/F6</f>
-        <v>5.5099648300117238E-2</v>
-      </c>
-      <c r="J6" s="34">
-        <v>6.96</v>
-      </c>
-      <c r="K6" s="34">
-        <f>0.28*4/0.07*0.9</f>
-        <v>14.4</v>
-      </c>
-      <c r="L6" s="10">
-        <f t="shared" si="1"/>
-        <v>0.68815943728018769</v>
-      </c>
-      <c r="M6" s="12">
-        <v>179.73</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0.44350000000000001</v>
-      </c>
-      <c r="O6" s="12">
-        <v>4.09</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0.2959</v>
-      </c>
-      <c r="Q6" s="28">
-        <f t="shared" si="2"/>
-        <v>2.2756356757358261E-2</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19">
-        <v>0.21</v>
-      </c>
-      <c r="E7" s="19">
-        <v>24.05</v>
-      </c>
-      <c r="F7" s="19">
-        <v>6.55</v>
-      </c>
-      <c r="G7" s="39">
-        <f t="shared" si="0"/>
-        <v>0.12824427480916031</v>
-      </c>
-      <c r="H7" s="18">
-        <f>2.89*4%</f>
-        <v>0.11560000000000001</v>
-      </c>
-      <c r="I7" s="18">
-        <f>0.205/F7</f>
-        <v>3.1297709923664124E-2</v>
-      </c>
-      <c r="J7" s="32">
-        <v>6.52</v>
-      </c>
-      <c r="K7" s="32">
-        <f>D7*4/0.07*0.9</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="L7" s="18">
-        <f t="shared" si="1"/>
-        <v>0.64885496183206093</v>
-      </c>
-      <c r="M7" s="20">
-        <v>80.39</v>
-      </c>
-      <c r="N7" s="18">
-        <v>5.91E-2</v>
-      </c>
-      <c r="O7" s="20">
-        <v>4.9219999999999997</v>
-      </c>
-      <c r="P7" s="18">
-        <v>0.14480000000000001</v>
-      </c>
-      <c r="Q7" s="28">
-        <f t="shared" si="2"/>
-        <v>6.1226520711531278E-2</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>0.12989999999999999</v>
-      </c>
-      <c r="E8">
-        <v>30.6</v>
-      </c>
-      <c r="F8">
-        <v>3.42</v>
-      </c>
-      <c r="G8" s="10">
-        <f t="shared" si="0"/>
-        <v>0.1519298245614035</v>
-      </c>
-      <c r="H8" s="5">
-        <f>2.82*4%</f>
-        <v>0.1128</v>
-      </c>
-      <c r="I8" s="5">
-        <f>0.1/F8</f>
-        <v>2.9239766081871347E-2</v>
-      </c>
-      <c r="J8" s="33">
-        <v>4.67</v>
-      </c>
-      <c r="K8" s="33">
-        <f>(D8*4/0.07-J8)*0.9+J8</f>
-        <v>7.1475714285714282</v>
-      </c>
-      <c r="L8" s="5">
-        <f>(K8-F8)/K8</f>
-        <v>0.52151579957228233</v>
-      </c>
-      <c r="M8">
-        <v>14.81</v>
-      </c>
-      <c r="N8" s="5">
-        <v>-3.8300000000000001E-2</v>
-      </c>
-      <c r="O8">
-        <v>3.92</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0.42330000000000001</v>
-      </c>
-      <c r="Q8" s="28">
-        <f t="shared" si="2"/>
-        <v>0.26468602295746119</v>
-      </c>
-      <c r="R8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E9" s="6">
-        <v>21.6</v>
-      </c>
-      <c r="F9" s="6">
-        <v>4.87</v>
-      </c>
-      <c r="G9" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11498973305954827</v>
-      </c>
-      <c r="H9" s="5">
-        <f>2.23*4%</f>
-        <v>8.9200000000000002E-2</v>
-      </c>
-      <c r="I9" s="5">
-        <f>0.1/F9</f>
-        <v>2.0533880903490759E-2</v>
-      </c>
-      <c r="J9" s="33">
-        <v>5.16</v>
-      </c>
-      <c r="K9" s="33">
-        <f>D8*4/0.07*0.9</f>
-        <v>6.6805714285714277</v>
-      </c>
-      <c r="L9" s="5">
-        <f>(K9-F9)/F9</f>
-        <v>0.3717805808154882</v>
-      </c>
-      <c r="M9" s="7">
-        <v>466.88</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0.15720000000000001</v>
-      </c>
-      <c r="O9" s="7">
-        <v>23.056000000000001</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0.67049999999999998</v>
-      </c>
-      <c r="Q9" s="28">
-        <f t="shared" si="2"/>
-        <v>4.9383139136394791E-2</v>
-      </c>
-      <c r="R9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10">
-        <v>0.23250000000000001</v>
-      </c>
-      <c r="E10">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="F10">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="G10" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11005917159763315</v>
-      </c>
-      <c r="H10" s="5">
-        <f>2.42*4%</f>
-        <v>9.6799999999999997E-2</v>
-      </c>
-      <c r="I10" s="5">
-        <f>0.179/F10</f>
-        <v>2.1183431952662722E-2</v>
-      </c>
-      <c r="J10" s="33">
-        <v>9.51</v>
-      </c>
-      <c r="K10" s="33">
-        <f>D10*4/0.07*0.9</f>
-        <v>11.957142857142857</v>
-      </c>
-      <c r="L10" s="5">
-        <f>(K10-F10)/F10</f>
-        <v>0.41504649196956905</v>
-      </c>
-      <c r="M10">
-        <v>14.77</v>
-      </c>
-      <c r="N10" s="5">
-        <v>-0.19070000000000001</v>
-      </c>
-      <c r="O10">
-        <v>1.135</v>
-      </c>
-      <c r="P10" s="5">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="Q10" s="28">
-        <f t="shared" si="2"/>
-        <v>7.6844955991875422E-2</v>
-      </c>
-      <c r="R10" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="6">
-        <v>0.16839999999999999</v>
-      </c>
-      <c r="E11" s="6">
-        <v>17.3</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="G11" s="40">
-        <f t="shared" si="0"/>
-        <v>0.13181996086105674</v>
-      </c>
-      <c r="H11" s="13">
-        <f>5.35*4%</f>
-        <v>0.214</v>
-      </c>
-      <c r="I11" s="13">
-        <f>0.15/F11</f>
-        <v>2.9354207436399216E-2</v>
-      </c>
-      <c r="J11" s="35">
-        <v>3.02</v>
-      </c>
-      <c r="K11" s="35">
-        <f>D11*4/0.07*0.9</f>
-        <v>8.6605714285714264</v>
-      </c>
-      <c r="L11" s="13">
-        <f>(K11-F11)/K11</f>
-        <v>0.40996964898390059</v>
-      </c>
-      <c r="M11" s="14">
-        <v>33.39</v>
-      </c>
-      <c r="N11" s="15">
-        <v>2.41E-2</v>
-      </c>
-      <c r="O11" s="16">
-        <v>2.9169</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0.41089999999999999</v>
-      </c>
-      <c r="Q11" s="28">
-        <f t="shared" si="2"/>
-        <v>8.7358490566037741E-2</v>
-      </c>
-      <c r="R11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12">
-        <v>0.27</v>
-      </c>
-      <c r="E12">
-        <v>5.59</v>
-      </c>
-      <c r="F12">
-        <v>10.42</v>
-      </c>
-      <c r="G12" s="10">
-        <f t="shared" si="0"/>
-        <v>0.1036468330134357</v>
-      </c>
-      <c r="H12" s="5">
-        <f>3.48*4%</f>
-        <v>0.13919999999999999</v>
-      </c>
-      <c r="I12" s="5">
-        <f>1.2/F12</f>
-        <v>0.11516314779270632</v>
-      </c>
-      <c r="J12" s="33">
-        <v>8.25</v>
-      </c>
-      <c r="K12" s="33">
-        <f>D12*4/0.07*0.9</f>
-        <v>13.885714285714286</v>
-      </c>
-      <c r="L12" s="5">
-        <f>(K12-F12)/F12</f>
-        <v>0.33260213874417333</v>
-      </c>
-      <c r="M12">
-        <v>11.57</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0.22450000000000001</v>
-      </c>
-      <c r="O12">
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0.16539999999999999</v>
-      </c>
-      <c r="Q12" s="28">
-        <f t="shared" si="2"/>
-        <v>0.1257562662057044</v>
-      </c>
-      <c r="R12" t="s">
-        <v>42</v>
-      </c>
-      <c r="S12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <v>19.829999999999998</v>
-      </c>
-      <c r="G13" s="10">
-        <f t="shared" si="0"/>
-        <v>0.10287443267776097</v>
-      </c>
-      <c r="H13" s="5">
-        <f>3.17*4%</f>
-        <v>0.1268</v>
-      </c>
-      <c r="I13" s="5">
-        <f>0.68/19.6</f>
-        <v>3.4693877551020408E-2</v>
-      </c>
-      <c r="J13" s="33">
-        <v>11.67</v>
-      </c>
-      <c r="K13" s="33">
-        <f>D13*4/0.07*0.9</f>
-        <v>26.228571428571428</v>
-      </c>
-      <c r="L13" s="5">
-        <f>(K13-F13)/F13</f>
-        <v>0.32267127728549821</v>
-      </c>
-      <c r="M13" s="7">
-        <v>7.73</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0.3327</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="P13" s="5">
-        <v>5.21E-2</v>
-      </c>
-      <c r="Q13" s="28">
-        <f t="shared" si="2"/>
-        <v>0.10556274256144889</v>
-      </c>
-      <c r="R13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14">
-        <f>(4.72-0.89*0.75)/48.1</f>
-        <v>8.4251559251559249E-2</v>
-      </c>
-      <c r="E14">
-        <v>48.1</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14" s="10">
-        <f t="shared" si="0"/>
-        <v>8.4251559251559249E-2</v>
-      </c>
-      <c r="H14" s="5">
-        <f>1.88*4%</f>
-        <v>7.5200000000000003E-2</v>
-      </c>
-      <c r="I14" s="5">
-        <f>0.178/F14</f>
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="J14" s="33">
-        <v>5.64</v>
-      </c>
-      <c r="K14" s="33">
-        <f>(D14*4/0.07-J14)*0.09+J14</f>
-        <v>5.5656937332937328</v>
-      </c>
-      <c r="L14" s="5">
-        <f>(K14-F14)/K14</f>
-        <v>0.28131151448880892</v>
-      </c>
-      <c r="M14">
-        <v>11.48</v>
-      </c>
-      <c r="N14" s="5">
-        <v>-0.27939999999999998</v>
-      </c>
-      <c r="O14">
-        <f>(4.72-0.89*0.75)</f>
-        <v>4.0525000000000002</v>
-      </c>
-      <c r="P14" s="5">
-        <v>-0.13300000000000001</v>
-      </c>
-      <c r="Q14" s="28">
-        <f t="shared" si="2"/>
-        <v>0.35300522648083626</v>
-      </c>
-      <c r="R14" t="s">
-        <v>19</v>
-      </c>
-      <c r="S14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>0.23</v>
-      </c>
-      <c r="E15">
-        <v>5.9</v>
-      </c>
-      <c r="F15">
-        <v>9.85</v>
-      </c>
-      <c r="G15" s="10">
-        <f t="shared" si="0"/>
-        <v>9.3401015228426407E-2</v>
-      </c>
-      <c r="H15" s="5">
-        <f>2.41*4%</f>
-        <v>9.6400000000000013E-2</v>
-      </c>
-      <c r="I15" s="5">
-        <f>0.1/F15</f>
-        <v>1.0152284263959392E-2</v>
-      </c>
-      <c r="J15" s="33">
-        <v>9.51</v>
-      </c>
-      <c r="K15" s="33">
-        <f t="shared" ref="K15:K25" si="3">D15*4/0.07*0.9</f>
-        <v>11.828571428571429</v>
-      </c>
-      <c r="L15" s="5">
-        <f>(K15-J15)/J15</f>
-        <v>0.24380351509689058</v>
-      </c>
-      <c r="M15">
-        <v>27.63</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0.3029</v>
-      </c>
-      <c r="O15">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="P15" s="5">
-        <v>0.33169999999999999</v>
-      </c>
-      <c r="Q15" s="28">
-        <f t="shared" si="2"/>
-        <v>3.6880202678248278E-2</v>
-      </c>
-      <c r="R15" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>0.2</v>
-      </c>
-      <c r="E16">
-        <v>50.38</v>
-      </c>
-      <c r="F16">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="G16" s="10">
-        <f t="shared" si="0"/>
-        <v>8.6114101184068897E-2</v>
-      </c>
-      <c r="H16" s="5">
-        <f>4.16*4%</f>
-        <v>0.16640000000000002</v>
-      </c>
-      <c r="I16" s="5">
-        <f>0.44/F16</f>
-        <v>4.7362755651237896E-2</v>
-      </c>
-      <c r="J16" s="33">
-        <v>5.13</v>
-      </c>
-      <c r="K16" s="33">
-        <f t="shared" si="3"/>
-        <v>10.285714285714286</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" ref="L16:L32" si="4">(K16-F16)/F16</f>
-        <v>0.10718130093802879</v>
-      </c>
-      <c r="M16">
-        <v>28.2</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0.22950000000000001</v>
-      </c>
-      <c r="O16">
-        <v>10.17</v>
-      </c>
-      <c r="P16" s="5">
-        <v>0.16420000000000001</v>
-      </c>
-      <c r="Q16" s="28">
-        <f t="shared" si="2"/>
-        <v>0.36063829787234042</v>
-      </c>
-      <c r="R16" t="s">
-        <v>38</v>
-      </c>
-      <c r="S16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17">
-        <v>0.25</v>
-      </c>
-      <c r="E17">
-        <v>44.93</v>
-      </c>
-      <c r="F17">
-        <v>12.07</v>
-      </c>
-      <c r="G17" s="10">
-        <f t="shared" si="0"/>
-        <v>8.2850041425020712E-2</v>
-      </c>
-      <c r="H17" s="5">
-        <f>9.63*4%</f>
-        <v>0.38520000000000004</v>
-      </c>
-      <c r="I17" s="5">
-        <f>0.48/F17</f>
-        <v>3.9768019884009936E-2</v>
-      </c>
-      <c r="J17" s="33">
-        <v>2.74</v>
-      </c>
-      <c r="K17" s="33">
-        <f t="shared" si="3"/>
-        <v>12.857142857142856</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="4"/>
-        <v>6.5214818321694748E-2</v>
-      </c>
-      <c r="M17">
-        <v>57.86</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0.1216</v>
-      </c>
-      <c r="O17">
-        <v>11.17</v>
-      </c>
-      <c r="P17" s="5">
-        <v>0.11609999999999999</v>
-      </c>
-      <c r="Q17" s="28">
-        <f t="shared" si="2"/>
-        <v>0.19305219495333564</v>
-      </c>
-      <c r="R17" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18">
-        <v>0.37</v>
-      </c>
-      <c r="E18">
-        <v>7.69</v>
-      </c>
-      <c r="F18">
-        <v>11.52</v>
-      </c>
-      <c r="G18" s="10">
-        <f t="shared" si="0"/>
-        <v>0.12847222222222224</v>
-      </c>
-      <c r="H18" s="5">
-        <f>3.88*4%</f>
-        <v>0.1552</v>
-      </c>
-      <c r="I18" s="5">
-        <f>0.08/11.52</f>
-        <v>6.9444444444444449E-3</v>
-      </c>
-      <c r="J18" s="33">
-        <v>9.73</v>
-      </c>
-      <c r="K18" s="33">
-        <f t="shared" si="3"/>
-        <v>19.028571428571428</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="4"/>
-        <v>0.6517857142857143</v>
-      </c>
-      <c r="M18">
-        <v>48.3</v>
-      </c>
-      <c r="N18" s="5">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="O18">
-        <v>2.81</v>
-      </c>
-      <c r="P18" s="5">
-        <v>-6.8999999999999999E-3</v>
-      </c>
-      <c r="Q18" s="5">
-        <f t="shared" si="2"/>
-        <v>5.8178053830227748E-2</v>
-      </c>
-      <c r="R18" t="s">
-        <v>51</v>
-      </c>
-      <c r="S18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19">
-        <v>0.19</v>
-      </c>
-      <c r="E19">
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="F19">
-        <v>8.5</v>
-      </c>
-      <c r="G19" s="10">
-        <f t="shared" ref="G19:G32" si="5">D19*4/F19</f>
-        <v>8.9411764705882357E-2</v>
-      </c>
-      <c r="H19" s="5">
-        <f>1.85*4%</f>
-        <v>7.400000000000001E-2</v>
-      </c>
-      <c r="I19" s="5">
-        <f>0.02/F18</f>
-        <v>1.7361111111111112E-3</v>
-      </c>
-      <c r="J19" s="33">
-        <f>30/E19</f>
-        <v>3.2017075773746</v>
-      </c>
-      <c r="K19" s="33">
-        <f t="shared" si="3"/>
-        <v>9.7714285714285705</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="4"/>
-        <v>0.14957983193277299</v>
-      </c>
-      <c r="M19">
-        <v>7.41</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0.1598</v>
-      </c>
-      <c r="O19">
-        <v>1.34</v>
-      </c>
-      <c r="P19" s="5">
-        <v>-0.31540000000000001</v>
-      </c>
-      <c r="Q19" s="5">
-        <f t="shared" si="2"/>
-        <v>0.18083670715249664</v>
-      </c>
-      <c r="R19" t="s">
-        <v>53</v>
-      </c>
-      <c r="S19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20">
-        <v>0.13</v>
-      </c>
-      <c r="E20">
-        <v>10.34</v>
-      </c>
-      <c r="F20">
-        <v>4.71</v>
-      </c>
-      <c r="G20" s="10">
-        <f t="shared" si="5"/>
-        <v>0.11040339702760085</v>
-      </c>
-      <c r="H20" s="5">
-        <f>4*4%</f>
-        <v>0.16</v>
-      </c>
-      <c r="I20" s="5">
-        <f>0.11/F20</f>
-        <v>2.3354564755838643E-2</v>
-      </c>
-      <c r="J20" s="33">
-        <v>3.41</v>
-      </c>
-      <c r="K20" s="33">
-        <f t="shared" si="3"/>
-        <v>6.6857142857142851</v>
-      </c>
-      <c r="L20" s="5">
-        <f t="shared" si="4"/>
-        <v>0.41947224749772505</v>
-      </c>
-      <c r="M20">
-        <v>6.13</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0.94950000000000001</v>
-      </c>
-      <c r="O20">
-        <v>1.37</v>
-      </c>
-      <c r="P20" s="5">
-        <v>0.24210000000000001</v>
-      </c>
-      <c r="Q20" s="5">
-        <f t="shared" si="2"/>
-        <v>0.22349102773246332</v>
-      </c>
-      <c r="R20" t="s">
-        <v>55</v>
-      </c>
-      <c r="S20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E21">
-        <v>6.02</v>
-      </c>
-      <c r="F21">
-        <v>13.41</v>
-      </c>
-      <c r="G21" s="10">
-        <f t="shared" si="5"/>
-        <v>8.6502609992542875E-2</v>
-      </c>
-      <c r="H21" s="5">
-        <f>3.34*4%</f>
-        <v>0.1336</v>
-      </c>
-      <c r="I21" s="5">
-        <f>0.326/F21</f>
-        <v>2.4310216256524981E-2</v>
-      </c>
-      <c r="J21" s="33">
-        <v>8.84</v>
-      </c>
-      <c r="K21" s="33">
-        <f t="shared" si="3"/>
-        <v>14.914285714285713</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="4"/>
-        <v>0.11217641418983688</v>
-      </c>
-      <c r="M21">
-        <v>9.39</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0.20219999999999999</v>
-      </c>
-      <c r="O21">
-        <v>1.24</v>
-      </c>
-      <c r="P21" s="21">
-        <v>0.68</v>
-      </c>
-      <c r="Q21" s="5">
-        <f t="shared" si="2"/>
-        <v>0.13205537806176784</v>
-      </c>
-      <c r="R21" t="s">
-        <v>57</v>
-      </c>
-      <c r="S21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22">
-        <v>0.3</v>
-      </c>
-      <c r="E22">
-        <v>3.44</v>
-      </c>
-      <c r="F22">
-        <v>11.64</v>
-      </c>
-      <c r="G22" s="10">
-        <f t="shared" si="5"/>
-        <v>0.10309278350515463</v>
-      </c>
-      <c r="H22" s="5">
-        <f>3.89*4%</f>
-        <v>0.15560000000000002</v>
-      </c>
-      <c r="I22" s="5">
-        <f>0.1/F22</f>
-        <v>8.5910652920962206E-3</v>
-      </c>
-      <c r="J22" s="33">
-        <v>8.01</v>
-      </c>
-      <c r="K22" s="33">
-        <f t="shared" si="3"/>
-        <v>15.428571428571429</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="4"/>
-        <v>0.32547864506627389</v>
-      </c>
-      <c r="M22">
-        <v>6.7</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0.18110000000000001</v>
-      </c>
-      <c r="O22">
-        <v>0.99</v>
-      </c>
-      <c r="P22" s="5">
-        <v>-9.0899999999999995E-2</v>
-      </c>
-      <c r="Q22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.14776119402985075</v>
-      </c>
-      <c r="R22" t="s">
-        <v>59</v>
-      </c>
-      <c r="S22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23">
-        <v>0.1</v>
-      </c>
-      <c r="E23">
-        <v>25.85</v>
-      </c>
-      <c r="F23">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="G23" s="10">
-        <f t="shared" si="5"/>
-        <v>9.4562647754137114E-2</v>
-      </c>
-      <c r="H23" s="5">
-        <f>4.26*4%</f>
-        <v>0.1704</v>
-      </c>
-      <c r="I23" s="5">
-        <f>0.11/F23</f>
-        <v>2.6004728132387703E-2</v>
-      </c>
-      <c r="J23" s="33">
-        <v>2.34</v>
-      </c>
-      <c r="K23" s="33">
-        <f t="shared" si="3"/>
-        <v>5.1428571428571432</v>
-      </c>
-      <c r="L23" s="5">
-        <f t="shared" si="4"/>
-        <v>0.21580547112462004</v>
-      </c>
-      <c r="M23">
-        <v>14.13</v>
-      </c>
-      <c r="N23" s="5">
-        <v>-5.5300000000000002E-2</v>
-      </c>
-      <c r="O23">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="P23" s="5">
-        <v>-0.1694</v>
-      </c>
-      <c r="Q23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.1776362349610757</v>
-      </c>
-      <c r="R23" t="s">
-        <v>61</v>
-      </c>
-      <c r="S23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24">
-        <v>0.17</v>
-      </c>
-      <c r="E24">
-        <v>11.5</v>
-      </c>
-      <c r="F24">
-        <v>7.4</v>
-      </c>
-      <c r="G24" s="10">
-        <f t="shared" si="5"/>
-        <v>9.1891891891891897E-2</v>
-      </c>
-      <c r="H24" s="5">
-        <f>2.76*4%</f>
-        <v>0.1104</v>
-      </c>
-      <c r="I24" s="5">
-        <f>0.21/F24</f>
-        <v>2.8378378378378376E-2</v>
-      </c>
-      <c r="J24" s="33">
-        <v>4.84</v>
-      </c>
-      <c r="K24" s="33">
-        <f t="shared" si="3"/>
-        <v>8.742857142857142</v>
-      </c>
-      <c r="L24" s="5">
-        <f t="shared" si="4"/>
-        <v>0.1814671814671813</v>
-      </c>
-      <c r="M24">
-        <v>12.1</v>
-      </c>
-      <c r="N24" s="5">
-        <v>0.9466</v>
-      </c>
-      <c r="O24">
-        <v>1.53</v>
-      </c>
-      <c r="P24" s="5">
-        <v>0.11320000000000001</v>
-      </c>
-      <c r="Q24" s="5">
-        <f t="shared" si="2"/>
-        <v>0.12644628099173555</v>
-      </c>
-      <c r="R24" t="s">
-        <v>68</v>
-      </c>
-      <c r="S24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25">
-        <v>0.52</v>
-      </c>
-      <c r="E25">
-        <v>1.2395</v>
-      </c>
-      <c r="F25">
-        <v>24.09</v>
-      </c>
-      <c r="G25" s="10">
-        <f t="shared" si="5"/>
-        <v>8.6342880863428811E-2</v>
-      </c>
-      <c r="H25" s="5">
-        <f>3.26*4%</f>
-        <v>0.13039999999999999</v>
-      </c>
-      <c r="I25" s="5">
-        <f>0.8/F25</f>
-        <v>3.3208800332088007E-2</v>
-      </c>
-      <c r="J25" s="33">
-        <v>16.05</v>
-      </c>
-      <c r="K25" s="33">
-        <f t="shared" si="3"/>
-        <v>26.74285714285714</v>
-      </c>
-      <c r="L25" s="5">
-        <f t="shared" si="4"/>
-        <v>0.11012275395837029</v>
-      </c>
-      <c r="M25">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="N25" s="5">
-        <v>7.7699999999999991E-2</v>
-      </c>
-      <c r="O25">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="P25" s="5">
-        <v>-0.108</v>
-      </c>
-      <c r="Q25" s="5">
-        <f t="shared" si="2"/>
-        <v>0.134070796460177</v>
-      </c>
-      <c r="R25" t="s">
-        <v>75</v>
-      </c>
-      <c r="S25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26">
-        <v>0.26</v>
-      </c>
-      <c r="E26">
-        <v>2.27</v>
-      </c>
-      <c r="F26">
-        <v>17.98</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="5"/>
-        <v>5.78420467185762E-2</v>
-      </c>
-      <c r="I26" s="5">
-        <f>0.118/F26</f>
-        <v>6.5628476084538369E-3</v>
-      </c>
-      <c r="J26">
-        <v>10</v>
-      </c>
-      <c r="K26">
-        <f t="shared" ref="K26:K32" si="6">D26*4/0.07</f>
-        <v>14.857142857142856</v>
-      </c>
-      <c r="L26" s="5">
-        <f t="shared" si="4"/>
-        <v>-0.17368504687748301</v>
-      </c>
-      <c r="M26">
-        <v>2.21</v>
-      </c>
-      <c r="N26" s="5">
-        <v>0.31940000000000002</v>
-      </c>
-      <c r="O26">
-        <v>0.45</v>
-      </c>
-      <c r="P26" s="5">
-        <v>0.31940000000000002</v>
-      </c>
-      <c r="Q26" s="5">
-        <f t="shared" si="2"/>
-        <v>0.20361990950226244</v>
-      </c>
-      <c r="R26" t="s">
-        <v>63</v>
-      </c>
-      <c r="S26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27">
-        <v>0.34</v>
-      </c>
-      <c r="E27">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="F27">
-        <v>31.71</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="5"/>
-        <v>4.2888678650268054E-2</v>
-      </c>
-      <c r="H27" s="5">
-        <f>4.64*4%</f>
-        <v>0.18559999999999999</v>
-      </c>
-      <c r="I27" s="5">
-        <f>0.6/F27</f>
-        <v>1.8921475875118259E-2</v>
-      </c>
-      <c r="J27">
-        <v>7.3</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="6"/>
-        <v>19.428571428571427</v>
-      </c>
-      <c r="L27" s="5">
-        <f t="shared" si="4"/>
-        <v>-0.38730459071045642</v>
-      </c>
-      <c r="M27">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="N27" s="5">
-        <v>0.1691</v>
-      </c>
-      <c r="O27">
-        <v>1.61</v>
-      </c>
-      <c r="P27" s="5">
-        <v>0.28739999999999999</v>
-      </c>
-      <c r="Q27" s="5">
-        <f t="shared" si="2"/>
-        <v>0.17164179104477612</v>
-      </c>
-      <c r="R27" t="s">
-        <v>65</v>
-      </c>
-      <c r="S27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28">
-        <v>0.33</v>
-      </c>
-      <c r="E28">
-        <v>13.16</v>
-      </c>
-      <c r="F28">
-        <v>53.57</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="5"/>
-        <v>2.4640657084188913E-2</v>
-      </c>
-      <c r="H28" s="5">
-        <f>7.45*4%</f>
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="I28" s="5">
-        <f>0.238/F28</f>
-        <v>4.4427851409370913E-3</v>
-      </c>
-      <c r="J28">
-        <v>6.89</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="6"/>
-        <v>18.857142857142858</v>
-      </c>
-      <c r="L28" s="5">
-        <f t="shared" si="4"/>
-        <v>-0.64799061308301564</v>
-      </c>
-      <c r="M28">
-        <v>26.57</v>
-      </c>
-      <c r="N28" s="5">
-        <v>0.40439999999999998</v>
-      </c>
-      <c r="O28">
-        <v>4.04</v>
-      </c>
-      <c r="P28" s="5">
-        <v>0.44740000000000002</v>
-      </c>
-      <c r="Q28" s="5">
-        <f t="shared" si="2"/>
-        <v>0.15205118554761007</v>
-      </c>
-      <c r="R28" t="s">
-        <v>67</v>
-      </c>
-      <c r="S28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29">
-        <v>0.43</v>
-      </c>
-      <c r="E29">
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="F29">
-        <v>27.08</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="5"/>
-        <v>6.3515509601181686E-2</v>
-      </c>
-      <c r="H29" s="5">
-        <f>4.21*4%</f>
-        <v>0.16839999999999999</v>
-      </c>
-      <c r="I29" s="5">
-        <f>0.46/F29</f>
-        <v>1.6986706056129987E-2</v>
-      </c>
-      <c r="J29">
-        <v>10.48</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="6"/>
-        <v>24.571428571428569</v>
-      </c>
-      <c r="L29" s="5">
-        <f t="shared" si="4"/>
-        <v>-9.2635577125975962E-2</v>
-      </c>
-      <c r="M29">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="N29" s="5">
-        <v>0.37590000000000001</v>
-      </c>
-      <c r="O29">
-        <v>3.91</v>
-      </c>
-      <c r="P29" s="5">
-        <v>0.107</v>
-      </c>
-      <c r="Q29" s="5">
-        <f t="shared" si="2"/>
-        <v>0.11568047337278108</v>
-      </c>
-      <c r="R29" t="s">
-        <v>70</v>
-      </c>
-      <c r="S29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30">
-        <v>0.79</v>
-      </c>
-      <c r="E30">
-        <v>66.239999999999995</v>
-      </c>
-      <c r="F30">
-        <v>48.3</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="5"/>
-        <v>6.5424430641821948E-2</v>
-      </c>
-      <c r="H30" s="5">
-        <f>6.86*4%</f>
-        <v>0.27440000000000003</v>
-      </c>
-      <c r="I30" s="5">
-        <f>1.2/F30</f>
-        <v>2.4844720496894412E-2</v>
-      </c>
-      <c r="J30">
-        <v>12.03</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="6"/>
-        <v>45.142857142857139</v>
-      </c>
-      <c r="L30" s="5">
-        <f t="shared" si="4"/>
-        <v>-6.5365276545400794E-2</v>
-      </c>
-      <c r="M30">
-        <v>697.38</v>
-      </c>
-      <c r="N30" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="O30">
-        <v>50.77</v>
-      </c>
-      <c r="P30" s="5">
-        <v>0.19109999999999999</v>
-      </c>
-      <c r="Q30" s="5">
-        <f t="shared" si="2"/>
-        <v>7.2801055378703156E-2</v>
-      </c>
-      <c r="R30" t="s">
-        <v>72</v>
-      </c>
-      <c r="S30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31">
-        <v>0.93</v>
-      </c>
-      <c r="E31">
-        <v>6.54</v>
-      </c>
-      <c r="F31">
-        <v>53.5</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="5"/>
-        <v>6.9532710280373833E-2</v>
-      </c>
-      <c r="H31" s="5">
-        <f>6*4%</f>
-        <v>0.24</v>
-      </c>
-      <c r="I31" s="5">
-        <f>0.9/F31</f>
-        <v>1.6822429906542057E-2</v>
-      </c>
-      <c r="J31">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="6"/>
-        <v>53.142857142857139</v>
-      </c>
-      <c r="L31" s="5">
-        <f t="shared" si="4"/>
-        <v>-6.6755674232310503E-3</v>
-      </c>
-      <c r="M31">
-        <v>16.96</v>
-      </c>
-      <c r="N31" s="5">
-        <v>1.17E-2</v>
-      </c>
-      <c r="O31">
-        <v>5.97</v>
-      </c>
-      <c r="P31" s="5">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="Q31" s="5">
-        <f t="shared" si="2"/>
-        <v>0.35200471698113206</v>
-      </c>
-      <c r="R31" t="s">
-        <v>70</v>
-      </c>
-      <c r="S31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32">
-        <v>0.26</v>
-      </c>
-      <c r="E32">
-        <v>3.07</v>
-      </c>
-      <c r="F32">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="5"/>
-        <v>6.0818713450292397E-2</v>
-      </c>
-      <c r="H32" s="5">
-        <f>3.61*4%</f>
-        <v>0.1444</v>
-      </c>
-      <c r="I32" s="5">
-        <f>0.5/F32</f>
-        <v>2.9239766081871343E-2</v>
-      </c>
-      <c r="J32">
-        <v>7.24</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="6"/>
-        <v>14.857142857142856</v>
-      </c>
-      <c r="L32" s="5">
-        <f t="shared" si="4"/>
-        <v>-0.13116123642439448</v>
-      </c>
-      <c r="M32">
-        <v>2.63</v>
-      </c>
-      <c r="N32" s="5"/>
-      <c r="O32">
-        <v>0.79</v>
-      </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5">
-        <f t="shared" si="2"/>
-        <v>0.30038022813688214</v>
-      </c>
-      <c r="R32" t="s">
-        <v>78</v>
-      </c>
-      <c r="S32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:S27">
-    <sortCondition descending="1" ref="L1"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S32">
-      <formula1>"每股收益率&gt;7%,低价优质股,市场价格低于净资产价格,基于研发投入"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="33" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="10" customWidth="1"/>
     <col min="3" max="4" width="24.75" customWidth="1"/>
     <col min="5" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="8" width="26.375" customWidth="1"/>
@@ -7026,169 +5393,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76" t="s">
-        <v>208</v>
-      </c>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76" t="s">
-        <v>209</v>
-      </c>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z1" s="76"/>
+      <c r="B1" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z1" s="50"/>
     </row>
     <row r="2" spans="1:28" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>424</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>194</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="76" t="s">
-        <v>344</v>
-      </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+        <v>3</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>221</v>
+        <v>4</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>85</v>
+        <v>7</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" s="76" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="73" t="s">
-        <v>427</v>
+        <v>10</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="43" t="s">
+        <v>346</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U2" s="42" t="s">
-        <v>210</v>
+        <v>20</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="X2" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y2" s="42" t="s">
-        <v>202</v>
+        <v>23</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="F3" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>425</v>
-      </c>
-      <c r="K3" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="72" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q3" s="72" t="s">
-        <v>430</v>
-      </c>
-      <c r="R3" s="72" t="s">
-        <v>428</v>
-      </c>
-      <c r="S3" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
+      <c r="B3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="F3" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="R3" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="S3" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="33">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10">
         <v>9.31</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <f>(36-14)/3.7</f>
         <v>5.9459459459459456</v>
       </c>
@@ -7196,375 +5563,375 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" s="32">
+    <row r="5" spans="1:28" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="9">
         <f>(12.3-0.76)/2.43</f>
         <v>4.7489711934156382</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="6">
         <f>(33.29-24.4)/2.43</f>
         <v>3.6584362139917697</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="5">
         <v>1.17E-2</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="O5" s="32">
+      <c r="K5" s="5"/>
+      <c r="O5" s="9">
         <f>208/17</f>
         <v>12.235294117647058</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="20">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="6">
         <f>33.29/23.89</f>
         <v>1.393470071159481</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="6">
         <f>(33.28-4.05)/23.89</f>
         <v>1.2235244872331519</v>
       </c>
-      <c r="U5" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="V5" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="W5" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="X5" s="45" t="s">
-        <v>215</v>
+      <c r="U5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="33">
+        <v>125</v>
+      </c>
+      <c r="B6" s="10">
         <f>(64.19-8.12-1.98)/10.75</f>
         <v>5.0316279069767447</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <f>(38.43-16.02)/10.75</f>
         <v>2.0846511627906978</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <v>6.3E-3</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="O6" s="33">
+      <c r="K6" s="2"/>
+      <c r="O6" s="10">
         <f>736/17</f>
         <v>43.294117647058826</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-    </row>
-    <row r="7" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="32">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="9">
         <f>(39.49-7.59)/11.61</f>
         <v>2.7476313522825153</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="6">
         <f>(28.47-3.13)/11.61</f>
         <v>2.1826012058570199</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="5">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="O7" s="32">
+      <c r="K7" s="5"/>
+      <c r="O7" s="9">
         <f>557/15</f>
         <v>37.133333333333333</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="20">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="6">
         <f>248655/31297</f>
         <v>7.9450107039013327</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="6">
         <f>(248655-10356)/31297</f>
         <v>7.6141163689810529</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="33">
+        <v>131</v>
+      </c>
+      <c r="B8" s="10">
         <f>(30.56-2.27)/22.78</f>
         <v>1.2418788410886741</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <f>(41.16-16.75)/22.78</f>
         <v>1.071553994732221</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-    </row>
-    <row r="9" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="32">
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="9">
         <f>(51122-7348)/11200</f>
         <v>3.9083928571428572</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="4">
         <v>0.34</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="6">
         <f>NPV(5%,0.39,0.39,0.39,0.39,0.39)/1.1</f>
         <v>1.5349962741327448</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="6">
         <f>5.57/1.1</f>
         <v>5.0636363636363635</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="J9" s="18">
+      <c r="H9" s="6"/>
+      <c r="J9" s="5">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="O9" s="32">
+      <c r="K9" s="5"/>
+      <c r="O9" s="9">
         <f>304/18</f>
         <v>16.888888888888889</v>
       </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="20">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="6">
         <f>52367/28725</f>
         <v>1.8230461270670149</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="6">
         <f>(52367-26519)/28725</f>
         <v>0.89984334203655347</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="33">
+        <v>139</v>
+      </c>
+      <c r="B10" s="10">
         <f>(140755-37289-28391)/40362</f>
         <v>1.8600416233090531</v>
       </c>
       <c r="E10">
         <v>0.97</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="2">
         <v>0.41399999999999998</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="10">
         <v>37.799999999999997</v>
       </c>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="7">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="3">
         <f>181671/111350</f>
         <v>1.6315312079030084</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="3">
         <f>(181671-846)/111350</f>
         <v>1.6239335428828019</v>
       </c>
       <c r="U10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="32">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="9">
         <f>(33.63-4.18)/9.08</f>
         <v>3.2433920704845818</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="4">
         <v>0.2</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="5">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="5">
         <v>0.66410000000000002</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="9">
         <f>407/12</f>
         <v>33.916666666666664</v>
       </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="20">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="6">
         <f>35.64/34.01</f>
         <v>1.0479270802705087</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="6">
         <f>(35.64-19.6)/34.01</f>
         <v>0.47162599235518965</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="33">
+        <v>192</v>
+      </c>
+      <c r="B12" s="10">
         <f>(113.17-4.6)/11.687</f>
         <v>9.2898091896979569</v>
       </c>
       <c r="E12">
         <v>0.64</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="5">
         <v>1.26E-2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="2">
         <v>0.49509999999999998</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="10">
         <f>936/32</f>
         <v>29.25</v>
       </c>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="7">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="3">
         <f>246.35/174.58</f>
         <v>1.4111009279413449</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="3">
         <f>(246.35-104.48)/174.58</f>
         <v>0.81263604078359486</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B13" s="32">
+    <row r="13" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="9">
         <f>(15.54-0.89)/2.95</f>
         <v>4.9661016949152534</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="4">
         <v>0.23</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="6">
         <f>NPV(5%,1.8,1.8,1.8,1.8,1.8)/2.95</f>
         <v>2.6417145786899914</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="6">
         <f>NPV(7%,2.13*1.1,2.13*1.1^2,2.13*1.1^3,2.13*1.1^4,2.13*1.1^5)/2.95</f>
         <v>3.925421744735921</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="J13" s="18">
+      <c r="H13" s="6"/>
+      <c r="J13" s="5">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="5">
         <v>0.14749999999999999</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="9">
         <f>1389/17</f>
         <v>81.705882352941174</v>
       </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="20">
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="6">
         <f>7.37/2.66</f>
         <v>2.7706766917293231</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13" s="6">
         <f>(7.37-0.85)/2.66</f>
         <v>2.4511278195488724</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="7">
+        <v>210</v>
+      </c>
+      <c r="B14" s="3">
         <f>(22.44-0.39)/3.13</f>
         <v>7.0447284345047931</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="2">
         <v>0.42470000000000002</v>
       </c>
       <c r="O14">
         <f>711/12</f>
         <v>59.25</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="3">
         <f>18.06/2.39</f>
         <v>7.556485355648535</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="3">
         <f>(18.06-1.07)/2.39</f>
         <v>7.1087866108786599</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="B15" s="33">
+      <c r="A15" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="10">
         <f>(197.69-21.02)/40.78</f>
         <v>4.3322707209416373</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="J15" s="5">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="J15" s="2">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="2">
         <v>0.32219999999999999</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="O15">
         <f>975/20</f>
         <v>48.75</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="3">
         <f>115/16</f>
         <v>7.1875</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="3">
         <f>(115-18)/16</f>
         <v>6.0625</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>423</v>
-      </c>
-      <c r="B16" s="33">
+        <v>342</v>
+      </c>
+      <c r="B16" s="10">
         <f>84.79/8.1481</f>
         <v>10.406106945177404</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
       <c r="G16">
         <f>16.16/(0.018*0.33+0.03289*0.67)</f>
         <v>577.63178118621829</v>
@@ -7573,51 +5940,51 @@
         <f>16.16*(8.5+2*10)</f>
         <v>460.56</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="2">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="2">
         <v>0.66180000000000005</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="3">
         <f>1139/15</f>
         <v>75.933333333333337</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="3">
         <v>3.57</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="3">
         <v>2.78</v>
       </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3">
         <f>42.89/18.45</f>
         <v>2.3246612466124663</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="3">
         <f>(42.89-2.37)/18.44</f>
         <v>2.1973969631236443</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.15">
       <c r="G22" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7645,7 +6012,235 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18:N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="53" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>442</v>
+      </c>
+      <c r="B13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B14" t="s">
+        <v>446</v>
+      </c>
+      <c r="C14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B15" t="s">
+        <v>449</v>
+      </c>
+      <c r="C15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>451</v>
+      </c>
+      <c r="B16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>452</v>
+      </c>
+      <c r="B17" t="s">
+        <v>428</v>
+      </c>
+      <c r="C17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>453</v>
+      </c>
+      <c r="B18" t="s">
+        <v>429</v>
+      </c>
+      <c r="C18" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>454</v>
+      </c>
+      <c r="B19" t="s">
+        <v>455</v>
+      </c>
+      <c r="C19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE6"/>
   <sheetViews>
@@ -7674,265 +6269,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="78" t="s">
-        <v>374</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="70" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y1" s="77" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
+      <c r="B1" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y1" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
     </row>
     <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="78" t="s">
-        <v>379</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="F2" t="s">
-        <v>383</v>
+        <v>302</v>
       </c>
       <c r="G2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H2" s="79" t="s">
-        <v>384</v>
-      </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
+        <v>301</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>303</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
       <c r="O2" t="s">
-        <v>388</v>
+        <v>307</v>
       </c>
       <c r="Q2" t="s">
-        <v>414</v>
-      </c>
-      <c r="R2" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="S2" s="47"/>
+        <v>333</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="S2" s="17"/>
       <c r="T2" t="s">
-        <v>414</v>
+        <v>333</v>
       </c>
       <c r="U2" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y2" s="79" t="s">
-        <v>400</v>
-      </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="79" t="s">
-        <v>405</v>
-      </c>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="69" t="s">
-        <v>417</v>
+        <v>335</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="39" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="H3" s="64" t="s">
-        <v>393</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="Q3" s="79" t="s">
-        <v>412</v>
-      </c>
-      <c r="R3" s="79"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="79" t="s">
-        <v>413</v>
-      </c>
-      <c r="U3" s="79"/>
-      <c r="V3" s="69"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="H3" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="Q3" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="R3" s="53"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="39"/>
       <c r="Y3" t="s">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="Z3" t="s">
-        <v>404</v>
-      </c>
-      <c r="AA3" s="47" t="s">
-        <v>410</v>
+        <v>323</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>329</v>
       </c>
       <c r="AE3" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>375</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>295</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>296</v>
       </c>
       <c r="E4" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="F4" t="s">
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="G4" t="s">
-        <v>381</v>
+        <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>385</v>
+        <v>304</v>
       </c>
       <c r="I4" t="s">
-        <v>386</v>
+        <v>305</v>
       </c>
       <c r="J4" t="s">
-        <v>295</v>
+        <v>214</v>
       </c>
       <c r="K4" t="s">
-        <v>389</v>
+        <v>308</v>
       </c>
       <c r="L4" t="s">
-        <v>390</v>
+        <v>309</v>
       </c>
       <c r="M4" t="s">
-        <v>392</v>
+        <v>311</v>
       </c>
       <c r="N4" t="s">
-        <v>391</v>
+        <v>310</v>
       </c>
       <c r="O4" t="s">
-        <v>387</v>
+        <v>306</v>
       </c>
       <c r="P4" t="s">
-        <v>396</v>
+        <v>315</v>
       </c>
       <c r="Q4" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="R4" t="s">
-        <v>398</v>
-      </c>
-      <c r="S4" s="47" t="s">
-        <v>419</v>
+        <v>317</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>338</v>
       </c>
       <c r="T4" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="U4" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="V4" t="s">
-        <v>419</v>
+        <v>338</v>
       </c>
       <c r="W4" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="Y4" t="s">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="Z4" t="s">
-        <v>402</v>
+        <v>321</v>
       </c>
       <c r="AA4" t="s">
-        <v>409</v>
+        <v>328</v>
       </c>
       <c r="AB4" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
       <c r="AC4" t="s">
-        <v>407</v>
+        <v>326</v>
       </c>
       <c r="AD4" t="s">
-        <v>408</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>339</v>
       </c>
       <c r="P5">
         <v>0.39</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="2">
         <v>3.7249999999999998E-2</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="7">
         <f>0.1+0.02</f>
         <v>0.12000000000000001</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="2">
         <f>Q5*0.37+R5*0.63</f>
         <v>8.9382500000000004E-2</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="3">
         <f>P5/S5</f>
         <v>4.3632702150868461</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>422</v>
-      </c>
-      <c r="P6" s="7">
+        <v>341</v>
+      </c>
+      <c r="P6" s="3">
         <f>1.96+0.653-0.1239+0.0779+0.045</f>
         <v>2.6120000000000001</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="2">
         <v>3.7249999999999998E-2</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="7">
         <f>(5%+8%)/2</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="2">
         <f>Q6*0.15+R6*0.85</f>
         <v>6.0837500000000003E-2</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="3">
         <f>P6/S6</f>
         <v>42.934045613314154</v>
       </c>
@@ -7958,12 +6553,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7979,79 +6574,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>334</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="42" t="s">
-        <v>116</v>
+      <c r="D2" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="49"/>
+      <c r="L2" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>284</v>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="B4">
         <v>237</v>
@@ -8068,19 +6663,19 @@
       <c r="F4">
         <v>2912</v>
       </c>
-      <c r="H4" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="H4" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4" s="2">
         <v>0.36759999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <f>27805-27085</f>
@@ -8092,7 +6687,7 @@
     </row>
     <row r="6" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="B6">
         <v>746</v>
@@ -8109,20 +6704,20 @@
       <c r="F6">
         <v>5719</v>
       </c>
-      <c r="H6" s="47" t="s">
-        <v>335</v>
+      <c r="H6" s="17" t="s">
+        <v>254</v>
       </c>
       <c r="I6">
         <v>24</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <f>(15.8-13.45)/15.8</f>
         <v>0.14873417721518994</v>
       </c>
     </row>
     <row r="39" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J39" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -8138,7 +6733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
@@ -8148,16 +6743,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="56"/>
+    <col min="1" max="1" width="9" style="26"/>
     <col min="2" max="2" width="35.75" customWidth="1"/>
     <col min="3" max="3" width="34.625" customWidth="1"/>
     <col min="4" max="4" width="32.125" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="23.875" customWidth="1"/>
-    <col min="11" max="11" width="23.875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="23.875" style="33" customWidth="1"/>
-    <col min="13" max="13" width="22.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="23.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="22.625" style="3" customWidth="1"/>
     <col min="14" max="14" width="35" customWidth="1"/>
     <col min="15" max="15" width="19.125" customWidth="1"/>
     <col min="16" max="16" width="15.125" customWidth="1"/>
@@ -8172,158 +6767,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="P1" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="S1" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="T1" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="U1" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="V1" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="W1" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="X1" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y1" s="54" t="s">
-        <v>269</v>
+      <c r="A1" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="49"/>
+      <c r="O1" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="L3" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="M3" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="P3" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="R3" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="S3" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="U3" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="V3" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="W3" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="X3" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y3" s="47" t="s">
-        <v>270</v>
+      <c r="A3" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>275</v>
+      <c r="A4" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c r="E4">
         <v>3.14</v>
@@ -8334,49 +6929,49 @@
       <c r="H4">
         <v>127</v>
       </c>
-      <c r="I4" s="47" t="s">
-        <v>277</v>
+      <c r="I4" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="J4" t="s">
-        <v>287</v>
-      </c>
-      <c r="K4" s="5">
+        <v>206</v>
+      </c>
+      <c r="K4" s="2">
         <f>5484/93277</f>
         <v>5.879262840786046E-2</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="10">
         <f>59347/(5471+3458)/2</f>
         <v>3.32327248292082</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="3">
         <f>1.33/9.33</f>
         <v>0.14255091103965703</v>
       </c>
-      <c r="O4" s="47" t="s">
-        <v>288</v>
+      <c r="O4" s="17" t="s">
+        <v>207</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>289</v>
+        <v>208</v>
       </c>
       <c r="Y4" t="s">
-        <v>290</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="56" t="s">
-        <v>247</v>
+      <c r="A5" s="26" t="s">
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="7">
+        <v>168</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="3">
         <f>(12.42+17.3+18.81)/3</f>
         <v>16.176666666666666</v>
       </c>
@@ -8389,17 +6984,17 @@
         <v>2234</v>
       </c>
       <c r="J5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K5" s="50">
+        <v>169</v>
+      </c>
+      <c r="K5" s="20">
         <f>4645/116233</f>
         <v>3.9962833274543377E-2</v>
       </c>
-      <c r="L5" s="53">
+      <c r="L5" s="23">
         <f>19425/(22255+18429)/2</f>
         <v>0.23873021335168618</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="3">
         <f>(6814/116232+10687/84790+10923/61546)/3</f>
         <v>0.12071398227118028</v>
       </c>
@@ -8410,18 +7005,18 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="81" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>255</v>
+      <c r="A6" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="E6">
         <v>4.32</v>
@@ -8432,34 +7027,34 @@
       <c r="H6">
         <v>208</v>
       </c>
-      <c r="J6" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="K6" s="50">
+      <c r="J6" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="20">
         <f>2618/30796</f>
         <v>8.5011040394856477E-2</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="23">
         <f>112664/(846+1671)/2</f>
         <v>22.380611839491458</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="3">
         <f>2618/30796</f>
         <v>8.5011040394856477E-2</v>
       </c>
-      <c r="O6" s="47"/>
+      <c r="O6" s="17"/>
       <c r="Q6" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="R6" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="74">
+      <c r="A7" s="44">
         <v>1</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8478,12 +7073,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8503,117 +7098,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="A1" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="80" t="s">
-        <v>346</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
+      <c r="A2" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76" t="s">
-        <v>348</v>
-      </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76" t="s">
-        <v>349</v>
-      </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76" t="s">
-        <v>366</v>
-      </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-    </row>
-    <row r="4" spans="1:22" s="65" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A4" s="65" t="s">
-        <v>350</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>351</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>353</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>355</v>
-      </c>
-      <c r="F4" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="H4" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="I4" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="J4" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="K4" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="L4" s="67" t="s">
-        <v>373</v>
-      </c>
-      <c r="M4" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="N4" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="O4" s="65" t="s">
-        <v>364</v>
-      </c>
-      <c r="P4" s="65" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q4" s="65" t="s">
-        <v>367</v>
-      </c>
-      <c r="R4" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="S4" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="T4" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="U4" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="V4" s="65" t="s">
-        <v>372</v>
+      <c r="A3" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+    </row>
+    <row r="4" spans="1:22" s="35" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A4" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="V4" s="35" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -8630,572 +7225,663 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="83.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="45.25" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="83.125" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33">
+        <v>1.75</v>
+      </c>
+      <c r="I33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G34" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F36" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F38" s="13"/>
+      <c r="G38" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="14">
+        <v>14245</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F39" s="13"/>
+      <c r="G39" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="13">
+        <v>37663000</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F40" s="13"/>
+      <c r="G40" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="13">
+        <v>22554000</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F41" s="13"/>
+      <c r="G41" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F42" s="13"/>
+      <c r="G42" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="13">
+        <v>15109000</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F43" s="13"/>
+      <c r="G43" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="13">
+        <v>1819000</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F44" s="13"/>
+      <c r="G44" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="13">
+        <v>13290000</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F45" s="13"/>
+      <c r="G45" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="13">
+        <v>1.55</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F46" s="13"/>
+      <c r="G46" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="13">
+        <v>1.53</v>
+      </c>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F47" s="13"/>
+      <c r="G47" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="13">
+        <v>438000000</v>
+      </c>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F48" s="13"/>
+      <c r="G48" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F49" s="13"/>
+      <c r="G49" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F50" s="13"/>
+      <c r="G50" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="13">
+        <v>221000000</v>
+      </c>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F51" s="13"/>
+      <c r="G51" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G57" t="s">
+        <v>95</v>
+      </c>
+      <c r="H57">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G58" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="59" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G59" t="s">
+        <v>97</v>
+      </c>
+      <c r="H59">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="60" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G60" t="s">
+        <v>98</v>
+      </c>
+      <c r="H60">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="61" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G62" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="H62">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G63" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G64" t="s">
+        <v>102</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G65" t="s">
+        <v>103</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G68" t="s">
+        <v>105</v>
+      </c>
+      <c r="H68" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G69" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G70" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G71" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="H71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G72" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="H72" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>462</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E74" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>463</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>464</v>
+      </c>
+      <c r="B76" s="46">
+        <v>43558</v>
+      </c>
+      <c r="C76" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="D76" s="10">
+        <f>YIELD(B76,B77,B78,B79,B80,B81,B82)</f>
+        <v>9.9734873431878215E-2</v>
+      </c>
+      <c r="E76">
+        <v>7.2863999999999998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>465</v>
+      </c>
+      <c r="B77" s="46">
+        <v>44340</v>
+      </c>
+      <c r="C77" s="46"/>
+    </row>
+    <row r="78" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>466</v>
+      </c>
+      <c r="B78" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="47"/>
+    </row>
+    <row r="79" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>467</v>
+      </c>
+      <c r="B79">
+        <v>93</v>
+      </c>
+      <c r="D79" s="47"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>469</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>470</v>
+      </c>
+      <c r="B82">
         <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33">
-        <v>1.75</v>
-      </c>
-      <c r="F33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D35" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C36" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C37" s="43"/>
-      <c r="D37" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C38" s="43"/>
-      <c r="D38" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="44">
-        <v>14245</v>
-      </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C39" s="43"/>
-      <c r="D39" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="43">
-        <v>37663000</v>
-      </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C40" s="43"/>
-      <c r="D40" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="43">
-        <v>22554000</v>
-      </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C41" s="43"/>
-      <c r="D41" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C42" s="43"/>
-      <c r="D42" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="E42" s="43">
-        <v>15109000</v>
-      </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C43" s="43"/>
-      <c r="D43" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="43">
-        <v>1819000</v>
-      </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C44" s="43"/>
-      <c r="D44" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" s="43">
-        <v>13290000</v>
-      </c>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C45" s="43"/>
-      <c r="D45" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="43">
-        <v>1.55</v>
-      </c>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C46" s="43"/>
-      <c r="D46" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" s="43">
-        <v>1.53</v>
-      </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C47" s="43"/>
-      <c r="D47" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="E47" s="43">
-        <v>438000000</v>
-      </c>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C48" s="43"/>
-      <c r="D48" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C49" s="43"/>
-      <c r="D49" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C50" s="43"/>
-      <c r="D50" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50" s="43">
-        <v>221000000</v>
-      </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C51" s="43"/>
-      <c r="D51" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C53" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C54" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C55" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D56" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D57" t="s">
-        <v>172</v>
-      </c>
-      <c r="E57">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D58" t="s">
-        <v>173</v>
-      </c>
-      <c r="E58">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D59" t="s">
-        <v>174</v>
-      </c>
-      <c r="E59">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D60" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D61" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D62" t="s">
-        <v>178</v>
-      </c>
-      <c r="E62">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D63" t="s">
-        <v>177</v>
-      </c>
-      <c r="E63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D64" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D65" t="s">
-        <v>180</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D66" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D67" t="s">
-        <v>190</v>
-      </c>
-      <c r="E67" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D68" t="s">
-        <v>182</v>
-      </c>
-      <c r="E68" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D69" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D70" t="s">
-        <v>140</v>
-      </c>
-      <c r="E70" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D71" t="s">
-        <v>186</v>
-      </c>
-      <c r="E71" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D72" t="s">
-        <v>188</v>
-      </c>
-      <c r="E72" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -9205,7 +7891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -9237,220 +7923,214 @@
   <sheetData>
     <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>314</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76" t="s">
-        <v>329</v>
-      </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="75" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75" t="s">
-        <v>304</v>
-      </c>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
+        <v>256</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B2" s="79" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79" t="s">
-        <v>322</v>
-      </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79" t="s">
-        <v>325</v>
-      </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="79" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="62" t="s">
-        <v>297</v>
-      </c>
-      <c r="S2" s="79" t="s">
-        <v>298</v>
-      </c>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79" t="s">
-        <v>311</v>
-      </c>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79" t="s">
-        <v>305</v>
-      </c>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA2" s="79"/>
+      <c r="B2" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="S2" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA2" s="53"/>
     </row>
     <row r="3" spans="1:27" ht="189" x14ac:dyDescent="0.15">
-      <c r="B3" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>331</v>
+      <c r="B3" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="P3" t="s">
-        <v>294</v>
+        <v>213</v>
       </c>
       <c r="Q3" t="s">
-        <v>295</v>
-      </c>
-      <c r="R3" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="S3" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="U3" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="V3" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="W3" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="X3" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y3" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z3" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA3" s="47" t="s">
-        <v>308</v>
+        <v>214</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>339</v>
-      </c>
-      <c r="P4" s="81" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
+        <v>258</v>
+      </c>
+      <c r="P4" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="P5" s="5">
+      <c r="P5" s="2">
         <f>3.4/(3.4+1.5+0.8+0.4)</f>
         <v>0.55737704918032782</v>
       </c>
       <c r="R5" t="s">
-        <v>338</v>
+        <v>257</v>
       </c>
       <c r="S5">
         <v>234</v>
       </c>
-      <c r="T5" s="21" t="s">
-        <v>341</v>
+      <c r="T5" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="V5" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U2:V2"/>
@@ -9459,6 +8139,669 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="28.625" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="56" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D4" s="57">
+        <v>565877218.20000005</v>
+      </c>
+      <c r="F4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G4" s="57">
+        <v>1617766025.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="F5" t="s">
+        <v>483</v>
+      </c>
+      <c r="G5" s="57">
+        <v>307253250.00999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" s="57">
+        <v>20085570</v>
+      </c>
+      <c r="F6" t="s">
+        <v>482</v>
+      </c>
+      <c r="G6" s="57">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D7" s="57">
+        <v>1285323.54</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="F8" t="s">
+        <v>484</v>
+      </c>
+      <c r="G8" s="57">
+        <v>411560067.05000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D9" s="57">
+        <v>13020.42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>511</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D10" s="57">
+        <v>100000000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>485</v>
+      </c>
+      <c r="G10" s="57">
+        <v>497642363.63999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D11" s="57">
+        <v>289400000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>519</v>
+      </c>
+      <c r="G11" s="57">
+        <f>SUM(G4:G10)</f>
+        <v>2934221706.6900001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D12" s="57">
+        <v>14995291.25</v>
+      </c>
+      <c r="G12" s="57"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>518</v>
+      </c>
+      <c r="D13" s="57">
+        <f>SUM(D4:D12)</f>
+        <v>991656423.40999997</v>
+      </c>
+      <c r="G13" s="57"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>520</v>
+      </c>
+      <c r="D14" s="57">
+        <f>G11-D13</f>
+        <v>1942565283.2800002</v>
+      </c>
+      <c r="G14" s="57"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="56" t="s">
+        <v>486</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>490</v>
+      </c>
+      <c r="D16" s="57">
+        <v>478150320.69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>505</v>
+      </c>
+      <c r="G16" s="57">
+        <v>537135244.74000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>489</v>
+      </c>
+      <c r="D17" s="57">
+        <v>74110405.450000003</v>
+      </c>
+      <c r="F17" t="s">
+        <v>506</v>
+      </c>
+      <c r="G17" s="57">
+        <v>276096316.60000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>491</v>
+      </c>
+      <c r="D18" s="57">
+        <v>76478267.040000007</v>
+      </c>
+      <c r="F18" t="s">
+        <v>507</v>
+      </c>
+      <c r="G18" s="57">
+        <v>114102202.48999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>492</v>
+      </c>
+      <c r="D19" s="57">
+        <v>2066416989.02</v>
+      </c>
+      <c r="F19" t="s">
+        <v>508</v>
+      </c>
+      <c r="G19" s="57">
+        <v>39071070.329999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" t="s">
+        <v>494</v>
+      </c>
+      <c r="D20" s="57">
+        <v>31555890.039999999</v>
+      </c>
+      <c r="F20" t="s">
+        <v>509</v>
+      </c>
+      <c r="G20" s="57">
+        <v>14579229.77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" t="s">
+        <v>495</v>
+      </c>
+      <c r="D21" s="57">
+        <v>206000000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>525</v>
+      </c>
+      <c r="G21" s="57">
+        <v>25936723.309999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>480</v>
+      </c>
+      <c r="D22" s="57">
+        <v>1322140.3400000001</v>
+      </c>
+      <c r="F22" t="s">
+        <v>510</v>
+      </c>
+      <c r="G22" s="57">
+        <v>19268787.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>497</v>
+      </c>
+      <c r="D23" s="57">
+        <v>2845891941.6999998</v>
+      </c>
+      <c r="F23" t="s">
+        <v>512</v>
+      </c>
+      <c r="G23" s="57">
+        <v>1816081.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>498</v>
+      </c>
+      <c r="D24" s="57">
+        <v>49714874.829999998</v>
+      </c>
+      <c r="F24" t="s">
+        <v>513</v>
+      </c>
+      <c r="G24" s="57">
+        <v>46809332.100000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D25" s="57">
+        <v>421065054.44999999</v>
+      </c>
+      <c r="F25" t="s">
+        <v>514</v>
+      </c>
+      <c r="G25" s="57">
+        <v>71849676.299999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>500</v>
+      </c>
+      <c r="D26" s="57">
+        <v>6436043.2800000003</v>
+      </c>
+      <c r="F26" t="s">
+        <v>522</v>
+      </c>
+      <c r="G26" s="57">
+        <f>SUM(G16:G25)</f>
+        <v>1146664664.7199998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>501</v>
+      </c>
+      <c r="D27" s="57">
+        <v>3912319.82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>502</v>
+      </c>
+      <c r="D28" s="57">
+        <v>40250511.670000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>503</v>
+      </c>
+      <c r="D29" s="57">
+        <v>116425476.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>521</v>
+      </c>
+      <c r="D30" s="57">
+        <f>SUM(D16:D29)</f>
+        <v>6417730234.829999</v>
+      </c>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>517</v>
+      </c>
+      <c r="D31" s="57">
+        <f>D30-G26</f>
+        <v>5271065570.1099987</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E32" s="56" t="s">
+        <v>515</v>
+      </c>
+      <c r="F32" s="57">
+        <v>5246322.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E33" s="56" t="s">
+        <v>516</v>
+      </c>
+      <c r="F33" s="57">
+        <v>3323253964.1500001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E34" t="s">
+        <v>523</v>
+      </c>
+      <c r="F34" s="45">
+        <f>D31-D14</f>
+        <v>3328500286.8299985</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="56" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>528</v>
+      </c>
+      <c r="D36" t="s">
+        <v>543</v>
+      </c>
+      <c r="E36" s="57">
+        <f>4821675351.22-6999822.27</f>
+        <v>4814675528.9499998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>541</v>
+      </c>
+      <c r="C37" t="s">
+        <v>527</v>
+      </c>
+      <c r="D37" t="s">
+        <v>529</v>
+      </c>
+      <c r="E37" s="57">
+        <f>4387211481.2-173291696.47</f>
+        <v>4213919784.73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>533</v>
+      </c>
+      <c r="C38" t="s">
+        <v>532</v>
+      </c>
+      <c r="D38" t="s">
+        <v>531</v>
+      </c>
+      <c r="E38" s="57">
+        <v>69225719.019999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>534</v>
+      </c>
+      <c r="D39" t="s">
+        <v>540</v>
+      </c>
+      <c r="E39" s="57">
+        <f>13177346.1+138057.82</f>
+        <v>13315403.92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>536</v>
+      </c>
+      <c r="D41" t="s">
+        <v>538</v>
+      </c>
+      <c r="E41" s="57">
+        <f>26283563.05-7601464.17</f>
+        <v>18682098.880000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>537</v>
+      </c>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>539</v>
+      </c>
+      <c r="E43" s="57">
+        <f>E36-E37+E38+E39+E40+E41</f>
+        <v>701978966.03999972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>542</v>
+      </c>
+      <c r="E44" s="57">
+        <v>121650803.95999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>544</v>
+      </c>
+      <c r="D45" t="s">
+        <v>546</v>
+      </c>
+      <c r="E45" s="57">
+        <f>173291696.47*E46</f>
+        <v>39353336.147708274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>553</v>
+      </c>
+      <c r="D46" t="s">
+        <v>545</v>
+      </c>
+      <c r="E46" s="2">
+        <f>121650803.96/535687091.84</f>
+        <v>0.2270930283986288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>547</v>
+      </c>
+      <c r="E47" s="60">
+        <f>E43-E44-E45</f>
+        <v>540974825.93229139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>548</v>
+      </c>
+      <c r="D48" t="s">
+        <v>559</v>
+      </c>
+      <c r="E48" s="60">
+        <f>E51*(1-E46)</f>
+        <v>103773320.56256963</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>549</v>
+      </c>
+      <c r="D49" t="s">
+        <v>549</v>
+      </c>
+      <c r="E49" s="57">
+        <v>141263484.49000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>550</v>
+      </c>
+      <c r="D50" t="s">
+        <v>550</v>
+      </c>
+      <c r="E50" s="57">
+        <v>-6999822.2699999996</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>551</v>
+      </c>
+      <c r="E51" s="45">
+        <f>E49+E50</f>
+        <v>134263662.22</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>544</v>
+      </c>
+      <c r="D52" t="s">
+        <v>554</v>
+      </c>
+      <c r="E52" s="45">
+        <f>E51*E46</f>
+        <v>30490341.657430366</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>552</v>
+      </c>
+      <c r="E53" s="45">
+        <f>E51-E52</f>
+        <v>103773320.56256963</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>556</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>558</v>
+      </c>
+      <c r="E55" s="57">
+        <f>32915941.93+6859120.32</f>
+        <v>39775062.25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>515</v>
+      </c>
+      <c r="E57" s="57">
+        <v>3833049.95</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>560</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9468,10 +8811,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9479,22 +8822,41 @@
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="6" max="7" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="24.625" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>460</v>
+        <v>379</v>
       </c>
       <c r="C1" t="s">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+      <c r="F1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J1" t="s">
+        <v>397</v>
+      </c>
+      <c r="K1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>6.4</v>
@@ -9502,10 +8864,25 @@
       <c r="C2">
         <v>5.39</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>46.72</v>
+      </c>
+      <c r="G2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I2">
+        <v>34.74</v>
+      </c>
+      <c r="J2">
+        <v>49.45</v>
+      </c>
+      <c r="K2">
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>351</v>
       </c>
       <c r="B3">
         <v>11.56</v>
@@ -9513,10 +8890,25 @@
       <c r="C3">
         <v>15.31</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>7.58</v>
+      </c>
+      <c r="G3">
+        <v>30.66</v>
+      </c>
+      <c r="I3">
+        <v>8.1479999999999997</v>
+      </c>
+      <c r="J3">
+        <v>6.7350000000000003</v>
+      </c>
+      <c r="K3">
+        <v>8.8629999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>352</v>
       </c>
       <c r="B4">
         <v>74</v>
@@ -9524,10 +8916,25 @@
       <c r="C4">
         <v>82.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>354.09</v>
+      </c>
+      <c r="G4">
+        <v>312.7</v>
+      </c>
+      <c r="I4">
+        <v>283.10000000000002</v>
+      </c>
+      <c r="J4">
+        <v>333.1</v>
+      </c>
+      <c r="K4">
+        <v>255.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>353</v>
       </c>
       <c r="B5">
         <v>16.010000000000002</v>
@@ -9535,23 +8942,58 @@
       <c r="C5">
         <v>17.23</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>45.1</v>
+      </c>
+      <c r="G5">
+        <v>126.7</v>
+      </c>
+      <c r="I5">
+        <v>24.82</v>
+      </c>
+      <c r="J5">
+        <v>10.31</v>
+      </c>
+      <c r="K5">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>354</v>
       </c>
       <c r="B6">
-        <f>B3+B5</f>
-        <v>27.57</v>
+        <f>B4+B5</f>
+        <v>90.01</v>
       </c>
       <c r="C6">
-        <f>C3+C5</f>
-        <v>32.54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <f>C4+C5</f>
+        <v>99.77000000000001</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:K6" si="0">F4+F5</f>
+        <v>399.19</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>439.4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>307.92</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>343.41</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>303.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>355</v>
       </c>
       <c r="B7">
         <v>6.66</v>
@@ -9559,10 +9001,25 @@
       <c r="C7">
         <v>2.9270999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>10.8</v>
+      </c>
+      <c r="G7">
+        <v>6.03</v>
+      </c>
+      <c r="I7">
+        <v>6.1</v>
+      </c>
+      <c r="J7">
+        <v>6.06</v>
+      </c>
+      <c r="K7">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>356</v>
       </c>
       <c r="B8">
         <v>38.58</v>
@@ -9570,10 +9027,25 @@
       <c r="C8">
         <v>32.49</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>113.6</v>
+      </c>
+      <c r="G8">
+        <v>341</v>
+      </c>
+      <c r="I8" t="s">
+        <v>391</v>
+      </c>
+      <c r="J8">
+        <v>21.82</v>
+      </c>
+      <c r="K8">
+        <v>92.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>357</v>
       </c>
       <c r="B9">
         <v>2.6429999999999998</v>
@@ -9581,10 +9053,25 @@
       <c r="C9">
         <v>4.07</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>14.89</v>
+      </c>
+      <c r="G9">
+        <v>21.53</v>
+      </c>
+      <c r="I9">
+        <v>12.21</v>
+      </c>
+      <c r="J9">
+        <v>4.5289999999999999</v>
+      </c>
+      <c r="K9">
+        <v>9.6259999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>370</v>
       </c>
       <c r="B10">
         <v>0.23</v>
@@ -9592,10 +9079,25 @@
       <c r="C10">
         <v>0.26450000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F10">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>388</v>
+      </c>
+      <c r="I10" t="s">
+        <v>392</v>
+      </c>
+      <c r="J10" t="s">
+        <v>398</v>
+      </c>
+      <c r="K10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>371</v>
       </c>
       <c r="B11">
         <v>0.16</v>
@@ -9603,10 +9105,25 @@
       <c r="C11">
         <v>0.45929999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F11" t="s">
+        <v>384</v>
+      </c>
+      <c r="G11" t="s">
+        <v>389</v>
+      </c>
+      <c r="I11" t="s">
+        <v>393</v>
+      </c>
+      <c r="J11" t="s">
+        <v>399</v>
+      </c>
+      <c r="K11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>372</v>
       </c>
       <c r="B12">
         <v>0.21</v>
@@ -9614,10 +9131,19 @@
       <c r="C12">
         <v>0.749</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G12" t="s">
+        <v>390</v>
+      </c>
+      <c r="I12" t="s">
+        <v>394</v>
+      </c>
+      <c r="J12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>358</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -9625,23 +9151,53 @@
       <c r="C13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F13">
+        <v>0.25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K13">
+        <v>1.6140000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>440</v>
+        <v>359</v>
       </c>
       <c r="B14" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="66" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+      <c r="F14" t="s">
+        <v>385</v>
+      </c>
+      <c r="G14" t="s">
+        <v>387</v>
+      </c>
+      <c r="I14" t="s">
+        <v>395</v>
+      </c>
+      <c r="J14" t="s">
+        <v>400</v>
+      </c>
+      <c r="K14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="36" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>442</v>
+        <v>361</v>
       </c>
       <c r="B16">
         <v>23.03</v>
@@ -9649,110 +9205,607 @@
       <c r="C16">
         <v>20.28</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F16">
+        <v>23.78</v>
+      </c>
+      <c r="G16">
+        <v>14.52</v>
+      </c>
+      <c r="I16">
+        <v>16.22</v>
+      </c>
+      <c r="J16">
+        <v>47.93</v>
+      </c>
+      <c r="K16">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>443</v>
-      </c>
-      <c r="B17" s="5">
+        <v>362</v>
+      </c>
+      <c r="B17" s="2">
         <f>B2/B7</f>
         <v>0.96096096096096095</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="2">
         <f>C2/C7</f>
         <v>1.8414130026305899</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <f t="shared" ref="F17:K17" si="1">F2/F7</f>
+        <v>4.325925925925926</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6915422885572138</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>5.695081967213115</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>8.1600660066006618</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9297658862876257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>444</v>
-      </c>
-      <c r="B18" s="5">
+        <v>363</v>
+      </c>
+      <c r="B18" s="2">
         <f>B13/B2</f>
         <v>3.125E-2</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="2">
         <f>C13/C2</f>
         <v>3.7105751391465679E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <f t="shared" ref="F18" si="2">F13/F2</f>
+        <v>5.3510273972602737E-3</v>
+      </c>
+      <c r="G18" s="2">
+        <f>0.1/G2</f>
+        <v>9.8039215686274526E-3</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <f t="shared" ref="I18:K18" si="3">0.1/I2</f>
+        <v>2.8785261945883708E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0222446916076846E-3</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4662045060658577E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>445</v>
-      </c>
-      <c r="B19" s="5">
+        <v>364</v>
+      </c>
+      <c r="B19" s="2">
         <f>B9/B8</f>
         <v>6.8506998444790038E-2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="2">
         <f>C9/C8</f>
         <v>0.1252693136349646</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <f t="shared" ref="F19:G19" si="4">F9/F8</f>
+        <v>0.13107394366197184</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="4"/>
+        <v>6.3137829912023463E-2</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
+        <f>12.21/55.44</f>
+        <v>0.22023809523809526</v>
+      </c>
+      <c r="J19" s="2">
+        <f>4.529/21.82</f>
+        <v>0.20756186984417965</v>
+      </c>
+      <c r="K19" s="2">
+        <f>9.626/92.86</f>
+        <v>0.10366142580228301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>446</v>
-      </c>
-      <c r="B20" s="5">
+        <v>365</v>
+      </c>
+      <c r="B20" s="2">
         <f>B10/B7</f>
         <v>3.4534534534534533E-2</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="2">
         <f>C10/C7</f>
         <v>9.0362474804413936E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <f t="shared" ref="F20" si="5">F10/F7</f>
+        <v>0.1898148148148148</v>
+      </c>
+      <c r="G20" s="2">
+        <f>0.462/G7</f>
+        <v>7.6616915422885568E-2</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <f>1.43/6.1</f>
+        <v>0.23442622950819672</v>
+      </c>
+      <c r="J20" s="2">
+        <f>0.94/6.06</f>
+        <v>0.15511551155115511</v>
+      </c>
+      <c r="K20" s="2">
+        <f>2.13/14.95</f>
+        <v>0.14247491638795987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>447</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s">
-        <v>455</v>
+        <v>374</v>
       </c>
       <c r="C21" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <v>380</v>
+      </c>
+      <c r="F21">
+        <v>1.68</v>
+      </c>
+      <c r="G21">
+        <v>1.8</v>
+      </c>
+      <c r="I21">
+        <v>1.36</v>
+      </c>
+      <c r="J21">
+        <v>1.22</v>
+      </c>
+      <c r="K21">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>448</v>
-      </c>
-      <c r="B22" s="82" t="s">
-        <v>456</v>
+        <v>367</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>375</v>
       </c>
       <c r="C22" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="66" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <v>381</v>
+      </c>
+      <c r="F22">
+        <v>1.45</v>
+      </c>
+      <c r="G22">
+        <v>1.38</v>
+      </c>
+      <c r="I22">
+        <v>1.03</v>
+      </c>
+      <c r="J22">
+        <v>1.06</v>
+      </c>
+      <c r="K22">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>457</v>
-      </c>
-      <c r="B24" s="5">
+        <v>376</v>
+      </c>
+      <c r="B24" s="2">
         <f>(B10-B11)/B11</f>
         <v>0.43750000000000006</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="2">
         <f>(C10-C11)/C11</f>
         <v>-0.424123666448944</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <f>(2.05-0.96)/0.96</f>
+        <v>1.1354166666666665</v>
+      </c>
+      <c r="G24" s="2">
+        <f>(0.462-0.564)/0.564</f>
+        <v>-0.18085106382978711</v>
+      </c>
+      <c r="I24" s="2">
+        <f>(1.43-0.43)/0.43</f>
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="J24" s="2">
+        <f>(0.94-0.44)/0.44</f>
+        <v>1.1363636363636362</v>
+      </c>
+      <c r="K24" s="2">
+        <f>(2.13-1.79)/1.79</f>
+        <v>0.1899441340782122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>458</v>
-      </c>
-      <c r="B25" s="5">
+        <v>377</v>
+      </c>
+      <c r="B25" s="2">
         <f>(B10-B12)/B12</f>
         <v>9.523809523809533E-2</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="2">
         <f>(C10-C12)/C12</f>
         <v>-0.64686248331108143</v>
+      </c>
+      <c r="G25" s="2">
+        <f>(0.462-0.538)/0.538</f>
+        <v>-0.14126394052044611</v>
+      </c>
+      <c r="I25" s="2">
+        <f>(1.43-0.0763)/0.0763</f>
+        <v>17.741808650065529</v>
+      </c>
+      <c r="J25" s="2">
+        <f>(0.94-0.25)/0.25</f>
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="36" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>407</v>
+      </c>
+      <c r="I27" s="2">
+        <f>(33.53-3.79)/3.79</f>
+        <v>7.846965699208444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>408</v>
+      </c>
+      <c r="I28" s="2">
+        <f>(33.53-0.55)/0.55</f>
+        <v>59.963636363636368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>457</v>
+      </c>
+      <c r="C33" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>5.15</v>
+      </c>
+      <c r="C34">
+        <v>53.18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>351</v>
+      </c>
+      <c r="B35">
+        <v>20.28</v>
+      </c>
+      <c r="C35">
+        <v>27.28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>352</v>
+      </c>
+      <c r="B36">
+        <v>104.63</v>
+      </c>
+      <c r="C36">
+        <v>1450.83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B37">
+        <v>141.4</v>
+      </c>
+      <c r="C37">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>354</v>
+      </c>
+      <c r="B38">
+        <f>B36+B37</f>
+        <v>246.03</v>
+      </c>
+      <c r="C38">
+        <f>C36+C37</f>
+        <v>2789.83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>355</v>
+      </c>
+      <c r="B39">
+        <f>(171-65.79)/B35</f>
+        <v>5.1878698224852062</v>
+      </c>
+      <c r="C39">
+        <v>18.079999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>356</v>
+      </c>
+      <c r="B40">
+        <v>133.69999999999999</v>
+      </c>
+      <c r="C40">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>357</v>
+      </c>
+      <c r="B41">
+        <v>3.8210000000000002</v>
+      </c>
+      <c r="C41">
+        <v>29.87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>370</v>
+      </c>
+      <c r="B42">
+        <v>0.69</v>
+      </c>
+      <c r="C42">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>459</v>
+      </c>
+      <c r="B43">
+        <f>(0.16+0.1+0.06+0.12+0.05)/5</f>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C43">
+        <f>(1.01+1.73+0.47-0.28-0.02)/5</f>
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>460</v>
+      </c>
+      <c r="B44">
+        <f>0.098+(0.08+0.13+0.11+0.06+0.11)/5</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="C44">
+        <f>0.582+(-0.21+0.27+0.91+1.56+0.3)/5</f>
+        <v>1.1480000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>358</v>
+      </c>
+      <c r="B45">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>359</v>
+      </c>
+      <c r="B46">
+        <v>2013</v>
+      </c>
+      <c r="C46">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="36" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>361</v>
+      </c>
+      <c r="B48">
+        <v>18.93</v>
+      </c>
+      <c r="C48">
+        <v>53.69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>362</v>
+      </c>
+      <c r="B49" s="2">
+        <f>B34/B39</f>
+        <v>0.99270031365839773</v>
+      </c>
+      <c r="C49" s="2">
+        <f>C34/C39</f>
+        <v>2.9413716814159296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>363</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>364</v>
+      </c>
+      <c r="B51" s="2">
+        <f>B41/B40</f>
+        <v>2.8578908002991777E-2</v>
+      </c>
+      <c r="C51" s="2">
+        <f>C41/C40</f>
+        <v>2.8205854579792258E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>365</v>
+      </c>
+      <c r="B52" s="2">
+        <f>0.69/B39</f>
+        <v>0.13300256629597948</v>
+      </c>
+      <c r="C52" s="2">
+        <f>0.69/C39</f>
+        <v>3.8163716814159296E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>366</v>
+      </c>
+      <c r="B53">
+        <v>1.74</v>
+      </c>
+      <c r="C53">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>367</v>
+      </c>
+      <c r="B54" s="2">
+        <f>(159-132)/141</f>
+        <v>0.19148936170212766</v>
+      </c>
+      <c r="C54" s="2">
+        <f>(1152-1166)/1339</f>
+        <v>-1.0455563853622106E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A55" s="36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>376</v>
+      </c>
+      <c r="B56" s="2">
+        <f>(0.69-0.098)/0.098</f>
+        <v>6.0408163265306118</v>
+      </c>
+      <c r="C56" s="2">
+        <f>(0.13-0.582)/0.582</f>
+        <v>-0.7766323024054983</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>377</v>
+      </c>
+      <c r="B57" s="2">
+        <f>(0.69-0.196)/0.196</f>
+        <v>2.5204081632653059</v>
+      </c>
+      <c r="C57" s="2">
+        <f>(0.13-1.148)/1.148</f>
+        <v>-0.88675958188153303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="36" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>407</v>
+      </c>
+      <c r="B59" s="2">
+        <f>(4.33-4.18)/4.18</f>
+        <v>3.5885167464114923E-2</v>
+      </c>
+      <c r="C59" s="2">
+        <f>(51-36.94)/36.94</f>
+        <v>0.38061721710882523</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>408</v>
+      </c>
+      <c r="B60" s="2">
+        <f>(4.33-4.15)/4.15</f>
+        <v>4.3373493975903545E-2</v>
       </c>
     </row>
   </sheetData>

--- a/个股分析.xlsx
+++ b/个股分析.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="613">
   <si>
     <t>股价</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2593,11 +2593,219 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>净利息费用*（1-税率）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>综合收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少数股东权益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>En</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金流量表调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自经营活动的现金流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售商品、提供劳务收到的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到的税费返还</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到其他与经营活动有关的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买商品、接受劳务支付的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户贷款及垫款净增加额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付给职工以及为职工支付的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付的各项税费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付其他与经营活动有关的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金投资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处置固定资产、无形资产和其他长期资产收回的现金净额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到其他与投资活动有关的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购建固定资产、无形资产和其他长期资产支付的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余现金流量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权益融资流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股利和股票回购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票发行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOA-NFO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付给股东的净现金流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债务融资流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付给债务人和债权人的净现金流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融资产净购买量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取利息、手续费及佣金的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回贷款收到的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回投资收到的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资支付的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付其他与投资活动有关的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融资产利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得投资收益收到的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处置子公司及其他营业单位收到的现金净额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净债务发行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得借款收到的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到其他与筹资活动有关的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偿还债务支付的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付其他与筹资活动有关的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债务利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偿付利息支付的现金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>?未做金融性和经营性区分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总的融资流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于金融活动的现金流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D+F</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2611,7 +2819,7 @@
     <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="180" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="186" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.000000_ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -2747,7 +2955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2855,6 +3063,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2876,15 +3087,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3120,11 +3329,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="155499392"/>
-        <c:axId val="155503872"/>
+        <c:axId val="150318376"/>
+        <c:axId val="150318760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155499392"/>
+        <c:axId val="150318376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3376,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155503872"/>
+        <c:crossAx val="150318760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3175,7 +3384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155503872"/>
+        <c:axId val="150318760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,7 +3421,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155499392"/>
+        <c:crossAx val="150318376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3478,11 +3687,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="155475104"/>
-        <c:axId val="155429000"/>
+        <c:axId val="150398232"/>
+        <c:axId val="150398616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155475104"/>
+        <c:axId val="150398232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3522,7 +3731,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155429000"/>
+        <c:crossAx val="150398616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3530,7 +3739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155429000"/>
+        <c:axId val="150398616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3578,7 +3787,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155475104"/>
+        <c:crossAx val="150398232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4897,7 +5106,7 @@
         <xdr:cNvPr id="8" name="图表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B525A9C-0E02-42D1-9915-B3BC300676F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4935,7 +5144,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66AD9D28-9845-4524-A75E-E8D3232699B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5393,43 +5602,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50" t="s">
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50" t="s">
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="50"/>
+      <c r="Z1" s="53"/>
     </row>
     <row r="2" spans="1:28" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -5447,11 +5656,11 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5473,10 +5682,10 @@
       <c r="O2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="Q2" s="50"/>
+      <c r="Q2" s="53"/>
       <c r="R2" s="43" t="s">
         <v>346</v>
       </c>
@@ -5509,10 +5718,10 @@
       <c r="B3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="49"/>
+      <c r="D3" s="52"/>
       <c r="F3" s="12" t="s">
         <v>318</v>
       </c>
@@ -5522,13 +5731,13 @@
       <c r="H3" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="42" t="s">
         <v>348</v>
       </c>
@@ -5538,11 +5747,11 @@
       <c r="R3" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
@@ -6026,11 +6235,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -6269,67 +6478,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
       <c r="X1" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="Y1" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
     </row>
     <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
       <c r="F2" t="s">
         <v>302</v>
       </c>
       <c r="G2" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
       <c r="O2" t="s">
         <v>307</v>
       </c>
@@ -6346,16 +6555,16 @@
       <c r="U2" t="s">
         <v>335</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="56" t="s">
         <v>319</v>
       </c>
-      <c r="Z2" s="53"/>
+      <c r="Z2" s="56"/>
       <c r="AA2" s="38"/>
-      <c r="AB2" s="53" t="s">
+      <c r="AB2" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
       <c r="AE2" s="39" t="s">
         <v>336</v>
       </c>
@@ -6376,15 +6585,15 @@
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
-      <c r="Q3" s="53" t="s">
+      <c r="Q3" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="R3" s="53"/>
+      <c r="R3" s="56"/>
       <c r="S3" s="39"/>
-      <c r="T3" s="53" t="s">
+      <c r="T3" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="U3" s="53"/>
+      <c r="U3" s="56"/>
       <c r="V3" s="39"/>
       <c r="Y3" t="s">
         <v>322</v>
@@ -6574,22 +6783,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -6619,10 +6828,10 @@
       <c r="I2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="12" t="s">
         <v>39</v>
       </c>
@@ -6776,30 +6985,30 @@
       <c r="C1" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="49"/>
+      <c r="N1" s="52"/>
       <c r="O1" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="Q1" s="49"/>
+      <c r="Q1" s="52"/>
       <c r="R1" s="19" t="s">
         <v>162</v>
       </c>
@@ -7105,43 +7314,43 @@
       <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50" t="s">
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="1:22" s="35" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="35" t="s">
@@ -7925,87 +8134,87 @@
       <c r="A1" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="49" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49" t="s">
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="33"/>
       <c r="N2" s="34"/>
       <c r="O2" s="33"/>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="Q2" s="53"/>
+      <c r="Q2" s="56"/>
       <c r="R2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53" t="s">
+      <c r="T2" s="56"/>
+      <c r="U2" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53" t="s">
+      <c r="V2" s="56"/>
+      <c r="W2" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53" t="s">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="AA2" s="53"/>
+      <c r="AA2" s="56"/>
     </row>
     <row r="3" spans="1:27" ht="189" x14ac:dyDescent="0.15">
       <c r="B3" s="17" t="s">
@@ -8103,13 +8312,13 @@
       <c r="J4" t="s">
         <v>258</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="P5" s="2">
@@ -8131,6 +8340,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="P4:T4"/>
     <mergeCell ref="U2:V2"/>
@@ -8139,12 +8354,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8154,16 +8363,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
     <col min="4" max="4" width="28.625" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="23.875" customWidth="1"/>
@@ -8172,28 +8382,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="49" t="s">
         <v>473</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="49" t="s">
         <v>476</v>
       </c>
     </row>
@@ -8201,13 +8411,13 @@
       <c r="C4" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="50">
         <v>565877218.20000005</v>
       </c>
       <c r="F4" t="s">
         <v>481</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="50">
         <v>1617766025.99</v>
       </c>
     </row>
@@ -8215,11 +8425,11 @@
       <c r="C5" t="s">
         <v>524</v>
       </c>
-      <c r="D5" s="57"/>
+      <c r="D5" s="50"/>
       <c r="F5" t="s">
         <v>483</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="50">
         <v>307253250.00999999</v>
       </c>
     </row>
@@ -8227,13 +8437,13 @@
       <c r="C6" t="s">
         <v>477</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="50">
         <v>20085570</v>
       </c>
       <c r="F6" t="s">
         <v>482</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="50">
         <v>100000000</v>
       </c>
     </row>
@@ -8241,21 +8451,21 @@
       <c r="C7" t="s">
         <v>487</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="50">
         <v>1285323.54</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="G7" s="57"/>
+      <c r="E7" s="50"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>488</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="50"/>
       <c r="F8" t="s">
         <v>484</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="50">
         <v>411560067.05000001</v>
       </c>
     </row>
@@ -8263,26 +8473,26 @@
       <c r="C9" t="s">
         <v>493</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="50">
         <v>13020.42</v>
       </c>
       <c r="F9" t="s">
         <v>511</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>478</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="50">
         <v>100000000</v>
       </c>
       <c r="F10" t="s">
         <v>485</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="50">
         <v>497642363.63999999</v>
       </c>
     </row>
@@ -8290,13 +8500,13 @@
       <c r="C11" t="s">
         <v>479</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="50">
         <v>289400000</v>
       </c>
       <c r="F11" t="s">
         <v>519</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="50">
         <f>SUM(G4:G10)</f>
         <v>2934221706.6900001</v>
       </c>
@@ -8305,36 +8515,36 @@
       <c r="C12" t="s">
         <v>496</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="50">
         <v>14995291.25</v>
       </c>
-      <c r="G12" s="57"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>518</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="50">
         <f>SUM(D4:D12)</f>
         <v>991656423.40999997</v>
       </c>
-      <c r="G13" s="57"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>520</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="50">
         <f>G11-D13</f>
         <v>1942565283.2800002</v>
       </c>
-      <c r="G14" s="57"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="49" t="s">
         <v>504</v>
       </c>
     </row>
@@ -8342,13 +8552,13 @@
       <c r="C16" t="s">
         <v>490</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="50">
         <v>478150320.69</v>
       </c>
       <c r="F16" t="s">
         <v>505</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="50">
         <v>537135244.74000001</v>
       </c>
     </row>
@@ -8356,13 +8566,13 @@
       <c r="C17" t="s">
         <v>489</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="50">
         <v>74110405.450000003</v>
       </c>
       <c r="F17" t="s">
         <v>506</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="50">
         <v>276096316.60000002</v>
       </c>
     </row>
@@ -8370,13 +8580,13 @@
       <c r="C18" t="s">
         <v>491</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="50">
         <v>76478267.040000007</v>
       </c>
       <c r="F18" t="s">
         <v>507</v>
       </c>
-      <c r="G18" s="57">
+      <c r="G18" s="50">
         <v>114102202.48999999</v>
       </c>
     </row>
@@ -8384,13 +8594,13 @@
       <c r="C19" t="s">
         <v>492</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="50">
         <v>2066416989.02</v>
       </c>
       <c r="F19" t="s">
         <v>508</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="50">
         <v>39071070.329999998</v>
       </c>
     </row>
@@ -8400,13 +8610,13 @@
       <c r="C20" t="s">
         <v>494</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="50">
         <v>31555890.039999999</v>
       </c>
       <c r="F20" t="s">
         <v>509</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="50">
         <v>14579229.77</v>
       </c>
     </row>
@@ -8416,13 +8626,13 @@
       <c r="C21" t="s">
         <v>495</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="50">
         <v>206000000</v>
       </c>
       <c r="F21" t="s">
         <v>525</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="50">
         <v>25936723.309999999</v>
       </c>
     </row>
@@ -8430,13 +8640,13 @@
       <c r="C22" t="s">
         <v>480</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="50">
         <v>1322140.3400000001</v>
       </c>
       <c r="F22" t="s">
         <v>510</v>
       </c>
-      <c r="G22" s="57">
+      <c r="G22" s="50">
         <v>19268787.18</v>
       </c>
     </row>
@@ -8444,13 +8654,13 @@
       <c r="C23" t="s">
         <v>497</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="50">
         <v>2845891941.6999998</v>
       </c>
       <c r="F23" t="s">
         <v>512</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G23" s="50">
         <v>1816081.9</v>
       </c>
     </row>
@@ -8458,13 +8668,13 @@
       <c r="C24" t="s">
         <v>498</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="50">
         <v>49714874.829999998</v>
       </c>
       <c r="F24" t="s">
         <v>513</v>
       </c>
-      <c r="G24" s="57">
+      <c r="G24" s="50">
         <v>46809332.100000001</v>
       </c>
     </row>
@@ -8472,13 +8682,13 @@
       <c r="C25" t="s">
         <v>499</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="50">
         <v>421065054.44999999</v>
       </c>
       <c r="F25" t="s">
         <v>514</v>
       </c>
-      <c r="G25" s="57">
+      <c r="G25" s="50">
         <v>71849676.299999997</v>
       </c>
     </row>
@@ -8486,13 +8696,13 @@
       <c r="C26" t="s">
         <v>500</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="50">
         <v>6436043.2800000003</v>
       </c>
       <c r="F26" t="s">
         <v>522</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G26" s="50">
         <f>SUM(G16:G25)</f>
         <v>1146664664.7199998</v>
       </c>
@@ -8501,7 +8711,7 @@
       <c r="C27" t="s">
         <v>501</v>
       </c>
-      <c r="D27" s="57">
+      <c r="D27" s="50">
         <v>3912319.82</v>
       </c>
     </row>
@@ -8509,7 +8719,7 @@
       <c r="C28" t="s">
         <v>502</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="50">
         <v>40250511.670000002</v>
       </c>
     </row>
@@ -8517,7 +8727,7 @@
       <c r="C29" t="s">
         <v>503</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="50">
         <v>116425476.5</v>
       </c>
     </row>
@@ -8525,43 +8735,46 @@
       <c r="C30" t="s">
         <v>521</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="50">
         <f>SUM(D16:D29)</f>
         <v>6417730234.829999</v>
       </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
         <v>517</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="50">
         <f>D30-G26</f>
         <v>5271065570.1099987</v>
       </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="49" t="s">
         <v>515</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="50">
         <v>5246322.68</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E33" s="56" t="s">
+      <c r="D33" t="s">
+        <v>523</v>
+      </c>
+      <c r="E33" s="49" t="s">
         <v>516</v>
       </c>
-      <c r="F33" s="57">
+      <c r="F33" s="50">
         <v>3323253964.1500001</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="F34" s="45">
         <f>D31-D14</f>
@@ -8569,25 +8782,28 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="49" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>562</v>
+      </c>
       <c r="C36" t="s">
         <v>528</v>
       </c>
       <c r="D36" t="s">
         <v>543</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="50">
         <f>4821675351.22-6999822.27</f>
         <v>4814675528.9499998</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="C37" t="s">
         <v>527</v>
@@ -8595,7 +8811,7 @@
       <c r="D37" t="s">
         <v>529</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="50">
         <f>4387211481.2-173291696.47</f>
         <v>4213919784.73</v>
       </c>
@@ -8610,7 +8826,7 @@
       <c r="D38" t="s">
         <v>531</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="50">
         <v>69225719.019999996</v>
       </c>
     </row>
@@ -8621,7 +8837,7 @@
       <c r="D39" t="s">
         <v>540</v>
       </c>
-      <c r="E39" s="57">
+      <c r="E39" s="50">
         <f>13177346.1+138057.82</f>
         <v>13315403.92</v>
       </c>
@@ -8638,7 +8854,7 @@
       <c r="D41" t="s">
         <v>538</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="50">
         <f>26283563.05-7601464.17</f>
         <v>18682098.880000003</v>
       </c>
@@ -8651,10 +8867,10 @@
       <c r="F42" s="45"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
+      <c r="B43" t="s">
         <v>539</v>
       </c>
-      <c r="E43" s="57">
+      <c r="E43" s="50">
         <f>E36-E37+E38+E39+E40+E41</f>
         <v>701978966.03999972</v>
       </c>
@@ -8663,7 +8879,7 @@
       <c r="C44" t="s">
         <v>542</v>
       </c>
-      <c r="E44" s="57">
+      <c r="E44" s="50">
         <v>121650803.95999999</v>
       </c>
     </row>
@@ -8674,7 +8890,7 @@
       <c r="D45" t="s">
         <v>546</v>
       </c>
-      <c r="E45" s="57">
+      <c r="E45" s="50">
         <f>173291696.47*E46</f>
         <v>39353336.147708274</v>
       </c>
@@ -8695,7 +8911,10 @@
       <c r="B47" t="s">
         <v>547</v>
       </c>
-      <c r="E47" s="60">
+      <c r="C47" t="s">
+        <v>564</v>
+      </c>
+      <c r="E47" s="51">
         <f>E43-E44-E45</f>
         <v>540974825.93229139</v>
       </c>
@@ -8704,37 +8923,37 @@
       <c r="B48" t="s">
         <v>548</v>
       </c>
-      <c r="D48" t="s">
-        <v>559</v>
-      </c>
-      <c r="E48" s="60">
-        <f>E51*(1-E46)</f>
-        <v>103773320.56256963</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>565</v>
+      </c>
+      <c r="E48" s="51">
+        <f>E53+E54+E55+E56</f>
+        <v>143548382.81256962</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
         <v>549</v>
       </c>
       <c r="D49" t="s">
         <v>549</v>
       </c>
-      <c r="E49" s="57">
+      <c r="E49" s="50">
         <v>141263484.49000001</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
         <v>550</v>
       </c>
       <c r="D50" t="s">
         <v>550</v>
       </c>
-      <c r="E50" s="57">
+      <c r="E50" s="50">
         <v>-6999822.2699999996</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
         <v>551</v>
       </c>
@@ -8743,7 +8962,7 @@
         <v>134263662.22</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
         <v>544</v>
       </c>
@@ -8755,7 +8974,7 @@
         <v>30490341.657430366</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
         <v>552</v>
       </c>
@@ -8764,39 +8983,428 @@
         <v>103773320.56256963</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
         <v>556</v>
       </c>
-      <c r="D55" s="57" t="s">
+      <c r="D55" s="50" t="s">
         <v>558</v>
       </c>
-      <c r="E55" s="57">
+      <c r="E55" s="50">
         <f>32915941.93+6859120.32</f>
         <v>39775062.25</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C56" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
-        <v>515</v>
-      </c>
-      <c r="E57" s="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>560</v>
+      </c>
+      <c r="E57" s="50">
         <v>3833049.95</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>560</v>
+        <v>559</v>
+      </c>
+      <c r="C58" t="s">
+        <v>561</v>
+      </c>
+      <c r="E58" s="51">
+        <f>E47-E48-E57</f>
+        <v>393593393.16972178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="49" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>567</v>
+      </c>
+      <c r="C60" t="s">
+        <v>607</v>
+      </c>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50">
+        <f>E61+E64+E65-E66-E67-E68-E69-E70</f>
+        <v>862031143.98999989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>533</v>
+      </c>
+      <c r="C61" t="s">
+        <v>568</v>
+      </c>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50">
+        <v>5403825452.1499996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>533</v>
+      </c>
+      <c r="C62" t="s">
+        <v>589</v>
+      </c>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>533</v>
+      </c>
+      <c r="C63" t="s">
+        <v>590</v>
+      </c>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>533</v>
+      </c>
+      <c r="C64" t="s">
+        <v>569</v>
+      </c>
+      <c r="D64" s="61" t="s">
+        <v>604</v>
+      </c>
+      <c r="E64" s="50">
+        <v>138053949.56</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>533</v>
+      </c>
+      <c r="C65" t="s">
+        <v>570</v>
+      </c>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50">
+        <v>41167074.399999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>541</v>
+      </c>
+      <c r="C66" t="s">
+        <v>571</v>
+      </c>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50">
+        <v>3262382827.1599998</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>541</v>
+      </c>
+      <c r="C67" t="s">
+        <v>572</v>
+      </c>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>541</v>
+      </c>
+      <c r="C68" t="s">
+        <v>573</v>
+      </c>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50">
+        <v>1011027715.53</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>541</v>
+      </c>
+      <c r="C69" t="s">
+        <v>574</v>
+      </c>
+      <c r="D69" s="61" t="s">
+        <v>604</v>
+      </c>
+      <c r="E69" s="50">
+        <v>258432365.28</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>541</v>
+      </c>
+      <c r="C70" t="s">
+        <v>575</v>
+      </c>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50">
+        <v>189172424.15000001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>576</v>
+      </c>
+      <c r="C71" t="s">
+        <v>608</v>
+      </c>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50">
+        <f>E73-E72</f>
+        <v>639750539.67000008</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>533</v>
+      </c>
+      <c r="C72" t="s">
+        <v>577</v>
+      </c>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50">
+        <v>2175607.0299999998</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>541</v>
+      </c>
+      <c r="C73" t="s">
+        <v>579</v>
+      </c>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50">
+        <v>641926146.70000005</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>580</v>
+      </c>
+      <c r="C74" t="s">
+        <v>609</v>
+      </c>
+      <c r="E74" s="50">
+        <f>E60-E71</f>
+        <v>222280604.31999981</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>581</v>
+      </c>
+      <c r="C75" t="s">
+        <v>585</v>
+      </c>
+      <c r="D75" s="50" t="s">
+        <v>610</v>
+      </c>
+      <c r="E75" s="50">
+        <v>272400001.5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>582</v>
+      </c>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50">
+        <v>272400001.5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>586</v>
+      </c>
+      <c r="C78" t="s">
+        <v>587</v>
+      </c>
+      <c r="D78" t="s">
+        <v>611</v>
+      </c>
+      <c r="E78" s="45">
+        <f>E79-E84-E87-E93</f>
+        <v>-390719513.00999957</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C79" t="s">
+        <v>588</v>
+      </c>
+      <c r="E79" s="45">
+        <f>E82+E83-E80-E81</f>
+        <v>-351124180</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>541</v>
+      </c>
+      <c r="D80" t="s">
+        <v>591</v>
+      </c>
+      <c r="E80" s="50">
+        <v>1160076660</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>541</v>
+      </c>
+      <c r="D81" t="s">
+        <v>578</v>
+      </c>
+      <c r="E81" s="50">
+        <v>24616120</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
+        <v>533</v>
+      </c>
+      <c r="D82" t="s">
+        <v>592</v>
+      </c>
+      <c r="E82" s="50">
+        <v>809880000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>533</v>
+      </c>
+      <c r="D83" t="s">
+        <v>593</v>
+      </c>
+      <c r="E83" s="50">
+        <v>23688600</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>594</v>
+      </c>
+      <c r="E84" s="50">
+        <f>E85</f>
+        <v>68855583.120000005</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D85" t="s">
+        <v>595</v>
+      </c>
+      <c r="E85" s="50">
+        <v>68855583.120000005</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D86" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>597</v>
+      </c>
+      <c r="E87" s="45">
+        <f>E88+E89-E90-E91</f>
+        <v>-172713421.54000044</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C88" t="s">
+        <v>533</v>
+      </c>
+      <c r="D88" t="s">
+        <v>598</v>
+      </c>
+      <c r="E88" s="45">
+        <v>2676844825.9899998</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>533</v>
+      </c>
+      <c r="D89" t="s">
+        <v>599</v>
+      </c>
+      <c r="E89" s="50">
+        <v>208009201.72</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C90" t="s">
+        <v>541</v>
+      </c>
+      <c r="D90" t="s">
+        <v>600</v>
+      </c>
+      <c r="E90" s="50">
+        <v>2806878800</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D91" t="s">
+        <v>601</v>
+      </c>
+      <c r="E91" s="45">
+        <v>250688649.25</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C92" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D93" t="s">
+        <v>603</v>
+      </c>
+      <c r="E93" s="45">
+        <f>415853172.93-E76</f>
+        <v>143453171.43000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>605</v>
+      </c>
+      <c r="C94" t="s">
+        <v>606</v>
+      </c>
+      <c r="D94" t="s">
+        <v>612</v>
+      </c>
+      <c r="E94" s="45">
+        <f>E75+E78</f>
+        <v>-118319511.50999957</v>
       </c>
     </row>
   </sheetData>
@@ -8813,7 +9421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E33" sqref="E33:E37"/>
     </sheetView>
   </sheetViews>
